--- a/对比/架构优化_160220.xlsx
+++ b/对比/架构优化_160220.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="算法分析" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="资源数比较" sheetId="6" r:id="rId6"/>
     <sheet name="面积比较" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -163,10 +163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TH/GE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -191,15 +187,19 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TH/GE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0.0"/>
-    <numFmt numFmtId="181" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="182" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -249,7 +249,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -365,18 +371,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,7 +380,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -414,22 +408,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,12 +452,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -490,7 +502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,7 +537,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -774,7 +786,7 @@
       <c r="I1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -937,7 +949,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -974,11 +986,11 @@
         <f>算法分析!G1</f>
         <v>GFM</v>
       </c>
-      <c r="H1" s="15" t="str">
+      <c r="H1" s="11" t="str">
         <f>算法分析!H1</f>
         <v>X2</v>
       </c>
-      <c r="I1" s="15" t="str">
+      <c r="I1" s="11" t="str">
         <f>算法分析!I1</f>
         <v>BR</v>
       </c>
@@ -990,7 +1002,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5">
@@ -1006,7 +1018,8 @@
         <v>1614</v>
       </c>
       <c r="F2" s="5">
-        <v>51191</v>
+        <f>51191/4</f>
+        <v>12797.75</v>
       </c>
       <c r="G2" s="5">
         <v>8000</v>
@@ -1026,7 +1039,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="7">
         <f>B2/$B2</f>
         <v>1</v>
@@ -1045,7 +1058,7 @@
       </c>
       <c r="F3" s="7">
         <f t="shared" si="0"/>
-        <v>40.055555555555557</v>
+        <v>10.013888888888889</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" si="0"/>
@@ -1069,25 +1082,26 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>35</v>
+      <c r="A4" s="30" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="7">
         <v>1682.5</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="25">
         <v>5390.2777777777783</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="25">
         <v>2973.3333333333335</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="25">
         <v>369.16666666666669</v>
       </c>
-      <c r="F4" s="29">
-        <v>155052.41756944446</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="F4" s="25">
+        <f>155052.417569444/4</f>
+        <v>38763.104392360998</v>
+      </c>
+      <c r="G4" s="26">
         <v>8000</v>
       </c>
       <c r="H4" s="7">
@@ -1100,12 +1114,12 @@
         <f>38714/5</f>
         <v>7742.8</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="26">
         <v>38714</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="7">
         <f>B4/$B4</f>
         <v>1</v>
@@ -1123,8 +1137,8 @@
         <v>0.21941555225359088</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="3"/>
-        <v>92.155968837708443</v>
+        <f>F4/$B4</f>
+        <v>23.038992209427043</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="3"/>
@@ -1148,7 +1162,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5">
@@ -1173,7 +1187,7 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="7">
         <f>B6/$B6</f>
         <v>1</v>
@@ -1202,7 +1216,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7">
         <f>B4</f>
@@ -1221,8 +1235,8 @@
         <v>369.16666666666669</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="6"/>
-        <v>155052.41756944446</v>
+        <f>F4</f>
+        <v>38763.104392360998</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="6"/>
@@ -1261,7 +1275,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1311,7 +1325,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1342,7 +1356,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1371,7 +1385,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1401,7 @@
       <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="34">
         <v>1</v>
       </c>
       <c r="H4" s="5">
@@ -1400,7 +1414,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +1443,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1458,7 +1472,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -1476,7 +1490,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1494,8 +1508,8 @@
       <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
-        <v>1</v>
+      <c r="G8" s="34">
+        <v>4</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5">
@@ -1507,7 +1521,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1536,8 +1550,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="25" t="str">
+      <c r="A10" s="31"/>
+      <c r="B10" s="21" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
       </c>
@@ -1554,7 +1568,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="5"/>
@@ -1571,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
@@ -1587,7 +1601,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -1605,7 +1619,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="5"/>
@@ -1622,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -1638,7 +1652,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1669,7 +1683,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1715,11 +1729,11 @@
         <v>26</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="str">
+      <c r="A2" s="30" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
@@ -1741,7 +1755,7 @@
       </c>
       <c r="F2" s="5">
         <f>SUMPRODUCT(架构比较!G2:G6,架构比较!$K2:$K6)*单元面积!F9</f>
-        <v>620209.67027777783</v>
+        <v>155052.41756944399</v>
       </c>
       <c r="G2" s="5">
         <f>SUMPRODUCT(架构比较!H2:H6,架构比较!$K2:$K6)*单元面积!G9</f>
@@ -1761,51 +1775,51 @@
       </c>
       <c r="K2" s="5">
         <f>SUM(B2:I2)</f>
-        <v>753406.33694444445</v>
+        <v>288249.08423611068</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="33">
+      <c r="A3" s="31"/>
+      <c r="B3" s="29">
         <f>B2/$K2</f>
-        <v>2.6798288002041048E-2</v>
-      </c>
-      <c r="C3" s="33">
+        <v>7.0043587661364301E-2</v>
+      </c>
+      <c r="C3" s="29">
         <f t="shared" ref="C3:J3" si="0">C2/$K2</f>
-        <v>8.5854511916725537E-2</v>
-      </c>
-      <c r="D3" s="33">
+        <v>0.2244008285568391</v>
+      </c>
+      <c r="D3" s="29">
         <f t="shared" si="0"/>
-        <v>1.5786080830655847E-2</v>
-      </c>
-      <c r="E3" s="33">
+        <v>4.1260610991538355E-2</v>
+      </c>
+      <c r="E3" s="29">
         <f t="shared" si="0"/>
-        <v>5.879961161418615E-3</v>
-      </c>
-      <c r="F3" s="33">
+        <v>1.5368652468541051E-2</v>
+      </c>
+      <c r="F3" s="29">
         <f t="shared" si="0"/>
-        <v>0.82320739800667697</v>
-      </c>
-      <c r="G3" s="33">
+        <v>0.5379112234834974</v>
+      </c>
+      <c r="G3" s="29">
         <f t="shared" si="0"/>
-        <v>4.2473760082482097E-2</v>
-      </c>
-      <c r="H3" s="33">
+        <v>0.11101509683821979</v>
+      </c>
+      <c r="H3" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="29">
         <f t="shared" si="0"/>
-        <v>3.0831171521872723E-2</v>
+        <v>8.0584471106153271E-2</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="str">
+      <c r="A4" s="30" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
@@ -1827,7 +1841,7 @@
       </c>
       <c r="F4" s="5">
         <f>SUMPRODUCT(架构比较!G8:G9,架构比较!$K8:$K9)*单元面积!F9</f>
-        <v>620209.67027777783</v>
+        <v>620209.67027777596</v>
       </c>
       <c r="G4" s="5">
         <f>SUMPRODUCT(架构比较!H8:H9,架构比较!$K8:$K9)*单元面积!G9</f>
@@ -1847,51 +1861,51 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(B4:I4)</f>
-        <v>710405.22583333333</v>
+        <v>710405.22583333147</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="33">
+      <c r="A5" s="31"/>
+      <c r="B5" s="29">
         <f>B4/$K4</f>
-        <v>1.8946932694943072E-2</v>
-      </c>
-      <c r="C5" s="33">
+        <v>1.894693269494312E-2</v>
+      </c>
+      <c r="C5" s="29">
         <f t="shared" ref="C5:J5" si="1">C4/$K4</f>
-        <v>6.0700879799466791E-2</v>
-      </c>
-      <c r="D5" s="33">
+        <v>6.070087979946695E-2</v>
+      </c>
+      <c r="D5" s="29">
         <f t="shared" si="1"/>
-        <v>1.6741618587309777E-2</v>
-      </c>
-      <c r="E5" s="33">
+        <v>1.6741618587309822E-2</v>
+      </c>
+      <c r="E5" s="29">
         <f t="shared" si="1"/>
-        <v>2.4943510204635307E-2</v>
-      </c>
-      <c r="F5" s="33">
+        <v>2.4943510204635373E-2</v>
+      </c>
+      <c r="F5" s="29">
         <f t="shared" si="1"/>
-        <v>0.87303646950266656</v>
-      </c>
-      <c r="G5" s="33">
+        <v>0.87303646950266622</v>
+      </c>
+      <c r="G5" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="29">
         <f t="shared" si="1"/>
-        <v>5.6305892109786244E-3</v>
-      </c>
-      <c r="I5" s="33">
+        <v>5.6305892109786392E-3</v>
+      </c>
+      <c r="I5" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="29">
         <f t="shared" si="1"/>
-        <v>5.449565767845662E-2</v>
+        <v>5.4495657678456759E-2</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="30" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
@@ -1913,7 +1927,7 @@
       </c>
       <c r="F6" s="5">
         <f>架构比较!G11*架构比较!$K11*单元面积!F9</f>
-        <v>2480838.6811111113</v>
+        <v>1085366.9229861079</v>
       </c>
       <c r="G6" s="5">
         <f>架构比较!H11*架构比较!$K11*单元面积!G9</f>
@@ -1933,51 +1947,51 @@
       </c>
       <c r="K6" s="5">
         <f>SUM(B6:I6)</f>
-        <v>2527299.7922222223</v>
+        <v>1131828.0340972189</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="33">
+      <c r="A7" s="31"/>
+      <c r="B7" s="29">
         <f>B6/$K6</f>
-        <v>2.6629211226588982E-3</v>
-      </c>
-      <c r="C7" s="33">
+        <v>5.9461329789096953E-3</v>
+      </c>
+      <c r="C7" s="29">
         <f t="shared" ref="C7:J7" si="2">C6/$K6</f>
-        <v>8.5312835372619977E-3</v>
-      </c>
-      <c r="D7" s="33">
-        <f t="shared" si="2"/>
-        <v>4.7059448071554971E-3</v>
-      </c>
-      <c r="E7" s="33">
-        <f t="shared" si="2"/>
-        <v>5.8428630873595439E-4</v>
-      </c>
-      <c r="F7" s="33">
-        <f t="shared" si="2"/>
-        <v>0.98161630398811595</v>
-      </c>
-      <c r="G7" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="33">
-        <f t="shared" si="2"/>
-        <v>1.8992602360717252E-3</v>
-      </c>
-      <c r="J7" s="33">
-        <f t="shared" si="2"/>
-        <v>1.531832516235016E-2</v>
+        <v>1.9049811863256175E-2</v>
+      </c>
+      <c r="D7" s="29">
+        <f t="shared" si="2"/>
+        <v>1.0508074526374341E-2</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="2"/>
+        <v>1.3046740513407602E-3</v>
+      </c>
+      <c r="F7" s="29">
+        <f t="shared" si="2"/>
+        <v>0.95895037964122365</v>
+      </c>
+      <c r="G7" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="29">
+        <f t="shared" si="2"/>
+        <v>4.2409269388954734E-3</v>
+      </c>
+      <c r="J7" s="29">
+        <f t="shared" si="2"/>
+        <v>3.4204842815083202E-2</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="str">
+      <c r="A8" s="33" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
@@ -1999,7 +2013,7 @@
       </c>
       <c r="F8" s="5">
         <f>架构比较!G13*架构比较!$K13*单元面积!F9</f>
-        <v>620209.67027777783</v>
+        <v>310104.83513888798</v>
       </c>
       <c r="G8" s="5">
         <f>架构比较!H13*架构比较!$K13*单元面积!G9</f>
@@ -2019,46 +2033,46 @@
       </c>
       <c r="K8" s="5">
         <f>SUM(B8:I8)</f>
-        <v>695347.44805555558</v>
+        <v>385242.61291666573</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="33">
+      <c r="A9" s="33"/>
+      <c r="B9" s="29">
         <f>B8/$K8</f>
-        <v>9.6786146534650098E-3</v>
-      </c>
-      <c r="C9" s="33">
+        <v>1.7469510833828264E-2</v>
+      </c>
+      <c r="C9" s="29">
         <f t="shared" ref="C9:J9" si="3">C8/$K8</f>
-        <v>3.100767993239038E-2</v>
-      </c>
-      <c r="D9" s="33">
-        <f t="shared" si="3"/>
-        <v>1.71041590309872E-2</v>
-      </c>
-      <c r="E9" s="33">
-        <f t="shared" si="3"/>
-        <v>4.2472771584794447E-3</v>
-      </c>
-      <c r="F9" s="33">
-        <f t="shared" si="3"/>
-        <v>0.89194211039690974</v>
-      </c>
-      <c r="G9" s="33">
-        <f t="shared" si="3"/>
-        <v>4.6020158827768248E-2</v>
-      </c>
-      <c r="H9" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="33">
-        <f t="shared" si="3"/>
-        <v>1.1135152680363875E-2</v>
+        <v>5.5967617257790571E-2</v>
+      </c>
+      <c r="D9" s="29">
+        <f t="shared" si="3"/>
+        <v>3.0872320284843609E-2</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="3"/>
+        <v>7.6661647344090349E-3</v>
+      </c>
+      <c r="F9" s="29">
+        <f t="shared" si="3"/>
+        <v>0.80495984800614129</v>
+      </c>
+      <c r="G9" s="29">
+        <f t="shared" si="3"/>
+        <v>8.3064538882987288E-2</v>
+      </c>
+      <c r="H9" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="29">
+        <f t="shared" si="3"/>
+        <v>2.0098503489474812E-2</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -2120,7 +2134,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="str">
+      <c r="A2" s="33" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
@@ -2140,7 +2154,7 @@
       <c r="F2" s="5">
         <v>4</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="12">
         <f>C2*4/3</f>
         <v>2.6666666666666665</v>
       </c>
@@ -2149,7 +2163,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="5" t="str">
         <f>架构比较!B3</f>
         <v>T2</v>
@@ -2166,7 +2180,7 @@
       <c r="F3" s="5">
         <v>4</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="12">
         <f>C3*4/3</f>
         <v>2.6666666666666665</v>
       </c>
@@ -2175,7 +2189,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="5" t="str">
         <f>架构比较!B4</f>
         <v>T3</v>
@@ -2192,7 +2206,7 @@
       <c r="F4" s="5">
         <v>8</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="12">
         <f>C4*4/3</f>
         <v>5.333333333333333</v>
       </c>
@@ -2201,7 +2215,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="str">
         <f>架构比较!B5</f>
         <v>T4</v>
@@ -2218,7 +2232,7 @@
       <c r="F5" s="5">
         <v>4</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="12">
         <f>C5*4/3</f>
         <v>2.6666666666666665</v>
       </c>
@@ -2227,7 +2241,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="5" t="str">
         <f>架构比较!B6</f>
         <v>T5</v>
@@ -2244,7 +2258,7 @@
       <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
         <f>C6*4/3</f>
         <v>2.6666666666666665</v>
       </c>
@@ -2253,7 +2267,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -2278,7 +2292,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="str">
+      <c r="A8" s="33" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
@@ -2306,7 +2320,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="5" t="str">
         <f>架构比较!B9</f>
         <v>T2</v>
@@ -2331,7 +2345,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2356,7 +2370,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="str">
+      <c r="A11" s="30" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
@@ -2383,7 +2397,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2408,7 +2422,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="str">
+      <c r="A13" s="30" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
@@ -2435,7 +2449,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -2474,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,7 +2502,7 @@
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="str">
         <f>映射分析!A2</f>
         <v>本文</v>
@@ -2528,489 +2542,489 @@
       <c r="J1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="32" t="str">
+      <c r="K1" s="28" t="str">
         <f>B1</f>
         <v>AU</v>
       </c>
-      <c r="L1" s="32" t="str">
-        <f t="shared" ref="L1:S1" si="0">C1</f>
+      <c r="L1" s="28" t="str">
+        <f t="shared" ref="L1:R1" si="0">C1</f>
         <v>SH</v>
       </c>
-      <c r="M1" s="32" t="str">
+      <c r="M1" s="28" t="str">
         <f t="shared" si="0"/>
         <v>PER</v>
       </c>
-      <c r="N1" s="32" t="str">
+      <c r="N1" s="28" t="str">
         <f t="shared" si="0"/>
         <v>LOU</v>
       </c>
-      <c r="O1" s="32" t="str">
+      <c r="O1" s="28" t="str">
         <f t="shared" si="0"/>
         <v>LUT256*8</v>
       </c>
-      <c r="P1" s="32" t="str">
+      <c r="P1" s="28" t="str">
         <f t="shared" si="0"/>
         <v>GFM</v>
       </c>
-      <c r="Q1" s="32" t="str">
+      <c r="Q1" s="28" t="str">
         <f t="shared" si="0"/>
         <v>X2</v>
       </c>
-      <c r="R1" s="32" t="str">
+      <c r="R1" s="28" t="str">
         <f t="shared" si="0"/>
         <v>BR</v>
       </c>
-      <c r="S1" s="32"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>算法分析!A$2</f>
         <v>AES</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <f>SUMPRODUCT(架构比较!C$2:C$6,映射分析!$C$2:$C$6)</f>
         <v>12</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="14">
         <f>SUMPRODUCT(架构比较!D$2:D$6,映射分析!$C$2:$C$6)</f>
         <v>12</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <f>SUMPRODUCT(架构比较!E$2:E$6,映射分析!$C$2:$C$6)</f>
         <v>4</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <f>SUMPRODUCT(架构比较!F$2:F$6,映射分析!$C$2:$C$6)</f>
         <v>12</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="14">
         <f>SUMPRODUCT(架构比较!G$2:G$6,映射分析!$C$2:$C$6)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="14">
         <f>SUMPRODUCT(架构比较!H$2:H$6,映射分析!$C$2:$C$6)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="14">
         <f>SUMPRODUCT(架构比较!I$2:I$6,映射分析!$C$2:$C$6)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="14">
         <f>SUMPRODUCT(架构比较!J$2:J$6,映射分析!$C$2:$C$6)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="15">
         <f>映射分析!C$7</f>
         <v>3</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="27">
         <f>IF(资源数比较!B2&lt;&gt;0,算法分析!B2/资源数比较!B2,"")</f>
         <v>0</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="27">
         <f>IF(资源数比较!C2&lt;&gt;0,算法分析!C2/资源数比较!C2,"")</f>
         <v>0</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="27">
         <f>IF(资源数比较!D2&lt;&gt;0,算法分析!D2/资源数比较!D2,"")</f>
         <v>0</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="27">
         <f>IF(资源数比较!E2&lt;&gt;0,算法分析!E2/资源数比较!E2,"")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="27">
         <f>IF(资源数比较!F2&lt;&gt;0,算法分析!F2/资源数比较!F2,"")</f>
         <v>1</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="27">
         <f>IF(资源数比较!G2&lt;&gt;0,算法分析!G2/资源数比较!G2,"")</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="31" t="str">
+      <c r="Q2" s="27" t="str">
         <f>IF(资源数比较!H2&lt;&gt;0,算法分析!H2/资源数比较!H2,"")</f>
         <v/>
       </c>
-      <c r="R2" s="31" t="str">
+      <c r="R2" s="27" t="str">
         <f>IF(资源数比较!I2&lt;&gt;0,算法分析!I2/资源数比较!I2,"")</f>
         <v/>
       </c>
-      <c r="S2" s="31"/>
+      <c r="S2" s="27"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f>算法分析!A$3</f>
         <v>DES</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <f>SUMPRODUCT(架构比较!C$2:C$6,映射分析!$D$2:$D$6)</f>
         <v>12</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <f>SUMPRODUCT(架构比较!D$2:D$6,映射分析!$D$2:$D$6)</f>
         <v>12</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <f>SUMPRODUCT(架构比较!E$2:E$6,映射分析!$D$2:$D$6)</f>
         <v>4</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <f>SUMPRODUCT(架构比较!F$2:F$6,映射分析!$D$2:$D$6)</f>
         <v>12</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <f>SUMPRODUCT(架构比较!G$2:G$6,映射分析!$D$2:$D$6)</f>
         <v>4</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="14">
         <f>SUMPRODUCT(架构比较!H$2:H$6,映射分析!$D$2:$D$6)</f>
         <v>4</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <f>SUMPRODUCT(架构比较!I$2:I$6,映射分析!$D$2:$D$6)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="14">
         <f>SUMPRODUCT(架构比较!J$2:J$6,映射分析!$D$2:$D$6)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="15">
         <f>映射分析!D$7</f>
         <v>3</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="27">
         <f>IF(资源数比较!B3&lt;&gt;0,算法分析!B3/资源数比较!B3,"")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="27">
         <f>IF(资源数比较!C3&lt;&gt;0,算法分析!C3/资源数比较!C3,"")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="27">
         <f>IF(资源数比较!D3&lt;&gt;0,算法分析!D3/资源数比较!D3,"")</f>
         <v>0.5</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="27">
         <f>IF(资源数比较!E3&lt;&gt;0,算法分析!E3/资源数比较!E3,"")</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="27">
         <f>IF(资源数比较!F3&lt;&gt;0,算法分析!F3/资源数比较!F3,"")</f>
         <v>0.5</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="27">
         <f>IF(资源数比较!G3&lt;&gt;0,算法分析!G3/资源数比较!G3,"")</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="31" t="str">
+      <c r="Q3" s="27" t="str">
         <f>IF(资源数比较!H3&lt;&gt;0,算法分析!H3/资源数比较!H3,"")</f>
         <v/>
       </c>
-      <c r="R3" s="31" t="str">
+      <c r="R3" s="27" t="str">
         <f>IF(资源数比较!I3&lt;&gt;0,算法分析!I3/资源数比较!I3,"")</f>
         <v/>
       </c>
-      <c r="S3" s="31"/>
+      <c r="S3" s="27"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>算法分析!A$4</f>
         <v>SM4</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <f>SUMPRODUCT(架构比较!C$2:C$6,映射分析!$E$2:$E$6)</f>
         <v>12</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="14">
         <f>SUMPRODUCT(架构比较!D$2:D$6,映射分析!$E$2:$E$6)</f>
         <v>12</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <f>SUMPRODUCT(架构比较!E$2:E$6,映射分析!$E$2:$E$6)</f>
         <v>4</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <f>SUMPRODUCT(架构比较!F$2:F$6,映射分析!$E$2:$E$6)</f>
         <v>12</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <f>SUMPRODUCT(架构比较!G$2:G$6,映射分析!$E$2:$E$6)</f>
         <v>4</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <f>SUMPRODUCT(架构比较!H$2:H$6,映射分析!$E$2:$E$6)</f>
         <v>4</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <f>SUMPRODUCT(架构比较!I$2:I$6,映射分析!$E$2:$E$6)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="14">
         <f>SUMPRODUCT(架构比较!J$2:J$6,映射分析!$E$2:$E$6)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="15">
         <f>映射分析!E$7</f>
         <v>3</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="27">
         <f>IF(资源数比较!B4&lt;&gt;0,算法分析!B4/资源数比较!B4,"")</f>
         <v>0</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="27">
         <f>IF(资源数比较!C4&lt;&gt;0,算法分析!C4/资源数比较!C4,"")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="27">
         <f>IF(资源数比较!D4&lt;&gt;0,算法分析!D4/资源数比较!D4,"")</f>
         <v>0</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="27">
         <f>IF(资源数比较!E4&lt;&gt;0,算法分析!E4/资源数比较!E4,"")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="27">
         <f>IF(资源数比较!F4&lt;&gt;0,算法分析!F4/资源数比较!F4,"")</f>
         <v>0.25</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="27">
         <f>IF(资源数比较!G4&lt;&gt;0,算法分析!G4/资源数比较!G4,"")</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="31" t="str">
+      <c r="Q4" s="27" t="str">
         <f>IF(资源数比较!H4&lt;&gt;0,算法分析!H4/资源数比较!H4,"")</f>
         <v/>
       </c>
-      <c r="R4" s="31" t="str">
+      <c r="R4" s="27" t="str">
         <f>IF(资源数比较!I4&lt;&gt;0,算法分析!I4/资源数比较!I4,"")</f>
         <v/>
       </c>
-      <c r="S4" s="31"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>算法分析!A$5</f>
         <v>TWOFISH</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="14">
         <f>SUMPRODUCT(架构比较!C$2:C$6,映射分析!$F$2:$F$6)</f>
         <v>24</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="14">
         <f>SUMPRODUCT(架构比较!D$2:D$6,映射分析!$F$2:$F$6)</f>
         <v>24</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <f>SUMPRODUCT(架构比较!E$2:E$6,映射分析!$F$2:$F$6)</f>
         <v>8</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <f>SUMPRODUCT(架构比较!F$2:F$6,映射分析!$F$2:$F$6)</f>
         <v>24</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <f>SUMPRODUCT(架构比较!G$2:G$6,映射分析!$F$2:$F$6)</f>
         <v>8</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="14">
         <f>SUMPRODUCT(架构比较!H$2:H$6,映射分析!$F$2:$F$6)</f>
         <v>8</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <f>SUMPRODUCT(架构比较!I$2:I$6,映射分析!$F$2:$F$6)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="14">
         <f>SUMPRODUCT(架构比较!J$2:J$6,映射分析!$F$2:$F$6)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="15">
         <f>映射分析!F$7</f>
         <v>6</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="27">
         <f>IF(资源数比较!B5&lt;&gt;0,算法分析!B5/资源数比较!B5,"")</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="27">
         <f>IF(资源数比较!C5&lt;&gt;0,算法分析!C5/资源数比较!C5,"")</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="27">
         <f>IF(资源数比较!D5&lt;&gt;0,算法分析!D5/资源数比较!D5,"")</f>
         <v>0</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="27">
         <f>IF(资源数比较!E5&lt;&gt;0,算法分析!E5/资源数比较!E5,"")</f>
         <v>0.25</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="27">
         <f>IF(资源数比较!F5&lt;&gt;0,算法分析!F5/资源数比较!F5,"")</f>
         <v>0.25</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="27">
         <f>IF(资源数比较!G5&lt;&gt;0,算法分析!G5/资源数比较!G5,"")</f>
         <v>0.25</v>
       </c>
-      <c r="Q5" s="31" t="str">
+      <c r="Q5" s="27" t="str">
         <f>IF(资源数比较!H5&lt;&gt;0,算法分析!H5/资源数比较!H5,"")</f>
         <v/>
       </c>
-      <c r="R5" s="31" t="str">
+      <c r="R5" s="27" t="str">
         <f>IF(资源数比较!I5&lt;&gt;0,算法分析!I5/资源数比较!I5,"")</f>
         <v/>
       </c>
-      <c r="S5" s="31"/>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>算法分析!A$6</f>
         <v>RC5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <f>SUMPRODUCT(架构比较!C$2:C$6,映射分析!$G$2:$G$6)</f>
         <v>15.999999999999998</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="14">
         <f>SUMPRODUCT(架构比较!D$2:D$6,映射分析!$G$2:$G$6)</f>
         <v>15.999999999999998</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <f>SUMPRODUCT(架构比较!E$2:E$6,映射分析!$G$2:$G$6)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <f>SUMPRODUCT(架构比较!F$2:F$6,映射分析!$G$2:$G$6)</f>
         <v>15.999999999999998</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <f>SUMPRODUCT(架构比较!G$2:G$6,映射分析!$G$2:$G$6)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
         <f>SUMPRODUCT(架构比较!H$2:H$6,映射分析!$G$2:$G$6)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <f>SUMPRODUCT(架构比较!I$2:I$6,映射分析!$G$2:$G$6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="14">
         <f>SUMPRODUCT(架构比较!J$2:J$6,映射分析!$G$2:$G$6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="15">
         <f>映射分析!G$7</f>
         <v>4</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="27">
         <f>IF(资源数比较!B6&lt;&gt;0,算法分析!B6/资源数比较!B6,"")</f>
         <v>0.125</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="27">
         <f>IF(资源数比较!C6&lt;&gt;0,算法分析!C6/资源数比较!C6,"")</f>
         <v>0.125</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="27">
         <f>IF(资源数比较!D6&lt;&gt;0,算法分析!D6/资源数比较!D6,"")</f>
         <v>0</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="27">
         <f>IF(资源数比较!E6&lt;&gt;0,算法分析!E6/资源数比较!E6,"")</f>
         <v>0.125</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="27">
         <f>IF(资源数比较!F6&lt;&gt;0,算法分析!F6/资源数比较!F6,"")</f>
         <v>0</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="27">
         <f>IF(资源数比较!G6&lt;&gt;0,算法分析!G6/资源数比较!G6,"")</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="31" t="str">
+      <c r="Q6" s="27" t="str">
         <f>IF(资源数比较!H6&lt;&gt;0,算法分析!H6/资源数比较!H6,"")</f>
         <v/>
       </c>
-      <c r="R6" s="31" t="str">
+      <c r="R6" s="27" t="str">
         <f>IF(资源数比较!I6&lt;&gt;0,算法分析!I6/资源数比较!I6,"")</f>
         <v/>
       </c>
-      <c r="S6" s="31"/>
+      <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>算法分析!A$7</f>
         <v>BLOWFISH</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="14">
         <f>SUMPRODUCT(架构比较!C$2:C$6,映射分析!$H$2:$H$6)</f>
         <v>12</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="14">
         <f>SUMPRODUCT(架构比较!D$2:D$6,映射分析!$H$2:$H$6)</f>
         <v>12</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <f>SUMPRODUCT(架构比较!E$2:E$6,映射分析!$H$2:$H$6)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <f>SUMPRODUCT(架构比较!F$2:F$6,映射分析!$H$2:$H$6)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="14">
         <f>SUMPRODUCT(架构比较!G$2:G$6,映射分析!$H$2:$H$6)</f>
         <v>4</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="14">
         <f>SUMPRODUCT(架构比较!H$2:H$6,映射分析!$H$2:$H$6)</f>
         <v>4</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="14">
         <f>SUMPRODUCT(架构比较!I$2:I$6,映射分析!$H$2:$H$6)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="14">
         <f>SUMPRODUCT(架构比较!J$2:J$6,映射分析!$H$2:$H$6)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="15">
         <f>映射分析!H$7</f>
         <v>3</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="27">
         <f>IF(资源数比较!B7&lt;&gt;0,算法分析!B7/资源数比较!B7,"")</f>
         <v>0.25</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="27">
         <f>IF(资源数比较!C7&lt;&gt;0,算法分析!C7/资源数比较!C7,"")</f>
         <v>0</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="27">
         <f>IF(资源数比较!D7&lt;&gt;0,算法分析!D7/资源数比较!D7,"")</f>
         <v>0</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="27">
         <f>IF(资源数比较!E7&lt;&gt;0,算法分析!E7/资源数比较!E7,"")</f>
         <v>0.25</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="27">
         <f>IF(资源数比较!F7&lt;&gt;0,算法分析!F7/资源数比较!F7,"")</f>
         <v>0.25</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="27">
         <f>IF(资源数比较!G7&lt;&gt;0,算法分析!G7/资源数比较!G7,"")</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="31" t="str">
+      <c r="Q7" s="27" t="str">
         <f>IF(资源数比较!H7&lt;&gt;0,算法分析!H7/资源数比较!H7,"")</f>
         <v/>
       </c>
-      <c r="R7" s="31" t="str">
+      <c r="R7" s="27" t="str">
         <f>IF(资源数比较!I7&lt;&gt;0,算法分析!I7/资源数比较!I7,"")</f>
         <v/>
       </c>
-      <c r="S7" s="31"/>
+      <c r="S7" s="27"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -3080,7 +3094,7 @@
       </c>
       <c r="F10" s="6">
         <f>SUMPRODUCT(架构比较!G$8:G$9,映射分析!$C$8:$C$9)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G10" s="6">
         <f>SUMPRODUCT(架构比较!H$8:H$9,映射分析!$C$8:$C$9)</f>
@@ -3098,40 +3112,40 @@
         <f>映射分析!C$10</f>
         <v>2</v>
       </c>
-      <c r="K10" s="20">
-        <f>IF(B10&lt;&gt;0,(B2-B10)/B10,"")</f>
+      <c r="K10" s="16">
+        <f t="shared" ref="K10:S15" si="1">IF(B10&lt;&gt;0,(B2-B10)/B10,"")</f>
         <v>0.5</v>
       </c>
-      <c r="L10" s="20">
-        <f>IF(C10&lt;&gt;0,(C2-C10)/C10,"")</f>
+      <c r="L10" s="16">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="M10" s="20">
-        <f>IF(D10&lt;&gt;0,(D2-D10)/D10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="20">
-        <f>IF(E10&lt;&gt;0,(E2-E10)/E10,"")</f>
+      <c r="M10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="1"/>
         <v>-0.75</v>
       </c>
-      <c r="O10" s="20">
-        <f>IF(F10&lt;&gt;0,(F2-F10)/F10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="20" t="str">
-        <f>IF(G10&lt;&gt;0,(G2-G10)/G10,"")</f>
+      <c r="O10" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.75</v>
+      </c>
+      <c r="P10" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q10" s="20">
-        <f>IF(H10&lt;&gt;0,(H2-H10)/H10,"")</f>
+      <c r="Q10" s="16">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="R10" s="20" t="str">
-        <f>IF(I10&lt;&gt;0,(I2-I10)/I10,"")</f>
+      <c r="R10" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S10" s="20">
-        <f>IF(J10&lt;&gt;0,(J2-J10)/J10,"")</f>
+      <c r="S10" s="16">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3158,7 +3172,7 @@
       </c>
       <c r="F11" s="6">
         <f>SUMPRODUCT(架构比较!G$8:G$9,映射分析!$D$8:$D$9)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G11" s="6">
         <f>SUMPRODUCT(架构比较!H$8:H$9,映射分析!$D$8:$D$9)</f>
@@ -3176,40 +3190,40 @@
         <f>映射分析!D$10</f>
         <v>4</v>
       </c>
-      <c r="K11" s="20">
-        <f>IF(B11&lt;&gt;0,(B3-B11)/B11,"")</f>
+      <c r="K11" s="16">
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
-      <c r="L11" s="20">
-        <f>IF(C11&lt;&gt;0,(C3-C11)/C11,"")</f>
+      <c r="L11" s="16">
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
-      <c r="M11" s="20">
-        <f>IF(D11&lt;&gt;0,(D3-D11)/D11,"")</f>
+      <c r="M11" s="16">
+        <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
-      <c r="N11" s="20">
-        <f>IF(E11&lt;&gt;0,(E3-E11)/E11,"")</f>
+      <c r="N11" s="16">
+        <f t="shared" si="1"/>
         <v>-0.875</v>
       </c>
-      <c r="O11" s="20">
-        <f>IF(F11&lt;&gt;0,(F3-F11)/F11,"")</f>
-        <v>-0.5</v>
-      </c>
-      <c r="P11" s="20" t="str">
-        <f>IF(G11&lt;&gt;0,(G3-G11)/G11,"")</f>
+      <c r="O11" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.875</v>
+      </c>
+      <c r="P11" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q11" s="20">
-        <f>IF(H11&lt;&gt;0,(H3-H11)/H11,"")</f>
+      <c r="Q11" s="16">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="R11" s="20" t="str">
-        <f>IF(I11&lt;&gt;0,(I3-I11)/I11,"")</f>
+      <c r="R11" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S11" s="20">
-        <f>IF(J11&lt;&gt;0,(J3-J11)/J11,"")</f>
+      <c r="S11" s="16">
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
     </row>
@@ -3236,7 +3250,7 @@
       </c>
       <c r="F12" s="6">
         <f>SUMPRODUCT(架构比较!G$8:G$9,映射分析!$E$8:$E$9)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G12" s="6">
         <f>SUMPRODUCT(架构比较!H$8:H$9,映射分析!$E$8:$E$9)</f>
@@ -3254,40 +3268,40 @@
         <f>映射分析!E$10</f>
         <v>4</v>
       </c>
-      <c r="K12" s="20">
-        <f>IF(B12&lt;&gt;0,(B4-B12)/B12,"")</f>
+      <c r="K12" s="16">
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
-      <c r="L12" s="20">
-        <f>IF(C12&lt;&gt;0,(C4-C12)/C12,"")</f>
+      <c r="L12" s="16">
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
-      <c r="M12" s="20">
-        <f>IF(D12&lt;&gt;0,(D4-D12)/D12,"")</f>
+      <c r="M12" s="16">
+        <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
-      <c r="N12" s="20">
-        <f>IF(E12&lt;&gt;0,(E4-E12)/E12,"")</f>
+      <c r="N12" s="16">
+        <f t="shared" si="1"/>
         <v>-0.875</v>
       </c>
-      <c r="O12" s="20">
-        <f>IF(F12&lt;&gt;0,(F4-F12)/F12,"")</f>
-        <v>-0.5</v>
-      </c>
-      <c r="P12" s="20" t="str">
-        <f>IF(G12&lt;&gt;0,(G4-G12)/G12,"")</f>
+      <c r="O12" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.875</v>
+      </c>
+      <c r="P12" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q12" s="20">
-        <f>IF(H12&lt;&gt;0,(H4-H12)/H12,"")</f>
+      <c r="Q12" s="16">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="R12" s="20" t="str">
-        <f>IF(I12&lt;&gt;0,(I4-I12)/I12,"")</f>
+      <c r="R12" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S12" s="20">
-        <f>IF(J12&lt;&gt;0,(J4-J12)/J12,"")</f>
+      <c r="S12" s="16">
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
     </row>
@@ -3314,7 +3328,7 @@
       </c>
       <c r="F13" s="6">
         <f>SUMPRODUCT(架构比较!G$8:G$9,映射分析!$F$8:$F$9)</f>
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G13" s="6">
         <f>SUMPRODUCT(架构比较!H$8:H$9,映射分析!$F$8:$F$9)</f>
@@ -3332,40 +3346,40 @@
         <f>映射分析!F$10</f>
         <v>6</v>
       </c>
-      <c r="K13" s="20">
-        <f>IF(B13&lt;&gt;0,(B5-B13)/B13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="20">
-        <f>IF(C13&lt;&gt;0,(C5-C13)/C13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="20">
-        <f>IF(D13&lt;&gt;0,(D5-D13)/D13,"")</f>
+      <c r="K13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="1"/>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="N13" s="20">
-        <f>IF(E13&lt;&gt;0,(E5-E13)/E13,"")</f>
+      <c r="N13" s="16">
+        <f t="shared" si="1"/>
         <v>-0.83333333333333337</v>
       </c>
-      <c r="O13" s="20">
-        <f>IF(F13&lt;&gt;0,(F5-F13)/F13,"")</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="P13" s="20" t="str">
-        <f>IF(G13&lt;&gt;0,(G5-G13)/G13,"")</f>
+      <c r="O13" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.83333333333333337</v>
+      </c>
+      <c r="P13" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q13" s="20">
-        <f>IF(H13&lt;&gt;0,(H5-H13)/H13,"")</f>
+      <c r="Q13" s="16">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="R13" s="20" t="str">
-        <f>IF(I13&lt;&gt;0,(I5-I13)/I13,"")</f>
+      <c r="R13" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S13" s="20">
-        <f>IF(J13&lt;&gt;0,(J5-J13)/J13,"")</f>
+      <c r="S13" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3392,7 +3406,7 @@
       </c>
       <c r="F14" s="6">
         <f>SUMPRODUCT(架构比较!G$8:G$9,映射分析!$G$8:$G$9)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G14" s="6">
         <f>SUMPRODUCT(架构比较!H$8:H$9,映射分析!$G$8:$G$9)</f>
@@ -3410,40 +3424,40 @@
         <f>映射分析!G$10</f>
         <v>4</v>
       </c>
-      <c r="K14" s="20">
-        <f>IF(B14&lt;&gt;0,(B6-B14)/B14,"")</f>
+      <c r="K14" s="16">
+        <f t="shared" si="1"/>
         <v>-1.1102230246251565E-16</v>
       </c>
-      <c r="L14" s="20">
-        <f>IF(C14&lt;&gt;0,(C6-C14)/C14,"")</f>
+      <c r="L14" s="16">
+        <f t="shared" si="1"/>
         <v>-1.1102230246251565E-16</v>
       </c>
-      <c r="M14" s="20">
-        <f>IF(D14&lt;&gt;0,(D6-D14)/D14,"")</f>
+      <c r="M14" s="16">
+        <f t="shared" si="1"/>
         <v>-0.33333333333333337</v>
       </c>
-      <c r="N14" s="20">
-        <f>IF(E14&lt;&gt;0,(E6-E14)/E14,"")</f>
+      <c r="N14" s="16">
+        <f t="shared" si="1"/>
         <v>-0.83333333333333337</v>
       </c>
-      <c r="O14" s="20">
-        <f>IF(F14&lt;&gt;0,(F6-F14)/F14,"")</f>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="P14" s="20" t="str">
-        <f>IF(G14&lt;&gt;0,(G6-G14)/G14,"")</f>
+      <c r="O14" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.83333333333333337</v>
+      </c>
+      <c r="P14" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q14" s="20">
-        <f>IF(H14&lt;&gt;0,(H6-H14)/H14,"")</f>
+      <c r="Q14" s="16">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="R14" s="20" t="str">
-        <f>IF(I14&lt;&gt;0,(I6-I14)/I14,"")</f>
+      <c r="R14" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S14" s="20">
-        <f>IF(J14&lt;&gt;0,(J6-J14)/J14,"")</f>
+      <c r="S14" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3470,7 +3484,7 @@
       </c>
       <c r="F15" s="6">
         <f>SUMPRODUCT(架构比较!G$8:G$9,映射分析!$H$8:$H$9)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6">
         <f>SUMPRODUCT(架构比较!H$8:H$9,映射分析!$H$8:$H$9)</f>
@@ -3488,40 +3502,40 @@
         <f>映射分析!H$10</f>
         <v>4</v>
       </c>
-      <c r="K15" s="20">
-        <f>IF(B15&lt;&gt;0,(B7-B15)/B15,"")</f>
+      <c r="K15" s="16">
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
-      <c r="L15" s="20">
-        <f>IF(C15&lt;&gt;0,(C7-C15)/C15,"")</f>
+      <c r="L15" s="16">
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
-      <c r="M15" s="20">
-        <f>IF(D15&lt;&gt;0,(D7-D15)/D15,"")</f>
+      <c r="M15" s="16">
+        <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
-      <c r="N15" s="20">
-        <f>IF(E15&lt;&gt;0,(E7-E15)/E15,"")</f>
+      <c r="N15" s="16">
+        <f t="shared" si="1"/>
         <v>-0.875</v>
       </c>
-      <c r="O15" s="20">
-        <f>IF(F15&lt;&gt;0,(F7-F15)/F15,"")</f>
-        <v>-0.5</v>
-      </c>
-      <c r="P15" s="20" t="str">
-        <f>IF(G15&lt;&gt;0,(G7-G15)/G15,"")</f>
+      <c r="O15" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.875</v>
+      </c>
+      <c r="P15" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q15" s="20">
-        <f>IF(H15&lt;&gt;0,(H7-H15)/H15,"")</f>
+      <c r="Q15" s="16">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="R15" s="20" t="str">
-        <f>IF(I15&lt;&gt;0,(I7-I15)/I15,"")</f>
+      <c r="R15" s="16" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S15" s="20">
-        <f>IF(J15&lt;&gt;0,(J7-J15)/J15,"")</f>
+      <c r="S15" s="16">
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
     </row>
@@ -3557,7 +3571,7 @@
       </c>
       <c r="F18" s="6">
         <f>SUMPRODUCT(架构比较!G$11:G$11,映射分析!$C$11:$C$11)</f>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G18" s="6">
         <f>SUMPRODUCT(架构比较!H$11:H$11,映射分析!$C$11:$C$11)</f>
@@ -3575,40 +3589,40 @@
         <f>映射分析!C$12</f>
         <v>2</v>
       </c>
-      <c r="K18" s="21">
-        <f>IF(B18&lt;&gt;0,(B2-B18)/B18,"")</f>
+      <c r="K18" s="17">
+        <f t="shared" ref="K18:S23" si="2">IF(B18&lt;&gt;0,(B2-B18)/B18,"")</f>
         <v>0.5</v>
       </c>
-      <c r="L18" s="21">
-        <f>IF(C18&lt;&gt;0,(C2-C18)/C18,"")</f>
+      <c r="L18" s="17">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="M18" s="21">
-        <f>IF(D18&lt;&gt;0,(D2-D18)/D18,"")</f>
+      <c r="M18" s="17">
+        <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="N18" s="21">
-        <f>IF(E18&lt;&gt;0,(E2-E18)/E18,"")</f>
+      <c r="N18" s="17">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="O18" s="21">
-        <f>IF(F18&lt;&gt;0,(F2-F18)/F18,"")</f>
-        <v>-0.875</v>
-      </c>
-      <c r="P18" s="21" t="str">
-        <f>IF(G18&lt;&gt;0,(G2-G18)/G18,"")</f>
+      <c r="O18" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.9285714285714286</v>
+      </c>
+      <c r="P18" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q18" s="21" t="str">
-        <f>IF(H18&lt;&gt;0,(H2-H18)/H18,"")</f>
+      <c r="Q18" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R18" s="21">
-        <f>IF(I18&lt;&gt;0,(I2-I18)/I18,"")</f>
+      <c r="R18" s="17">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="S18" s="21">
-        <f>IF(J18&lt;&gt;0,(J2-J18)/J18,"")</f>
+      <c r="S18" s="17">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3635,7 +3649,7 @@
       </c>
       <c r="F19" s="6">
         <f>SUMPRODUCT(架构比较!G$11:G$11,映射分析!$D$11:$D$11)</f>
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G19" s="6">
         <f>SUMPRODUCT(架构比较!H$11:H$11,映射分析!$D$11:$D$11)</f>
@@ -3653,40 +3667,40 @@
         <f>映射分析!D$12</f>
         <v>3</v>
       </c>
-      <c r="K19" s="21">
-        <f>IF(B19&lt;&gt;0,(B3-B19)/B19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="21">
-        <f>IF(C19&lt;&gt;0,(C3-C19)/C19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="21">
-        <f>IF(D19&lt;&gt;0,(D3-D19)/D19,"")</f>
+      <c r="K19" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <f t="shared" si="2"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="N19" s="21">
-        <f>IF(E19&lt;&gt;0,(E3-E19)/E19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="21">
-        <f>IF(F19&lt;&gt;0,(F3-F19)/F19,"")</f>
-        <v>-0.91666666666666663</v>
-      </c>
-      <c r="P19" s="21" t="str">
-        <f>IF(G19&lt;&gt;0,(G3-G19)/G19,"")</f>
+      <c r="N19" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.95238095238095233</v>
+      </c>
+      <c r="P19" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q19" s="21" t="str">
-        <f>IF(H19&lt;&gt;0,(H3-H19)/H19,"")</f>
+      <c r="Q19" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R19" s="21">
-        <f>IF(I19&lt;&gt;0,(I3-I19)/I19,"")</f>
+      <c r="R19" s="17">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="S19" s="21">
-        <f>IF(J19&lt;&gt;0,(J3-J19)/J19,"")</f>
+      <c r="S19" s="17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3713,7 +3727,7 @@
       </c>
       <c r="F20" s="6">
         <f>SUMPRODUCT(架构比较!G$11:G$11,映射分析!$E$11:$E$11)</f>
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G20" s="6">
         <f>SUMPRODUCT(架构比较!H$11:H$11,映射分析!$E$11:$E$11)</f>
@@ -3731,40 +3745,40 @@
         <f>映射分析!E$12</f>
         <v>4</v>
       </c>
-      <c r="K20" s="21">
-        <f>IF(B20&lt;&gt;0,(B4-B20)/B20,"")</f>
+      <c r="K20" s="17">
+        <f t="shared" si="2"/>
         <v>-0.25</v>
       </c>
-      <c r="L20" s="21">
-        <f>IF(C20&lt;&gt;0,(C4-C20)/C20,"")</f>
+      <c r="L20" s="17">
+        <f t="shared" si="2"/>
         <v>-0.25</v>
       </c>
-      <c r="M20" s="21">
-        <f>IF(D20&lt;&gt;0,(D4-D20)/D20,"")</f>
+      <c r="M20" s="17">
+        <f t="shared" si="2"/>
         <v>-0.75</v>
       </c>
-      <c r="N20" s="21">
-        <f>IF(E20&lt;&gt;0,(E4-E20)/E20,"")</f>
+      <c r="N20" s="17">
+        <f t="shared" si="2"/>
         <v>-0.25</v>
       </c>
-      <c r="O20" s="21">
-        <f>IF(F20&lt;&gt;0,(F4-F20)/F20,"")</f>
-        <v>-0.9375</v>
-      </c>
-      <c r="P20" s="21" t="str">
-        <f>IF(G20&lt;&gt;0,(G4-G20)/G20,"")</f>
+      <c r="O20" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.9642857142857143</v>
+      </c>
+      <c r="P20" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q20" s="21" t="str">
-        <f>IF(H20&lt;&gt;0,(H4-H20)/H20,"")</f>
+      <c r="Q20" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="21">
-        <f>IF(I20&lt;&gt;0,(I4-I20)/I20,"")</f>
+      <c r="R20" s="17">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="S20" s="21">
-        <f>IF(J20&lt;&gt;0,(J4-J20)/J20,"")</f>
+      <c r="S20" s="17">
+        <f t="shared" si="2"/>
         <v>-0.25</v>
       </c>
     </row>
@@ -3791,7 +3805,7 @@
       </c>
       <c r="F21" s="6">
         <f>SUMPRODUCT(架构比较!G$11:G$11,映射分析!$F$11:$F$11)</f>
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="G21" s="6">
         <f>SUMPRODUCT(架构比较!H$11:H$11,映射分析!$F$11:$F$11)</f>
@@ -3809,40 +3823,40 @@
         <f>映射分析!F$12</f>
         <v>5</v>
       </c>
-      <c r="K21" s="21">
-        <f>IF(B21&lt;&gt;0,(B5-B21)/B21,"")</f>
+      <c r="K21" s="17">
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="L21" s="21">
-        <f>IF(C21&lt;&gt;0,(C5-C21)/C21,"")</f>
+      <c r="L21" s="17">
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="M21" s="21">
-        <f>IF(D21&lt;&gt;0,(D5-D21)/D21,"")</f>
+      <c r="M21" s="17">
+        <f t="shared" si="2"/>
         <v>-0.6</v>
       </c>
-      <c r="N21" s="21">
-        <f>IF(E21&lt;&gt;0,(E5-E21)/E21,"")</f>
+      <c r="N21" s="17">
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="O21" s="21">
-        <f>IF(F21&lt;&gt;0,(F5-F21)/F21,"")</f>
-        <v>-0.9</v>
-      </c>
-      <c r="P21" s="21" t="str">
-        <f>IF(G21&lt;&gt;0,(G5-G21)/G21,"")</f>
+      <c r="O21" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.94285714285714284</v>
+      </c>
+      <c r="P21" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q21" s="21" t="str">
-        <f>IF(H21&lt;&gt;0,(H5-H21)/H21,"")</f>
+      <c r="Q21" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R21" s="21">
-        <f>IF(I21&lt;&gt;0,(I5-I21)/I21,"")</f>
+      <c r="R21" s="17">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="S21" s="21">
-        <f>IF(J21&lt;&gt;0,(J5-J21)/J21,"")</f>
+      <c r="S21" s="17">
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3869,7 +3883,7 @@
       </c>
       <c r="F22" s="6">
         <f>SUMPRODUCT(架构比较!G$11:G$11,映射分析!$G$11:$G$11)</f>
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G22" s="6">
         <f>SUMPRODUCT(架构比较!H$11:H$11,映射分析!$G$11:$G$11)</f>
@@ -3887,40 +3901,40 @@
         <f>映射分析!G$12</f>
         <v>4</v>
       </c>
-      <c r="K22" s="21">
-        <f>IF(B22&lt;&gt;0,(B6-B22)/B22,"")</f>
+      <c r="K22" s="17">
+        <f t="shared" si="2"/>
         <v>-1.1102230246251565E-16</v>
       </c>
-      <c r="L22" s="21">
-        <f>IF(C22&lt;&gt;0,(C6-C22)/C22,"")</f>
+      <c r="L22" s="17">
+        <f t="shared" si="2"/>
         <v>-1.1102230246251565E-16</v>
       </c>
-      <c r="M22" s="21">
-        <f>IF(D22&lt;&gt;0,(D6-D22)/D22,"")</f>
+      <c r="M22" s="17">
+        <f t="shared" si="2"/>
         <v>-0.66666666666666674</v>
       </c>
-      <c r="N22" s="21">
-        <f>IF(E22&lt;&gt;0,(E6-E22)/E22,"")</f>
+      <c r="N22" s="17">
+        <f t="shared" si="2"/>
         <v>-1.1102230246251565E-16</v>
       </c>
-      <c r="O22" s="21">
-        <f>IF(F22&lt;&gt;0,(F6-F22)/F22,"")</f>
-        <v>-0.91666666666666663</v>
-      </c>
-      <c r="P22" s="21" t="str">
-        <f>IF(G22&lt;&gt;0,(G6-G22)/G22,"")</f>
+      <c r="O22" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.95238095238095244</v>
+      </c>
+      <c r="P22" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q22" s="21" t="str">
-        <f>IF(H22&lt;&gt;0,(H6-H22)/H22,"")</f>
+      <c r="Q22" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R22" s="21">
-        <f>IF(I22&lt;&gt;0,(I6-I22)/I22,"")</f>
+      <c r="R22" s="17">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="S22" s="21">
-        <f>IF(J22&lt;&gt;0,(J6-J22)/J22,"")</f>
+      <c r="S22" s="17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3947,7 +3961,7 @@
       </c>
       <c r="F23" s="6">
         <f>SUMPRODUCT(架构比较!G$11:G$11,映射分析!$H$11:$H$11)</f>
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G23" s="6">
         <f>SUMPRODUCT(架构比较!H$11:H$11,映射分析!$H$11:$H$11)</f>
@@ -3965,40 +3979,40 @@
         <f>映射分析!H$12</f>
         <v>3</v>
       </c>
-      <c r="K23" s="21">
-        <f>IF(B23&lt;&gt;0,(B7-B23)/B23,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="21">
-        <f>IF(C23&lt;&gt;0,(C7-C23)/C23,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="21">
-        <f>IF(D23&lt;&gt;0,(D7-D23)/D23,"")</f>
+      <c r="K23" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <f t="shared" si="2"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="N23" s="21">
-        <f>IF(E23&lt;&gt;0,(E7-E23)/E23,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="21">
-        <f>IF(F23&lt;&gt;0,(F7-F23)/F23,"")</f>
-        <v>-0.91666666666666663</v>
-      </c>
-      <c r="P23" s="21" t="str">
-        <f>IF(G23&lt;&gt;0,(G7-G23)/G23,"")</f>
+      <c r="N23" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.95238095238095233</v>
+      </c>
+      <c r="P23" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q23" s="21" t="str">
-        <f>IF(H23&lt;&gt;0,(H7-H23)/H23,"")</f>
+      <c r="Q23" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R23" s="21">
-        <f>IF(I23&lt;&gt;0,(I7-I23)/I23,"")</f>
+      <c r="R23" s="17">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="S23" s="21">
-        <f>IF(J23&lt;&gt;0,(J7-J23)/J23,"")</f>
+      <c r="S23" s="17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4034,7 +4048,7 @@
       </c>
       <c r="F26" s="6">
         <f>SUMPRODUCT(架构比较!G$13:G$13,映射分析!$C$13:$C$13)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G26" s="6">
         <f>SUMPRODUCT(架构比较!H$13:H$13,映射分析!$C$13:$C$13)</f>
@@ -4052,40 +4066,40 @@
         <f>映射分析!C$12</f>
         <v>2</v>
       </c>
-      <c r="K26" s="21">
-        <f>IF(B26&lt;&gt;0,(B2-B26)/B26,"")</f>
+      <c r="K26" s="17">
+        <f t="shared" ref="K26:S31" si="3">IF(B26&lt;&gt;0,(B2-B26)/B26,"")</f>
         <v>0.5</v>
       </c>
-      <c r="L26" s="21">
-        <f>IF(C26&lt;&gt;0,(C2-C26)/C26,"")</f>
+      <c r="L26" s="17">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="M26" s="21">
-        <f>IF(D26&lt;&gt;0,(D2-D26)/D26,"")</f>
+      <c r="M26" s="17">
+        <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="N26" s="21">
-        <f>IF(E26&lt;&gt;0,(E2-E26)/E26,"")</f>
+      <c r="N26" s="17">
+        <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
-      <c r="O26" s="21">
-        <f>IF(F26&lt;&gt;0,(F2-F26)/F26,"")</f>
+      <c r="O26" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.75</v>
+      </c>
+      <c r="P26" s="17">
+        <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="P26" s="21">
-        <f>IF(G26&lt;&gt;0,(G2-G26)/G26,"")</f>
-        <v>-0.5</v>
-      </c>
-      <c r="Q26" s="21" t="str">
-        <f>IF(H26&lt;&gt;0,(H2-H26)/H26,"")</f>
+      <c r="Q26" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R26" s="21" t="str">
-        <f>IF(I26&lt;&gt;0,(I2-I26)/I26,"")</f>
+      <c r="R26" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S26" s="21">
-        <f>IF(J26&lt;&gt;0,(J2-J26)/J26,"")</f>
+      <c r="S26" s="17">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4112,7 +4126,7 @@
       </c>
       <c r="F27" s="6">
         <f>SUMPRODUCT(架构比较!G$13:G$13,映射分析!$D$13:$D$13)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G27" s="6">
         <f>SUMPRODUCT(架构比较!H$13:H$13,映射分析!$D$13:$D$13)</f>
@@ -4130,40 +4144,40 @@
         <f>映射分析!D$12</f>
         <v>3</v>
       </c>
-      <c r="K27" s="21">
-        <f>IF(B27&lt;&gt;0,(B3-B27)/B27,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="21">
-        <f>IF(C27&lt;&gt;0,(C3-C27)/C27,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="21">
-        <f>IF(D27&lt;&gt;0,(D3-D27)/D27,"")</f>
+      <c r="K27" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="3"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="N27" s="21">
-        <f>IF(E27&lt;&gt;0,(E3-E27)/E27,"")</f>
+      <c r="N27" s="17">
+        <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="O27" s="21">
-        <f>IF(F27&lt;&gt;0,(F3-F27)/F27,"")</f>
+      <c r="O27" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.83333333333333337</v>
+      </c>
+      <c r="P27" s="17">
+        <f t="shared" si="3"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="P27" s="21">
-        <f>IF(G27&lt;&gt;0,(G3-G27)/G27,"")</f>
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="Q27" s="21" t="str">
-        <f>IF(H27&lt;&gt;0,(H3-H27)/H27,"")</f>
+      <c r="Q27" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R27" s="21" t="str">
-        <f>IF(I27&lt;&gt;0,(I3-I27)/I27,"")</f>
+      <c r="R27" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S27" s="21">
-        <f>IF(J27&lt;&gt;0,(J3-J27)/J27,"")</f>
+      <c r="S27" s="17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4190,7 +4204,7 @@
       </c>
       <c r="F28" s="6">
         <f>SUMPRODUCT(架构比较!G$13:G$13,映射分析!$E$13:$E$13)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G28" s="6">
         <f>SUMPRODUCT(架构比较!H$13:H$13,映射分析!$E$13:$E$13)</f>
@@ -4208,40 +4222,40 @@
         <f>映射分析!E$12</f>
         <v>4</v>
       </c>
-      <c r="K28" s="21">
-        <f>IF(B28&lt;&gt;0,(B4-B28)/B28,"")</f>
+      <c r="K28" s="17">
+        <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
-      <c r="L28" s="21">
-        <f>IF(C28&lt;&gt;0,(C4-C28)/C28,"")</f>
+      <c r="L28" s="17">
+        <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
-      <c r="M28" s="21">
-        <f>IF(D28&lt;&gt;0,(D4-D28)/D28,"")</f>
+      <c r="M28" s="17">
+        <f t="shared" si="3"/>
         <v>-0.75</v>
       </c>
-      <c r="N28" s="21">
-        <f>IF(E28&lt;&gt;0,(E4-E28)/E28,"")</f>
+      <c r="N28" s="17">
+        <f t="shared" si="3"/>
         <v>-0.625</v>
       </c>
-      <c r="O28" s="21">
-        <f>IF(F28&lt;&gt;0,(F4-F28)/F28,"")</f>
+      <c r="O28" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.875</v>
+      </c>
+      <c r="P28" s="17">
+        <f t="shared" si="3"/>
         <v>-0.75</v>
       </c>
-      <c r="P28" s="21">
-        <f>IF(G28&lt;&gt;0,(G4-G28)/G28,"")</f>
-        <v>-0.75</v>
-      </c>
-      <c r="Q28" s="21" t="str">
-        <f>IF(H28&lt;&gt;0,(H4-H28)/H28,"")</f>
+      <c r="Q28" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="21" t="str">
-        <f>IF(I28&lt;&gt;0,(I4-I28)/I28,"")</f>
+      <c r="R28" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S28" s="21">
-        <f>IF(J28&lt;&gt;0,(J4-J28)/J28,"")</f>
+      <c r="S28" s="17">
+        <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
     </row>
@@ -4268,7 +4282,7 @@
       </c>
       <c r="F29" s="6">
         <f>SUMPRODUCT(架构比较!G$13:G$13,映射分析!$F$13:$F$13)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G29" s="6">
         <f>SUMPRODUCT(架构比较!H$13:H$13,映射分析!$F$13:$F$13)</f>
@@ -4286,40 +4300,40 @@
         <f>映射分析!F$12</f>
         <v>5</v>
       </c>
-      <c r="K29" s="21">
-        <f>IF(B29&lt;&gt;0,(B5-B29)/B29,"")</f>
+      <c r="K29" s="17">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L29" s="21">
-        <f>IF(C29&lt;&gt;0,(C5-C29)/C29,"")</f>
+      <c r="L29" s="17">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="M29" s="21">
-        <f>IF(D29&lt;&gt;0,(D5-D29)/D29,"")</f>
+      <c r="M29" s="17">
+        <f t="shared" si="3"/>
         <v>-0.6</v>
       </c>
-      <c r="N29" s="21">
-        <f>IF(E29&lt;&gt;0,(E5-E29)/E29,"")</f>
+      <c r="N29" s="17">
+        <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
-      <c r="O29" s="21">
-        <f>IF(F29&lt;&gt;0,(F5-F29)/F29,"")</f>
+      <c r="O29" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="P29" s="17">
+        <f t="shared" si="3"/>
         <v>-0.6</v>
       </c>
-      <c r="P29" s="21">
-        <f>IF(G29&lt;&gt;0,(G5-G29)/G29,"")</f>
-        <v>-0.6</v>
-      </c>
-      <c r="Q29" s="21" t="str">
-        <f>IF(H29&lt;&gt;0,(H5-H29)/H29,"")</f>
+      <c r="Q29" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R29" s="21" t="str">
-        <f>IF(I29&lt;&gt;0,(I5-I29)/I29,"")</f>
+      <c r="R29" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S29" s="21">
-        <f>IF(J29&lt;&gt;0,(J5-J29)/J29,"")</f>
+      <c r="S29" s="17">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
@@ -4346,7 +4360,7 @@
       </c>
       <c r="F30" s="6">
         <f>SUMPRODUCT(架构比较!G$13:G$13,映射分析!$G$13:$G$13)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G30" s="6">
         <f>SUMPRODUCT(架构比较!H$13:H$13,映射分析!$G$13:$G$13)</f>
@@ -4364,40 +4378,40 @@
         <f>映射分析!G$12</f>
         <v>4</v>
       </c>
-      <c r="K30" s="21">
-        <f>IF(B30&lt;&gt;0,(B6-B30)/B30,"")</f>
+      <c r="K30" s="17">
+        <f t="shared" si="3"/>
         <v>-1.1102230246251565E-16</v>
       </c>
-      <c r="L30" s="21">
-        <f>IF(C30&lt;&gt;0,(C6-C30)/C30,"")</f>
+      <c r="L30" s="17">
+        <f t="shared" si="3"/>
         <v>-1.1102230246251565E-16</v>
       </c>
-      <c r="M30" s="21">
-        <f>IF(D30&lt;&gt;0,(D6-D30)/D30,"")</f>
+      <c r="M30" s="17">
+        <f t="shared" si="3"/>
         <v>-0.66666666666666674</v>
       </c>
-      <c r="N30" s="21">
-        <f>IF(E30&lt;&gt;0,(E6-E30)/E30,"")</f>
+      <c r="N30" s="17">
+        <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="O30" s="21">
-        <f>IF(F30&lt;&gt;0,(F6-F30)/F30,"")</f>
+      <c r="O30" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.83333333333333337</v>
+      </c>
+      <c r="P30" s="17">
+        <f t="shared" si="3"/>
         <v>-0.66666666666666674</v>
       </c>
-      <c r="P30" s="21">
-        <f>IF(G30&lt;&gt;0,(G6-G30)/G30,"")</f>
-        <v>-0.66666666666666674</v>
-      </c>
-      <c r="Q30" s="21" t="str">
-        <f>IF(H30&lt;&gt;0,(H6-H30)/H30,"")</f>
+      <c r="Q30" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R30" s="21" t="str">
-        <f>IF(I30&lt;&gt;0,(I6-I30)/I30,"")</f>
+      <c r="R30" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S30" s="21">
-        <f>IF(J30&lt;&gt;0,(J6-J30)/J30,"")</f>
+      <c r="S30" s="17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4424,7 +4438,7 @@
       </c>
       <c r="F31" s="6">
         <f>SUMPRODUCT(架构比较!G$13:G$13,映射分析!$H$13:$H$13)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G31" s="6">
         <f>SUMPRODUCT(架构比较!H$13:H$13,映射分析!$H$13:$H$13)</f>
@@ -4442,46 +4456,47 @@
         <f>映射分析!H$12</f>
         <v>3</v>
       </c>
-      <c r="K31" s="21">
-        <f>IF(B31&lt;&gt;0,(B7-B31)/B31,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="21">
-        <f>IF(C31&lt;&gt;0,(C7-C31)/C31,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="21">
-        <f>IF(D31&lt;&gt;0,(D7-D31)/D31,"")</f>
+      <c r="K31" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="17">
+        <f t="shared" si="3"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="N31" s="21">
-        <f>IF(E31&lt;&gt;0,(E7-E31)/E31,"")</f>
+      <c r="N31" s="17">
+        <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="O31" s="21">
-        <f>IF(F31&lt;&gt;0,(F7-F31)/F31,"")</f>
+      <c r="O31" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.83333333333333337</v>
+      </c>
+      <c r="P31" s="17">
+        <f t="shared" si="3"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="P31" s="21">
-        <f>IF(G31&lt;&gt;0,(G7-G31)/G31,"")</f>
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="Q31" s="21" t="str">
-        <f>IF(H31&lt;&gt;0,(H7-H31)/H31,"")</f>
+      <c r="Q31" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R31" s="21" t="str">
-        <f>IF(I31&lt;&gt;0,(I7-I31)/I31,"")</f>
+      <c r="R31" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S31" s="21">
-        <f>IF(J31&lt;&gt;0,(J7-J31)/J31,"")</f>
+      <c r="S31" s="17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4489,8 +4504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10:R31"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4498,7 +4513,7 @@
     <col min="1" max="1" width="11.75" style="2" customWidth="1"/>
     <col min="2" max="9" width="9" style="2"/>
     <col min="10" max="10" width="15" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.625" style="2" customWidth="1"/>
     <col min="13" max="21" width="9" style="2"/>
     <col min="22" max="22" width="12.75" style="2" customWidth="1"/>
@@ -4547,13 +4562,13 @@
         <f>资源数比较!J1</f>
         <v>CR</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="13"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="str">
@@ -4578,7 +4593,7 @@
       </c>
       <c r="F2" s="5">
         <f>资源数比较!F2*单元面积!F$9</f>
-        <v>620209.67027777783</v>
+        <v>155052.41756944399</v>
       </c>
       <c r="G2" s="5">
         <f>资源数比较!G2*单元面积!G$9</f>
@@ -4596,15 +4611,15 @@
         <f>资源数比较!J2*单元面积!J$9</f>
         <v>23228.400000000001</v>
       </c>
-      <c r="K2" s="27">
-        <f>SUM(B2:J2)</f>
-        <v>776634.73694444448</v>
+      <c r="K2" s="23">
+        <f t="shared" ref="K2:K7" si="0">SUM(B2:J2)</f>
+        <v>311477.4842361107</v>
       </c>
       <c r="L2" s="5">
-        <f>K2/K$2</f>
+        <f t="shared" ref="L2:L7" si="1">K2/K$2</f>
         <v>1</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="str">
@@ -4629,7 +4644,7 @@
       </c>
       <c r="F3" s="5">
         <f>资源数比较!F3*单元面积!F$9</f>
-        <v>620209.67027777783</v>
+        <v>155052.41756944399</v>
       </c>
       <c r="G3" s="5">
         <f>资源数比较!G3*单元面积!G$9</f>
@@ -4647,15 +4662,15 @@
         <f>资源数比较!J3*单元面积!J$9</f>
         <v>23228.400000000001</v>
       </c>
-      <c r="K3" s="27">
-        <f>SUM(B3:J3)</f>
-        <v>776634.73694444448</v>
+      <c r="K3" s="23">
+        <f t="shared" si="0"/>
+        <v>311477.4842361107</v>
       </c>
       <c r="L3" s="5">
-        <f>K3/K$2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="str">
@@ -4680,7 +4695,7 @@
       </c>
       <c r="F4" s="5">
         <f>资源数比较!F4*单元面积!F$9</f>
-        <v>620209.67027777783</v>
+        <v>155052.41756944399</v>
       </c>
       <c r="G4" s="5">
         <f>资源数比较!G4*单元面积!G$9</f>
@@ -4698,15 +4713,15 @@
         <f>资源数比较!J4*单元面积!J$9</f>
         <v>23228.400000000001</v>
       </c>
-      <c r="K4" s="27">
-        <f>SUM(B4:J4)</f>
-        <v>776634.73694444448</v>
+      <c r="K4" s="23">
+        <f t="shared" si="0"/>
+        <v>311477.4842361107</v>
       </c>
       <c r="L4" s="5">
-        <f>K4/K$2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M4" s="14"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="str">
@@ -4731,7 +4746,7 @@
       </c>
       <c r="F5" s="5">
         <f>资源数比较!F5*单元面积!F$9</f>
-        <v>1240419.3405555557</v>
+        <v>310104.83513888798</v>
       </c>
       <c r="G5" s="5">
         <f>资源数比较!G5*单元面积!G$9</f>
@@ -4749,15 +4764,15 @@
         <f>资源数比较!J5*单元面积!J$9</f>
         <v>46456.800000000003</v>
       </c>
-      <c r="K5" s="27">
-        <f>SUM(B5:J5)</f>
-        <v>1553269.473888889</v>
+      <c r="K5" s="23">
+        <f t="shared" si="0"/>
+        <v>622954.9684722214</v>
       </c>
       <c r="L5" s="5">
-        <f>K5/K$2</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M5" s="14"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="str">
@@ -4782,7 +4797,7 @@
       </c>
       <c r="F6" s="5">
         <f>资源数比较!F6*单元面积!F$9</f>
-        <v>826946.22703703702</v>
+        <v>206736.55675925864</v>
       </c>
       <c r="G6" s="5">
         <f>资源数比较!G6*单元面积!G$9</f>
@@ -4800,15 +4815,15 @@
         <f>资源数比较!J6*单元面积!J$9</f>
         <v>30971.200000000001</v>
       </c>
-      <c r="K6" s="27">
-        <f>SUM(B6:J6)</f>
-        <v>1035512.9825925925</v>
-      </c>
-      <c r="L6" s="16">
-        <f>K6/K$2</f>
+      <c r="K6" s="23">
+        <f t="shared" si="0"/>
+        <v>415303.31231481419</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="1"/>
         <v>1.333333333333333</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="str">
@@ -4833,7 +4848,7 @@
       </c>
       <c r="F7" s="5">
         <f>资源数比较!F7*单元面积!F$9</f>
-        <v>620209.67027777783</v>
+        <v>155052.41756944399</v>
       </c>
       <c r="G7" s="5">
         <f>资源数比较!G7*单元面积!G$9</f>
@@ -4851,15 +4866,15 @@
         <f>资源数比较!J7*单元面积!J$9</f>
         <v>23228.400000000001</v>
       </c>
-      <c r="K7" s="27">
-        <f>SUM(B7:J7)</f>
-        <v>776634.73694444448</v>
+      <c r="K7" s="23">
+        <f t="shared" si="0"/>
+        <v>311477.4842361107</v>
       </c>
       <c r="L7" s="5">
-        <f>K7/K$2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M7" s="14"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="str">
@@ -4867,42 +4882,42 @@
         <v>TH</v>
       </c>
       <c r="N9" s="8" t="str">
-        <f>B1</f>
+        <f t="shared" ref="N9:V9" si="2">B1</f>
         <v>AU</v>
       </c>
       <c r="O9" s="8" t="str">
-        <f>C1</f>
+        <f t="shared" si="2"/>
         <v>SH</v>
       </c>
       <c r="P9" s="8" t="str">
-        <f>D1</f>
+        <f t="shared" si="2"/>
         <v>PER</v>
       </c>
       <c r="Q9" s="8" t="str">
-        <f>E1</f>
+        <f t="shared" si="2"/>
         <v>LOU</v>
       </c>
       <c r="R9" s="8" t="str">
-        <f>F1</f>
+        <f t="shared" si="2"/>
         <v>LUT256*8</v>
       </c>
       <c r="S9" s="8" t="str">
-        <f>G1</f>
+        <f t="shared" si="2"/>
         <v>GFM</v>
       </c>
       <c r="T9" s="8" t="str">
-        <f>H1</f>
+        <f t="shared" si="2"/>
         <v>X2</v>
       </c>
       <c r="U9" s="8" t="str">
-        <f>I1</f>
+        <f t="shared" si="2"/>
         <v>BR</v>
       </c>
       <c r="V9" s="8" t="str">
-        <f>J1</f>
+        <f t="shared" si="2"/>
         <v>CR</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W9" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4929,7 +4944,7 @@
       </c>
       <c r="F10" s="5">
         <f>资源数比较!F10*单元面积!F$9</f>
-        <v>620209.67027777783</v>
+        <v>620209.67027777596</v>
       </c>
       <c r="G10" s="5">
         <f>资源数比较!G10*单元面积!G$9</f>
@@ -4947,54 +4962,54 @@
         <f>资源数比较!J10*单元面积!K$9</f>
         <v>77428</v>
       </c>
-      <c r="K10" s="27">
-        <f>SUM(B10:J10)</f>
-        <v>787833.22583333333</v>
+      <c r="K10" s="23">
+        <f t="shared" ref="K10:K15" si="3">SUM(B10:J10)</f>
+        <v>787833.22583333147</v>
       </c>
       <c r="L10" s="5">
-        <f>K10/K$10</f>
+        <f t="shared" ref="L10:L15" si="4">K10/K$10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="22">
-        <f>(B10-B2)/($K10-$K2)</f>
-        <v>-0.60097394092853995</v>
-      </c>
-      <c r="O10" s="22">
-        <f>(C10-C2)/($K10-$K2)</f>
-        <v>-1.9253589770048407</v>
-      </c>
-      <c r="P10" s="22">
-        <f>(D10-D2)/($K10-$K2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="22">
-        <f>(E10-E2)/($K10-$K2)</f>
-        <v>1.1867672622496725</v>
-      </c>
-      <c r="R10" s="22">
-        <f>(F10-F2)/($K10-$K2)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="22">
-        <f>(G10-G2)/($K10-$K2)</f>
-        <v>-2.8575283966884513</v>
-      </c>
-      <c r="T10" s="22">
-        <f>(H10-H2)/($K10-$K2)</f>
-        <v>0.35719104958605641</v>
-      </c>
-      <c r="U10" s="22">
-        <f>(I10-I2)/($K10-$K2)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="22">
-        <f>(J10-J2)/($K10-$K2)</f>
-        <v>4.8399030027861061</v>
-      </c>
-      <c r="W10" s="20">
+      <c r="M10" s="19"/>
+      <c r="N10" s="18">
+        <f t="shared" ref="N10:V15" si="5">(B10-B2)/($K10-$K2)</f>
+        <v>-1.4128096740126004E-2</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="5"/>
+        <v>-4.526262460659488E-2</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18">
+        <f t="shared" si="5"/>
+        <v>2.7899317336742141E-2</v>
+      </c>
+      <c r="R10" s="18">
+        <f t="shared" si="5"/>
+        <v>0.97649133218938378</v>
+      </c>
+      <c r="S10" s="18">
+        <f t="shared" si="5"/>
+        <v>-6.7176685837151875E-2</v>
+      </c>
+      <c r="T10" s="18">
+        <f t="shared" si="5"/>
+        <v>8.3970857296439844E-3</v>
+      </c>
+      <c r="U10" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="18">
+        <f t="shared" si="5"/>
+        <v>0.11377967192810302</v>
+      </c>
+      <c r="W10" s="16">
         <f>(K10-K2)/K10</f>
-        <v>1.4214288661212039E-2</v>
+        <v>0.60464032992941485</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
@@ -5020,7 +5035,7 @@
       </c>
       <c r="F11" s="5">
         <f>资源数比较!F11*单元面积!F$9</f>
-        <v>1240419.3405555557</v>
+        <v>1240419.3405555519</v>
       </c>
       <c r="G11" s="5">
         <f>资源数比较!G11*单元面积!G$9</f>
@@ -5038,54 +5053,54 @@
         <f>资源数比较!J11*单元面积!K$9</f>
         <v>154856</v>
       </c>
-      <c r="K11" s="27">
-        <f>SUM(B11:J11)</f>
-        <v>1575666.4516666667</v>
+      <c r="K11" s="23">
+        <f t="shared" si="3"/>
+        <v>1575666.4516666629</v>
       </c>
       <c r="L11" s="5">
-        <f>K11/K$10</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="22">
-        <f>(B11-B3)/($K11-$K3)</f>
-        <v>8.4226944638106614E-3</v>
-      </c>
-      <c r="O11" s="22">
-        <f>(C11-C3)/($K11-$K3)</f>
-        <v>2.6984049210871035E-2</v>
-      </c>
-      <c r="P11" s="22">
-        <f>(D11-D3)/($K11-$K3)</f>
-        <v>1.488468244025579E-2</v>
-      </c>
-      <c r="Q11" s="22">
-        <f>(E11-E3)/($K11-$K3)</f>
-        <v>3.8809473302045851E-2</v>
-      </c>
-      <c r="R11" s="22">
-        <f>(F11-F3)/($K11-$K3)</f>
-        <v>0.77620156853647471</v>
-      </c>
-      <c r="S11" s="22">
-        <f>(G11-G3)/($K11-$K3)</f>
-        <v>-4.0048472933423646E-2</v>
-      </c>
-      <c r="T11" s="22">
-        <f>(H11-H3)/($K11-$K3)</f>
-        <v>1.0012118233355911E-2</v>
-      </c>
-      <c r="U11" s="22">
-        <f>(I11-I3)/($K11-$K3)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="22">
-        <f>(J11-J3)/($K11-$K3)</f>
-        <v>0.16473388674660983</v>
-      </c>
-      <c r="W11" s="20">
-        <f t="shared" ref="W11:W15" si="0">(K11-K3)/K11</f>
-        <v>0.507107144330606</v>
+      <c r="M11" s="19"/>
+      <c r="N11" s="18">
+        <f t="shared" si="5"/>
+        <v>5.3235712171089723E-3</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.7055291310549711E-2</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="5"/>
+        <v>9.4078762271643454E-3</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="5"/>
+        <v>2.4529560689829009E-2</v>
+      </c>
+      <c r="R11" s="18">
+        <f t="shared" si="5"/>
+        <v>0.85854801058112551</v>
+      </c>
+      <c r="S11" s="18">
+        <f t="shared" si="5"/>
+        <v>-2.5312671463222455E-2</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" si="5"/>
+        <v>6.3281678658056138E-3</v>
+      </c>
+      <c r="U11" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="18">
+        <f t="shared" si="5"/>
+        <v>0.10412019357163937</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" ref="W11:W15" si="6">(K11-K3)/K11</f>
+        <v>0.80232016496470748</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.15">
@@ -5111,7 +5126,7 @@
       </c>
       <c r="F12" s="5">
         <f>资源数比较!F12*单元面积!F$9</f>
-        <v>1240419.3405555557</v>
+        <v>1240419.3405555519</v>
       </c>
       <c r="G12" s="5">
         <f>资源数比较!G12*单元面积!G$9</f>
@@ -5129,54 +5144,54 @@
         <f>资源数比较!J12*单元面积!K$9</f>
         <v>154856</v>
       </c>
-      <c r="K12" s="27">
-        <f>SUM(B12:J12)</f>
-        <v>1575666.4516666667</v>
+      <c r="K12" s="23">
+        <f t="shared" si="3"/>
+        <v>1575666.4516666629</v>
       </c>
       <c r="L12" s="5">
-        <f>K12/K$10</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="22">
-        <f>(B12-B4)/($K12-$K4)</f>
-        <v>8.4226944638106614E-3</v>
-      </c>
-      <c r="O12" s="22">
-        <f>(C12-C4)/($K12-$K4)</f>
-        <v>2.6984049210871035E-2</v>
-      </c>
-      <c r="P12" s="22">
-        <f>(D12-D4)/($K12-$K4)</f>
-        <v>1.488468244025579E-2</v>
-      </c>
-      <c r="Q12" s="22">
-        <f>(E12-E4)/($K12-$K4)</f>
-        <v>3.8809473302045851E-2</v>
-      </c>
-      <c r="R12" s="22">
-        <f>(F12-F4)/($K12-$K4)</f>
-        <v>0.77620156853647471</v>
-      </c>
-      <c r="S12" s="22">
-        <f>(G12-G4)/($K12-$K4)</f>
-        <v>-4.0048472933423646E-2</v>
-      </c>
-      <c r="T12" s="22">
-        <f>(H12-H4)/($K12-$K4)</f>
-        <v>1.0012118233355911E-2</v>
-      </c>
-      <c r="U12" s="22">
-        <f>(I12-I4)/($K12-$K4)</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="22">
-        <f>(J12-J4)/($K12-$K4)</f>
-        <v>0.16473388674660983</v>
-      </c>
-      <c r="W12" s="20">
-        <f t="shared" si="0"/>
-        <v>0.507107144330606</v>
+      <c r="M12" s="19"/>
+      <c r="N12" s="18">
+        <f t="shared" si="5"/>
+        <v>5.3235712171089723E-3</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="5"/>
+        <v>1.7055291310549711E-2</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" si="5"/>
+        <v>9.4078762271643454E-3</v>
+      </c>
+      <c r="Q12" s="18">
+        <f t="shared" si="5"/>
+        <v>2.4529560689829009E-2</v>
+      </c>
+      <c r="R12" s="18">
+        <f t="shared" si="5"/>
+        <v>0.85854801058112551</v>
+      </c>
+      <c r="S12" s="18">
+        <f t="shared" si="5"/>
+        <v>-2.5312671463222455E-2</v>
+      </c>
+      <c r="T12" s="18">
+        <f t="shared" si="5"/>
+        <v>6.3281678658056138E-3</v>
+      </c>
+      <c r="U12" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="18">
+        <f t="shared" si="5"/>
+        <v>0.10412019357163937</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="6"/>
+        <v>0.80232016496470748</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
@@ -5202,7 +5217,7 @@
       </c>
       <c r="F13" s="5">
         <f>资源数比较!F13*单元面积!F$9</f>
-        <v>1860629.0108333335</v>
+        <v>1860629.0108333279</v>
       </c>
       <c r="G13" s="5">
         <f>资源数比较!G13*单元面积!G$9</f>
@@ -5220,54 +5235,54 @@
         <f>资源数比较!J13*单元面积!K$9</f>
         <v>232284</v>
       </c>
-      <c r="K13" s="27">
-        <f>SUM(B13:J13)</f>
-        <v>2363499.6775000002</v>
+      <c r="K13" s="23">
+        <f t="shared" si="3"/>
+        <v>2363499.6774999946</v>
       </c>
       <c r="L13" s="5">
-        <f>K13/K$10</f>
+        <f t="shared" si="4"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="22">
-        <f>(B13-B5)/($K13-$K5)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="22">
-        <f>(C13-C5)/($K13-$K5)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="22">
-        <f>(D13-D5)/($K13-$K5)</f>
-        <v>1.4678955783585936E-2</v>
-      </c>
-      <c r="Q13" s="22">
-        <f>(E13-E5)/($K13-$K5)</f>
-        <v>5.4675819048166228E-2</v>
-      </c>
-      <c r="R13" s="22">
-        <f>(F13-F5)/($K13-$K5)</f>
-        <v>0.76547340189685376</v>
-      </c>
-      <c r="S13" s="22">
-        <f>(G13-G5)/($K13-$K5)</f>
-        <v>-7.8989896593287562E-2</v>
-      </c>
-      <c r="T13" s="22">
-        <f>(H13-H5)/($K13-$K5)</f>
-        <v>1.4810605611241416E-2</v>
-      </c>
-      <c r="U13" s="22">
-        <f>(I13-I5)/($K13-$K5)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="22">
-        <f>(J13-J5)/($K13-$K5)</f>
-        <v>0.2293511142534401</v>
-      </c>
-      <c r="W13" s="20">
-        <f t="shared" si="0"/>
-        <v>0.34280952577414142</v>
+      <c r="M13" s="19"/>
+      <c r="N13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="5"/>
+        <v>6.8331099291190659E-3</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="5"/>
+        <v>2.5451802398540467E-2</v>
+      </c>
+      <c r="R13" s="18">
+        <f t="shared" si="5"/>
+        <v>0.89082697367798491</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" si="5"/>
+        <v>-3.6770098273286457E-2</v>
+      </c>
+      <c r="T13" s="18">
+        <f t="shared" si="5"/>
+        <v>6.8943934262412103E-3</v>
+      </c>
+      <c r="U13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="18">
+        <f t="shared" si="5"/>
+        <v>0.10676381884140089</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="6"/>
+        <v>0.73642688661960998</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
@@ -5293,7 +5308,7 @@
       </c>
       <c r="F14" s="5">
         <f>资源数比较!F14*单元面积!F$9</f>
-        <v>1240419.3405555557</v>
+        <v>1240419.3405555519</v>
       </c>
       <c r="G14" s="5">
         <f>资源数比较!G14*单元面积!G$9</f>
@@ -5311,54 +5326,54 @@
         <f>资源数比较!J14*单元面积!K$9</f>
         <v>154856</v>
       </c>
-      <c r="K14" s="27">
-        <f>SUM(B14:J14)</f>
-        <v>1575666.4516666667</v>
+      <c r="K14" s="23">
+        <f t="shared" si="3"/>
+        <v>1575666.4516666629</v>
       </c>
       <c r="L14" s="5">
-        <f>K14/K$10</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="22">
-        <f>(B14-B6)/($K14-$K6)</f>
-        <v>6.7350836667362348E-18</v>
-      </c>
-      <c r="O14" s="22">
-        <f>(C14-C6)/($K14-$K6)</f>
-        <v>2.6940334666944939E-17</v>
-      </c>
-      <c r="P14" s="22">
-        <f>(D14-D6)/($K14-$K6)</f>
-        <v>1.467895578358594E-2</v>
-      </c>
-      <c r="Q14" s="22">
-        <f>(E14-E6)/($K14-$K6)</f>
-        <v>5.4675819048166235E-2</v>
-      </c>
-      <c r="R14" s="22">
-        <f>(F14-F6)/($K14-$K6)</f>
-        <v>0.76547340189685387</v>
-      </c>
-      <c r="S14" s="22">
-        <f>(G14-G6)/($K14-$K6)</f>
-        <v>-7.8989896593287548E-2</v>
-      </c>
-      <c r="T14" s="22">
-        <f>(H14-H6)/($K14-$K6)</f>
-        <v>1.4810605611241416E-2</v>
-      </c>
-      <c r="U14" s="22">
-        <f>(I14-I6)/($K14-$K6)</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="22">
-        <f>(J14-J6)/($K14-$K6)</f>
-        <v>0.2293511142534401</v>
-      </c>
-      <c r="W14" s="20">
-        <f t="shared" si="0"/>
-        <v>0.34280952577414148</v>
+      <c r="M14" s="19"/>
+      <c r="N14" s="18">
+        <f t="shared" si="5"/>
+        <v>3.1352071465522433E-18</v>
+      </c>
+      <c r="O14" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2540828586208973E-17</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" si="5"/>
+        <v>6.8331099291190677E-3</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" si="5"/>
+        <v>2.5451802398540471E-2</v>
+      </c>
+      <c r="R14" s="18">
+        <f t="shared" si="5"/>
+        <v>0.89082697367798491</v>
+      </c>
+      <c r="S14" s="18">
+        <f t="shared" si="5"/>
+        <v>-3.6770098273286457E-2</v>
+      </c>
+      <c r="T14" s="18">
+        <f t="shared" si="5"/>
+        <v>6.8943934262412111E-3</v>
+      </c>
+      <c r="U14" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="18">
+        <f t="shared" si="5"/>
+        <v>0.10676381884140089</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="6"/>
+        <v>0.73642688661960998</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.15">
@@ -5384,7 +5399,7 @@
       </c>
       <c r="F15" s="5">
         <f>资源数比较!F15*单元面积!F$9</f>
-        <v>1240419.3405555557</v>
+        <v>1240419.3405555519</v>
       </c>
       <c r="G15" s="5">
         <f>资源数比较!G15*单元面积!G$9</f>
@@ -5402,58 +5417,58 @@
         <f>资源数比较!J15*单元面积!K$9</f>
         <v>154856</v>
       </c>
-      <c r="K15" s="27">
-        <f>SUM(B15:J15)</f>
-        <v>1575666.4516666667</v>
+      <c r="K15" s="23">
+        <f t="shared" si="3"/>
+        <v>1575666.4516666629</v>
       </c>
       <c r="L15" s="5">
-        <f>K15/K$10</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="22">
-        <f>(B15-B7)/($K15-$K7)</f>
-        <v>8.4226944638106614E-3</v>
-      </c>
-      <c r="O15" s="22">
-        <f>(C15-C7)/($K15-$K7)</f>
-        <v>2.6984049210871035E-2</v>
-      </c>
-      <c r="P15" s="22">
-        <f>(D15-D7)/($K15-$K7)</f>
-        <v>1.488468244025579E-2</v>
-      </c>
-      <c r="Q15" s="22">
-        <f>(E15-E7)/($K15-$K7)</f>
-        <v>3.8809473302045851E-2</v>
-      </c>
-      <c r="R15" s="22">
-        <f>(F15-F7)/($K15-$K7)</f>
-        <v>0.77620156853647471</v>
-      </c>
-      <c r="S15" s="22">
-        <f>(G15-G7)/($K15-$K7)</f>
-        <v>-4.0048472933423646E-2</v>
-      </c>
-      <c r="T15" s="22">
-        <f>(H15-H7)/($K15-$K7)</f>
-        <v>1.0012118233355911E-2</v>
-      </c>
-      <c r="U15" s="22">
-        <f>(I15-I7)/($K15-$K7)</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="22">
-        <f>(J15-J7)/($K15-$K7)</f>
-        <v>0.16473388674660983</v>
-      </c>
-      <c r="W15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.507107144330606</v>
+      <c r="M15" s="19"/>
+      <c r="N15" s="18">
+        <f t="shared" si="5"/>
+        <v>5.3235712171089723E-3</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="5"/>
+        <v>1.7055291310549711E-2</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="5"/>
+        <v>9.4078762271643454E-3</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="5"/>
+        <v>2.4529560689829009E-2</v>
+      </c>
+      <c r="R15" s="18">
+        <f t="shared" si="5"/>
+        <v>0.85854801058112551</v>
+      </c>
+      <c r="S15" s="18">
+        <f t="shared" si="5"/>
+        <v>-2.5312671463222455E-2</v>
+      </c>
+      <c r="T15" s="18">
+        <f t="shared" si="5"/>
+        <v>6.3281678658056138E-3</v>
+      </c>
+      <c r="U15" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="18">
+        <f t="shared" si="5"/>
+        <v>0.10412019357163937</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="6"/>
+        <v>0.80232016496470748</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="M16" s="14"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="str">
@@ -5484,7 +5499,7 @@
       </c>
       <c r="F18" s="5">
         <f>资源数比较!F18*单元面积!F$9</f>
-        <v>4961677.3622222226</v>
+        <v>2170733.8459722158</v>
       </c>
       <c r="G18" s="5">
         <f>资源数比较!G18*单元面积!G$9</f>
@@ -5502,54 +5517,54 @@
         <f>资源数比较!J18*单元面积!K$9</f>
         <v>77428</v>
       </c>
-      <c r="K18" s="27">
-        <f>SUM(B18:J18)</f>
-        <v>5132027.5844444446</v>
+      <c r="K18" s="23">
+        <f t="shared" ref="K18:K23" si="7">SUM(B18:J18)</f>
+        <v>2341084.0681944378</v>
       </c>
       <c r="L18" s="5">
-        <f>K18/K$18</f>
+        <f t="shared" ref="L18:L23" si="8">K18/K$18</f>
         <v>1</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="20">
-        <f>(B18-B2)/($K18-$K2)</f>
-        <v>-1.5452107848005093E-3</v>
-      </c>
-      <c r="O18" s="22">
-        <f>(C18-C2)/($K18-$K2)</f>
-        <v>-4.9504400328634459E-3</v>
-      </c>
-      <c r="P18" s="22">
-        <f>(D18-D2)/($K18-$K2)</f>
-        <v>2.7307142546647931E-3</v>
-      </c>
-      <c r="Q18" s="22">
-        <f>(E18-E2)/($K18-$K2)</f>
-        <v>-3.3904327769520827E-4</v>
-      </c>
-      <c r="R18" s="22">
-        <f>(F18-F2)/($K18-$K2)</f>
-        <v>0.99680277852236709</v>
-      </c>
-      <c r="S18" s="22">
-        <f>(G18-G2)/($K18-$K2)</f>
-        <v>-7.3472132412505638E-3</v>
-      </c>
-      <c r="T18" s="22">
-        <f>(H18-H2)/($K18-$K2)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="22">
-        <f>(I18-I2)/($K18-$K2)</f>
-        <v>2.2041639723751694E-3</v>
-      </c>
-      <c r="V18" s="22">
-        <f>(J18-J2)/($K18-$K2)</f>
-        <v>1.2444250587202627E-2</v>
-      </c>
-      <c r="W18" s="20">
+      <c r="M18" s="10"/>
+      <c r="N18" s="16">
+        <f t="shared" ref="N18:V23" si="9">(B18-B2)/($K18-$K2)</f>
+        <v>-3.315913563344148E-3</v>
+      </c>
+      <c r="O18" s="18">
+        <f t="shared" si="9"/>
+        <v>-1.0623295805958924E-2</v>
+      </c>
+      <c r="P18" s="18">
+        <f t="shared" si="9"/>
+        <v>5.8599205517642005E-3</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" si="9"/>
+        <v>-7.2756300572632856E-4</v>
+      </c>
+      <c r="R18" s="18">
+        <f t="shared" si="9"/>
+        <v>0.99313898778925069</v>
+      </c>
+      <c r="S18" s="18">
+        <f t="shared" si="9"/>
+        <v>-1.5766602381428341E-2</v>
+      </c>
+      <c r="T18" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="18">
+        <f t="shared" si="9"/>
+        <v>4.7299807144285024E-3</v>
+      </c>
+      <c r="V18" s="18">
+        <f t="shared" si="9"/>
+        <v>2.6704485701014483E-2</v>
+      </c>
+      <c r="W18" s="16">
         <f>(K18-K2)/K18</f>
-        <v>0.84866902522143839</v>
+        <v>0.86695160226504042</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.15">
@@ -5575,7 +5590,7 @@
       </c>
       <c r="F19" s="5">
         <f>资源数比较!F19*单元面积!F$9</f>
-        <v>7442516.0433333339</v>
+        <v>3256100.7689583236</v>
       </c>
       <c r="G19" s="5">
         <f>资源数比较!G19*单元面积!G$9</f>
@@ -5593,54 +5608,54 @@
         <f>资源数比较!J19*单元面积!K$9</f>
         <v>116142</v>
       </c>
-      <c r="K19" s="27">
-        <f>SUM(B19:J19)</f>
-        <v>7698041.3766666669</v>
+      <c r="K19" s="23">
+        <f t="shared" si="7"/>
+        <v>3511626.1022916571</v>
       </c>
       <c r="L19" s="5">
-        <f>K19/K$18</f>
-        <v>1.5</v>
-      </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="20">
-        <f>(B19-B3)/($K19-$K3)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="22">
-        <f>(C19-C3)/($K19-$K3)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="22">
-        <f>(D19-D3)/($K19-$K3)</f>
-        <v>3.4366809963388163E-3</v>
-      </c>
-      <c r="Q19" s="22">
-        <f>(E19-E3)/($K19-$K3)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="22">
-        <f>(F19-F3)/($K19-$K3)</f>
-        <v>0.98568206264635194</v>
-      </c>
-      <c r="S19" s="22">
-        <f>(G19-G3)/($K19-$K3)</f>
-        <v>-4.6233376632360762E-3</v>
-      </c>
-      <c r="T19" s="22">
-        <f>(H19-H3)/($K19-$K3)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="22">
-        <f>(I19-I3)/($K19-$K3)</f>
-        <v>2.0805019484562343E-3</v>
-      </c>
-      <c r="V19" s="22">
-        <f>(J19-J3)/($K19-$K3)</f>
-        <v>1.3424092072089109E-2</v>
-      </c>
-      <c r="W19" s="20">
-        <f t="shared" ref="W19:W23" si="1">(K19-K3)/K19</f>
-        <v>0.89911268348095896</v>
+        <f t="shared" si="8"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="18">
+        <f t="shared" si="9"/>
+        <v>7.4329881220078341E-3</v>
+      </c>
+      <c r="Q19" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="18">
+        <f t="shared" si="9"/>
+        <v>0.96903260488980614</v>
+      </c>
+      <c r="S19" s="18">
+        <f t="shared" si="9"/>
+        <v>-9.9995355901450703E-3</v>
+      </c>
+      <c r="T19" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="18">
+        <f t="shared" si="9"/>
+        <v>4.4997910155652812E-3</v>
+      </c>
+      <c r="V19" s="18">
+        <f t="shared" si="9"/>
+        <v>2.9034151562765721E-2</v>
+      </c>
+      <c r="W19" s="16">
+        <f t="shared" ref="W19:W23" si="10">(K19-K3)/K19</f>
+        <v>0.91130106817669376</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.15">
@@ -5666,7 +5681,7 @@
       </c>
       <c r="F20" s="5">
         <f>资源数比较!F20*单元面积!F$9</f>
-        <v>9923354.7244444452</v>
+        <v>4341467.6919444315</v>
       </c>
       <c r="G20" s="5">
         <f>资源数比较!G20*单元面积!G$9</f>
@@ -5684,54 +5699,54 @@
         <f>资源数比较!J20*单元面积!K$9</f>
         <v>154856</v>
       </c>
-      <c r="K20" s="27">
-        <f>SUM(B20:J20)</f>
-        <v>10264055.168888889</v>
+      <c r="K20" s="23">
+        <f t="shared" si="7"/>
+        <v>4682168.1363888755</v>
       </c>
       <c r="L20" s="5">
-        <f>K20/K$18</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="20">
-        <f>(B20-B4)/($K20-$K4)</f>
-        <v>7.0936036283791924E-4</v>
-      </c>
-      <c r="O20" s="22">
-        <f>(C20-C4)/($K20-$K4)</f>
-        <v>2.2725999407082419E-3</v>
-      </c>
-      <c r="P20" s="22">
-        <f>(D20-D4)/($K20-$K4)</f>
-        <v>3.7607693530545259E-3</v>
-      </c>
-      <c r="Q20" s="22">
-        <f>(E20-E4)/($K20-$K4)</f>
-        <v>1.5564469575888969E-4</v>
-      </c>
-      <c r="R20" s="22">
-        <f>(F20-F4)/($K20-$K4)</f>
-        <v>0.98057687238595259</v>
-      </c>
-      <c r="S20" s="22">
-        <f>(G20-G4)/($K20-$K4)</f>
-        <v>-3.3728873121565256E-3</v>
-      </c>
-      <c r="T20" s="22">
-        <f>(H20-H4)/($K20-$K4)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="22">
-        <f>(I20-I4)/($K20-$K4)</f>
-        <v>2.0237323872939151E-3</v>
-      </c>
-      <c r="V20" s="22">
-        <f>(J20-J4)/($K20-$K4)</f>
-        <v>1.3873908186550446E-2</v>
-      </c>
-      <c r="W20" s="20">
-        <f t="shared" si="1"/>
-        <v>0.92433451261071919</v>
+      <c r="M20" s="10"/>
+      <c r="N20" s="16">
+        <f t="shared" si="9"/>
+        <v>1.5398024101031191E-3</v>
+      </c>
+      <c r="O20" s="18">
+        <f t="shared" si="9"/>
+        <v>4.9331130539955461E-3</v>
+      </c>
+      <c r="P20" s="18">
+        <f t="shared" si="9"/>
+        <v>8.1634695382584374E-3</v>
+      </c>
+      <c r="Q20" s="18">
+        <f t="shared" si="9"/>
+        <v>3.3785659617418618E-4</v>
+      </c>
+      <c r="R20" s="18">
+        <f t="shared" si="9"/>
+        <v>0.95783838472141392</v>
+      </c>
+      <c r="S20" s="18">
+        <f t="shared" si="9"/>
+        <v>-7.3214973437295411E-3</v>
+      </c>
+      <c r="T20" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="18">
+        <f t="shared" si="9"/>
+        <v>4.3928984062377241E-3</v>
+      </c>
+      <c r="V20" s="18">
+        <f t="shared" si="9"/>
+        <v>3.0115972617546703E-2</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="10"/>
+        <v>0.93347580113252016</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
@@ -5757,7 +5772,7 @@
       </c>
       <c r="F21" s="5">
         <f>资源数比较!F21*单元面积!F$9</f>
-        <v>12404193.405555557</v>
+        <v>5426834.6149305394</v>
       </c>
       <c r="G21" s="5">
         <f>资源数比较!G21*单元面积!G$9</f>
@@ -5775,54 +5790,54 @@
         <f>资源数比较!J21*单元面积!K$9</f>
         <v>193570</v>
       </c>
-      <c r="K21" s="27">
-        <f>SUM(B21:J21)</f>
-        <v>12830068.961111113</v>
+      <c r="K21" s="23">
+        <f t="shared" si="7"/>
+        <v>5852710.1704860954</v>
       </c>
       <c r="L21" s="5">
-        <f>K21/K$18</f>
+        <f t="shared" si="8"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="20">
-        <f>(B21-B5)/($K21-$K5)</f>
-        <v>-5.9680053792086874E-4</v>
-      </c>
-      <c r="O21" s="22">
-        <f>(C21-C5)/($K21-$K5)</f>
-        <v>-1.9119885154952063E-3</v>
-      </c>
-      <c r="P21" s="22">
-        <f>(D21-D5)/($K21-$K5)</f>
-        <v>3.1640183050544719E-3</v>
-      </c>
-      <c r="Q21" s="22">
-        <f>(E21-E5)/($K21-$K5)</f>
-        <v>-1.3094731961314746E-4</v>
-      </c>
-      <c r="R21" s="22">
-        <f>(F21-F5)/($K21-$K5)</f>
-        <v>0.98997717194933788</v>
-      </c>
-      <c r="S21" s="22">
-        <f>(G21-G5)/($K21-$K5)</f>
-        <v>-5.6753691570483799E-3</v>
-      </c>
-      <c r="T21" s="22">
-        <f>(H21-H5)/($K21-$K5)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="22">
-        <f>(I21-I5)/($K21-$K5)</f>
-        <v>2.1282634338931424E-3</v>
-      </c>
-      <c r="V21" s="22">
-        <f>(J21-J5)/($K21-$K5)</f>
-        <v>1.3045651841792029E-2</v>
-      </c>
-      <c r="W21" s="20">
-        <f t="shared" si="1"/>
-        <v>0.87893522017715076</v>
+      <c r="M21" s="10"/>
+      <c r="N21" s="16">
+        <f t="shared" si="9"/>
+        <v>-1.2868671171087341E-3</v>
+      </c>
+      <c r="O21" s="18">
+        <f t="shared" si="9"/>
+        <v>-4.1227763591703817E-3</v>
+      </c>
+      <c r="P21" s="18">
+        <f t="shared" si="9"/>
+        <v>6.8224990696047006E-3</v>
+      </c>
+      <c r="Q21" s="18">
+        <f t="shared" si="9"/>
+        <v>-2.8235865917739921E-4</v>
+      </c>
+      <c r="R21" s="18">
+        <f t="shared" si="9"/>
+        <v>0.97838800902598666</v>
+      </c>
+      <c r="S21" s="18">
+        <f t="shared" si="9"/>
+        <v>-1.2237666492564485E-2</v>
+      </c>
+      <c r="T21" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="18">
+        <f t="shared" si="9"/>
+        <v>4.5891249347116822E-3</v>
+      </c>
+      <c r="V21" s="18">
+        <f t="shared" si="9"/>
+        <v>2.8130035597717776E-2</v>
+      </c>
+      <c r="W21" s="16">
+        <f t="shared" si="10"/>
+        <v>0.89356128181203243</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.15">
@@ -5848,7 +5863,7 @@
       </c>
       <c r="F22" s="5">
         <f>资源数比较!F22*单元面积!F$9</f>
-        <v>9923354.7244444452</v>
+        <v>4341467.6919444315</v>
       </c>
       <c r="G22" s="5">
         <f>资源数比较!G22*单元面积!G$9</f>
@@ -5866,54 +5881,54 @@
         <f>资源数比较!J22*单元面积!K$9</f>
         <v>154856</v>
       </c>
-      <c r="K22" s="27">
-        <f>SUM(B22:J22)</f>
-        <v>10264055.168888889</v>
+      <c r="K22" s="23">
+        <f t="shared" si="7"/>
+        <v>4682168.1363888755</v>
       </c>
       <c r="L22" s="5">
-        <f>K22/K$18</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="20">
-        <f>(B22-B6)/($K22-$K6)</f>
-        <v>3.9420947898941637E-19</v>
-      </c>
-      <c r="O22" s="22">
-        <f>(C22-C6)/($K22-$K6)</f>
-        <v>1.5768379159576655E-18</v>
-      </c>
-      <c r="P22" s="22">
-        <f>(D22-D6)/($K22-$K6)</f>
-        <v>3.4366809963388163E-3</v>
-      </c>
-      <c r="Q22" s="22">
-        <f>(E22-E6)/($K22-$K6)</f>
-        <v>9.8552369747354092E-20</v>
-      </c>
-      <c r="R22" s="22">
-        <f>(F22-F6)/($K22-$K6)</f>
-        <v>0.98568206264635194</v>
-      </c>
-      <c r="S22" s="22">
-        <f>(G22-G6)/($K22-$K6)</f>
-        <v>-4.6233376632360754E-3</v>
-      </c>
-      <c r="T22" s="22">
-        <f>(H22-H6)/($K22-$K6)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="22">
-        <f>(I22-I6)/($K22-$K6)</f>
-        <v>2.0805019484562339E-3</v>
-      </c>
-      <c r="V22" s="22">
-        <f>(J22-J6)/($K22-$K6)</f>
-        <v>1.3424092072089108E-2</v>
-      </c>
-      <c r="W22" s="20">
-        <f t="shared" si="1"/>
-        <v>0.89911268348095896</v>
+      <c r="M22" s="10"/>
+      <c r="N22" s="16">
+        <f t="shared" si="9"/>
+        <v>8.5261168494626E-19</v>
+      </c>
+      <c r="O22" s="18">
+        <f t="shared" si="9"/>
+        <v>3.41044673978504E-18</v>
+      </c>
+      <c r="P22" s="18">
+        <f t="shared" si="9"/>
+        <v>7.4329881220078367E-3</v>
+      </c>
+      <c r="Q22" s="18">
+        <f t="shared" si="9"/>
+        <v>2.13152921236565E-19</v>
+      </c>
+      <c r="R22" s="18">
+        <f t="shared" si="9"/>
+        <v>0.96903260488980625</v>
+      </c>
+      <c r="S22" s="18">
+        <f t="shared" si="9"/>
+        <v>-9.9995355901450703E-3</v>
+      </c>
+      <c r="T22" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="18">
+        <f t="shared" si="9"/>
+        <v>4.4997910155652821E-3</v>
+      </c>
+      <c r="V22" s="18">
+        <f t="shared" si="9"/>
+        <v>2.9034151562765721E-2</v>
+      </c>
+      <c r="W22" s="16">
+        <f t="shared" si="10"/>
+        <v>0.91130106817669365</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
@@ -5939,7 +5954,7 @@
       </c>
       <c r="F23" s="5">
         <f>资源数比较!F23*单元面积!F$9</f>
-        <v>7442516.0433333339</v>
+        <v>3256100.7689583236</v>
       </c>
       <c r="G23" s="5">
         <f>资源数比较!G23*单元面积!G$9</f>
@@ -5957,54 +5972,54 @@
         <f>资源数比较!J23*单元面积!K$9</f>
         <v>116142</v>
       </c>
-      <c r="K23" s="27">
-        <f>SUM(B23:J23)</f>
-        <v>7698041.3766666669</v>
+      <c r="K23" s="23">
+        <f t="shared" si="7"/>
+        <v>3511626.1022916571</v>
       </c>
       <c r="L23" s="5">
-        <f>K23/K$18</f>
-        <v>1.5</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="20">
-        <f>(B23-B7)/($K23-$K7)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="22">
-        <f>(C23-C7)/($K23-$K7)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="22">
-        <f>(D23-D7)/($K23-$K7)</f>
-        <v>3.4366809963388163E-3</v>
-      </c>
-      <c r="Q23" s="22">
-        <f>(E23-E7)/($K23-$K7)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="22">
-        <f>(F23-F7)/($K23-$K7)</f>
-        <v>0.98568206264635194</v>
-      </c>
-      <c r="S23" s="22">
-        <f>(G23-G7)/($K23-$K7)</f>
-        <v>-4.6233376632360762E-3</v>
-      </c>
-      <c r="T23" s="22">
-        <f>(H23-H7)/($K23-$K7)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="22">
-        <f>(I23-I7)/($K23-$K7)</f>
-        <v>2.0805019484562343E-3</v>
-      </c>
-      <c r="V23" s="22">
-        <f>(J23-J7)/($K23-$K7)</f>
-        <v>1.3424092072089109E-2</v>
-      </c>
-      <c r="W23" s="20">
-        <f t="shared" si="1"/>
-        <v>0.89911268348095896</v>
+        <f t="shared" si="8"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="18">
+        <f t="shared" si="9"/>
+        <v>7.4329881220078341E-3</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="18">
+        <f t="shared" si="9"/>
+        <v>0.96903260488980614</v>
+      </c>
+      <c r="S23" s="18">
+        <f t="shared" si="9"/>
+        <v>-9.9995355901450703E-3</v>
+      </c>
+      <c r="T23" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="18">
+        <f t="shared" si="9"/>
+        <v>4.4997910155652812E-3</v>
+      </c>
+      <c r="V23" s="18">
+        <f t="shared" si="9"/>
+        <v>2.9034151562765721E-2</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="10"/>
+        <v>0.91130106817669376</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.15">
@@ -6036,7 +6051,7 @@
       </c>
       <c r="F26" s="5">
         <f>资源数比较!F26*单元面积!F$9</f>
-        <v>1240419.3405555557</v>
+        <v>620209.67027777596</v>
       </c>
       <c r="G26" s="5">
         <f>资源数比较!G26*单元面积!G$9</f>
@@ -6054,54 +6069,54 @@
         <f>资源数比较!J26*单元面积!J$9</f>
         <v>15485.6</v>
       </c>
-      <c r="K26" s="27">
-        <f>SUM(B26:J26)</f>
-        <v>1406180.4961111112</v>
+      <c r="K26" s="23">
+        <f t="shared" ref="K26:K31" si="11">SUM(B26:J26)</f>
+        <v>785970.82583333144</v>
       </c>
       <c r="L26" s="5">
-        <f>K26/K$26</f>
+        <f t="shared" ref="L26:L31" si="12">K26/K$26</f>
         <v>1</v>
       </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="20">
-        <f>(B26-B2)/($K26-$K2)</f>
-        <v>-1.0690247534839308E-2</v>
-      </c>
-      <c r="O26" s="20">
-        <f>(C26-C2)/($K26-$K2)</f>
-        <v>-3.4248679777704613E-2</v>
-      </c>
-      <c r="P26" s="20">
-        <f>(D26-D2)/($K26-$K2)</f>
-        <v>1.8891928283460452E-2</v>
-      </c>
-      <c r="Q26" s="20">
-        <f>(E26-E2)/($K26-$K2)</f>
-        <v>2.3456065665843559E-3</v>
-      </c>
-      <c r="R26" s="20">
-        <f>(F26-F2)/($K26-$K2)</f>
-        <v>0.98517011868804072</v>
-      </c>
-      <c r="S26" s="20">
-        <f>(G26-G2)/($K26-$K2)</f>
-        <v>5.0830300314243362E-2</v>
-      </c>
-      <c r="T26" s="20">
-        <f>(H26-H2)/($K26-$K2)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="20">
-        <f>(I26-I2)/($K26-$K2)</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="20">
-        <f>(J26-J2)/($K26-$K2)</f>
-        <v>-1.2299026539785112E-2</v>
-      </c>
-      <c r="W26" s="20">
+      <c r="M26" s="10"/>
+      <c r="N26" s="16">
+        <f t="shared" ref="N26:V31" si="13">(B26-B2)/($K26-$K2)</f>
+        <v>-1.4183549925791877E-2</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="13"/>
+        <v>-4.5440281708765302E-2</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="13"/>
+        <v>2.5065332409720368E-2</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="13"/>
+        <v>3.1120914398840033E-3</v>
+      </c>
+      <c r="R26" s="16">
+        <f t="shared" si="13"/>
+        <v>0.9803240887270156</v>
+      </c>
+      <c r="S26" s="16">
+        <f t="shared" si="13"/>
+        <v>6.7440356259337308E-2</v>
+      </c>
+      <c r="T26" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <f t="shared" si="13"/>
+        <v>-1.6318037201399904E-2</v>
+      </c>
+      <c r="W26" s="16">
         <f>(K26-K2)/K26</f>
-        <v>0.44769911181937083</v>
+        <v>0.60370350399982797</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.15">
@@ -6127,7 +6142,7 @@
       </c>
       <c r="F27" s="5">
         <f>资源数比较!F27*单元面积!F$9</f>
-        <v>1860629.0108333335</v>
+        <v>930314.50541666395</v>
       </c>
       <c r="G27" s="5">
         <f>资源数比较!G27*单元面积!G$9</f>
@@ -6145,54 +6160,54 @@
         <f>资源数比较!J27*单元面积!J$9</f>
         <v>23228.400000000001</v>
       </c>
-      <c r="K27" s="27">
-        <f>SUM(B27:J27)</f>
-        <v>2109270.7441666666</v>
+      <c r="K27" s="23">
+        <f t="shared" si="11"/>
+        <v>1178956.2387499972</v>
       </c>
       <c r="L27" s="5">
-        <f>K27/K$26</f>
-        <v>1.4999999999999998</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="20">
-        <f>(B27-B3)/($K27-$K3)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="20">
-        <f>(C27-C3)/($K27-$K3)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="20">
-        <f>(D27-D3)/($K27-$K3)</f>
-        <v>1.7849335105576316E-2</v>
-      </c>
-      <c r="Q27" s="20">
-        <f>(E27-E3)/($K27-$K3)</f>
-        <v>3.3242385587599396E-3</v>
-      </c>
-      <c r="R27" s="20">
-        <f>(F27-F3)/($K27-$K3)</f>
-        <v>0.93080130945967376</v>
-      </c>
-      <c r="S27" s="20">
-        <f>(G27-G3)/($K27-$K3)</f>
-        <v>4.8025116875990093E-2</v>
-      </c>
-      <c r="T27" s="20">
-        <f>(H27-H3)/($K27-$K3)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="20">
-        <f>(I27-I3)/($K27-$K3)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="20">
-        <f>(J27-J3)/($K27-$K3)</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="20">
-        <f t="shared" ref="W27:W31" si="2">(K27-K3)/K27</f>
-        <v>0.63179940787958055</v>
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="16">
+        <f t="shared" si="13"/>
+        <v>2.7420460204810572E-2</v>
+      </c>
+      <c r="Q27" s="16">
+        <f t="shared" si="13"/>
+        <v>5.106753308883584E-3</v>
+      </c>
+      <c r="R27" s="16">
+        <f t="shared" si="13"/>
+        <v>0.89369576351372149</v>
+      </c>
+      <c r="S27" s="16">
+        <f t="shared" si="13"/>
+        <v>7.3777022972584511E-2</v>
+      </c>
+      <c r="T27" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="16">
+        <f t="shared" ref="W27:W31" si="14">(K27-K3)/K27</f>
+        <v>0.73580233599988532</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.15">
@@ -6218,7 +6233,7 @@
       </c>
       <c r="F28" s="5">
         <f>资源数比较!F28*单元面积!F$9</f>
-        <v>2480838.6811111113</v>
+        <v>1240419.3405555519</v>
       </c>
       <c r="G28" s="5">
         <f>资源数比较!G28*单元面积!G$9</f>
@@ -6236,54 +6251,54 @@
         <f>资源数比较!J28*单元面积!J$9</f>
         <v>30971.200000000001</v>
       </c>
-      <c r="K28" s="27">
-        <f>SUM(B28:J28)</f>
-        <v>2812360.9922222225</v>
+      <c r="K28" s="23">
+        <f t="shared" si="11"/>
+        <v>1571941.6516666629</v>
       </c>
       <c r="L28" s="5">
-        <f>K28/K$26</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="M28" s="14"/>
-      <c r="N28" s="20">
-        <f>(B28-B4)/($K28-$K4)</f>
-        <v>3.3059454740301912E-3</v>
-      </c>
-      <c r="O28" s="20">
-        <f>(C28-C4)/($K28-$K4)</f>
-        <v>1.0591360727019293E-2</v>
-      </c>
-      <c r="P28" s="20">
-        <f>(D28-D4)/($K28-$K4)</f>
-        <v>1.7526914489360657E-2</v>
-      </c>
-      <c r="Q28" s="20">
-        <f>(E28-E4)/($K28-$K4)</f>
-        <v>3.626879259522969E-3</v>
-      </c>
-      <c r="R28" s="20">
-        <f>(F28-F4)/($K28-$K4)</f>
-        <v>0.91398782425166869</v>
-      </c>
-      <c r="S28" s="20">
-        <f>(G28-G4)/($K28-$K4)</f>
-        <v>4.7157617460163205E-2</v>
-      </c>
-      <c r="T28" s="20">
-        <f>(H28-H4)/($K28-$K4)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="20">
-        <f>(I28-I4)/($K28-$K4)</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="20">
-        <f>(J28-J4)/($K28-$K4)</f>
-        <v>3.8034583382349127E-3</v>
-      </c>
-      <c r="W28" s="20">
-        <f t="shared" si="2"/>
-        <v>0.72384955590968547</v>
+      <c r="M28" s="10"/>
+      <c r="N28" s="16">
+        <f t="shared" si="13"/>
+        <v>5.3393029122906846E-3</v>
+      </c>
+      <c r="O28" s="16">
+        <f t="shared" si="13"/>
+        <v>1.7105691433548079E-2</v>
+      </c>
+      <c r="P28" s="16">
+        <f t="shared" si="13"/>
+        <v>2.8307032378979437E-2</v>
+      </c>
+      <c r="Q28" s="16">
+        <f t="shared" si="13"/>
+        <v>5.8576304857473338E-3</v>
+      </c>
+      <c r="R28" s="16">
+        <f t="shared" si="13"/>
+        <v>0.86108510740025335</v>
+      </c>
+      <c r="S28" s="16">
+        <f t="shared" si="13"/>
+        <v>7.616241895689535E-2</v>
+      </c>
+      <c r="T28" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="16">
+        <f t="shared" si="13"/>
+        <v>6.1428164322859299E-3</v>
+      </c>
+      <c r="W28" s="16">
+        <f t="shared" si="14"/>
+        <v>0.80185175199991399</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.15">
@@ -6309,7 +6324,7 @@
       </c>
       <c r="F29" s="5">
         <f>资源数比较!F29*单元面积!F$9</f>
-        <v>3101048.3513888894</v>
+        <v>1550524.17569444</v>
       </c>
       <c r="G29" s="5">
         <f>资源数比较!G29*单元面积!G$9</f>
@@ -6327,54 +6342,54 @@
         <f>资源数比较!J29*单元面积!J$9</f>
         <v>38714</v>
       </c>
-      <c r="K29" s="27">
-        <f>SUM(B29:J29)</f>
-        <v>3515451.2402777784</v>
+      <c r="K29" s="23">
+        <f t="shared" si="11"/>
+        <v>1964927.064583329</v>
       </c>
       <c r="L29" s="5">
-        <f>K29/K$26</f>
-        <v>2.5</v>
-      </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="20">
-        <f>(B29-B5)/($K29-$K5)</f>
-        <v>-3.429855539013385E-3</v>
-      </c>
-      <c r="O29" s="20">
-        <f>(C29-C5)/($K29-$K5)</f>
-        <v>-1.0988335270687597E-2</v>
-      </c>
-      <c r="P29" s="20">
-        <f>(D29-D5)/($K29-$K5)</f>
-        <v>1.8183840361366652E-2</v>
-      </c>
-      <c r="Q29" s="20">
-        <f>(E29-E5)/($K29-$K5)</f>
-        <v>3.0102545889706387E-3</v>
-      </c>
-      <c r="R29" s="20">
-        <f>(F29-F5)/($K29-$K5)</f>
-        <v>0.94824498051347772</v>
-      </c>
-      <c r="S29" s="20">
-        <f>(G29-G5)/($K29-$K5)</f>
-        <v>4.8925131017130009E-2</v>
-      </c>
-      <c r="T29" s="20">
-        <f>(H29-H5)/($K29-$K5)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="20">
-        <f>(I29-I5)/($K29-$K5)</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="20">
-        <f>(J29-J5)/($K29-$K5)</f>
-        <v>-3.9460156712441078E-3</v>
-      </c>
-      <c r="W29" s="20">
-        <f t="shared" si="2"/>
-        <v>0.55815928945549675</v>
+        <f t="shared" si="12"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="16">
+        <f t="shared" si="13"/>
+        <v>-5.0150074055211906E-3</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="13"/>
+        <v>-1.6066735793980314E-2</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="13"/>
+        <v>2.6587736141009819E-2</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="13"/>
+        <v>4.4014824777531217E-3</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="13"/>
+        <v>0.92432573236817306</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="13"/>
+        <v>7.1536509796438982E-2</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" si="13"/>
+        <v>-5.7697175838736245E-3</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="14"/>
+        <v>0.68296280319986247</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.15">
@@ -6400,7 +6415,7 @@
       </c>
       <c r="F30" s="5">
         <f>资源数比较!F30*单元面积!F$9</f>
-        <v>2480838.6811111113</v>
+        <v>1240419.3405555519</v>
       </c>
       <c r="G30" s="5">
         <f>资源数比较!G30*单元面积!G$9</f>
@@ -6418,54 +6433,54 @@
         <f>资源数比较!J30*单元面积!J$9</f>
         <v>30971.200000000001</v>
       </c>
-      <c r="K30" s="27">
-        <f>SUM(B30:J30)</f>
-        <v>2812360.9922222225</v>
+      <c r="K30" s="23">
+        <f t="shared" si="11"/>
+        <v>1571941.6516666629</v>
       </c>
       <c r="L30" s="5">
-        <f>K30/K$26</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="20">
-        <f>(B30-B6)/($K30-$K6)</f>
-        <v>2.047433875815873E-18</v>
-      </c>
-      <c r="O30" s="20">
-        <f>(C30-C6)/($K30-$K6)</f>
-        <v>8.1897355032634922E-18</v>
-      </c>
-      <c r="P30" s="20">
-        <f>(D30-D6)/($K30-$K6)</f>
-        <v>1.7849335105576316E-2</v>
-      </c>
-      <c r="Q30" s="20">
-        <f>(E30-E6)/($K30-$K6)</f>
-        <v>3.3242385587599391E-3</v>
-      </c>
-      <c r="R30" s="20">
-        <f>(F30-F6)/($K30-$K6)</f>
-        <v>0.93080130945967354</v>
-      </c>
-      <c r="S30" s="20">
-        <f>(G30-G6)/($K30-$K6)</f>
-        <v>4.8025116875990086E-2</v>
-      </c>
-      <c r="T30" s="20">
-        <f>(H30-H6)/($K30-$K6)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="20">
-        <f>(I30-I6)/($K30-$K6)</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="20">
-        <f>(J30-J6)/($K30-$K6)</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="20">
-        <f t="shared" si="2"/>
-        <v>0.63179940787958067</v>
+      <c r="M30" s="10"/>
+      <c r="N30" s="16">
+        <f t="shared" si="13"/>
+        <v>3.1453036643505572E-18</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" si="13"/>
+        <v>1.2581214657402229E-17</v>
+      </c>
+      <c r="P30" s="16">
+        <f t="shared" si="13"/>
+        <v>2.7420460204810575E-2</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" si="13"/>
+        <v>5.1067533088835848E-3</v>
+      </c>
+      <c r="R30" s="16">
+        <f t="shared" si="13"/>
+        <v>0.89369576351372149</v>
+      </c>
+      <c r="S30" s="16">
+        <f t="shared" si="13"/>
+        <v>7.3777022972584511E-2</v>
+      </c>
+      <c r="T30" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="14"/>
+        <v>0.73580233599988543</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.15">
@@ -6491,7 +6506,7 @@
       </c>
       <c r="F31" s="5">
         <f>资源数比较!F31*单元面积!F$9</f>
-        <v>1860629.0108333335</v>
+        <v>930314.50541666395</v>
       </c>
       <c r="G31" s="5">
         <f>资源数比较!G31*单元面积!G$9</f>
@@ -6509,54 +6524,54 @@
         <f>资源数比较!J31*单元面积!J$9</f>
         <v>23228.400000000001</v>
       </c>
-      <c r="K31" s="27">
-        <f>SUM(B31:J31)</f>
-        <v>2109270.7441666666</v>
+      <c r="K31" s="23">
+        <f t="shared" si="11"/>
+        <v>1178956.2387499972</v>
       </c>
       <c r="L31" s="5">
-        <f>K31/K$26</f>
-        <v>1.4999999999999998</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="20">
-        <f>(B31-B7)/($K31-$K7)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="20">
-        <f>(C31-C7)/($K31-$K7)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="20">
-        <f>(D31-D7)/($K31-$K7)</f>
-        <v>1.7849335105576316E-2</v>
-      </c>
-      <c r="Q31" s="20">
-        <f>(E31-E7)/($K31-$K7)</f>
-        <v>3.3242385587599396E-3</v>
-      </c>
-      <c r="R31" s="20">
-        <f>(F31-F7)/($K31-$K7)</f>
-        <v>0.93080130945967376</v>
-      </c>
-      <c r="S31" s="20">
-        <f>(G31-G7)/($K31-$K7)</f>
-        <v>4.8025116875990093E-2</v>
-      </c>
-      <c r="T31" s="20">
-        <f>(H31-H7)/($K31-$K7)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="20">
-        <f>(I31-I7)/($K31-$K7)</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="20">
-        <f>(J31-J7)/($K31-$K7)</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="20">
-        <f t="shared" si="2"/>
-        <v>0.63179940787958055</v>
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="16">
+        <f t="shared" si="13"/>
+        <v>2.7420460204810572E-2</v>
+      </c>
+      <c r="Q31" s="16">
+        <f t="shared" si="13"/>
+        <v>5.106753308883584E-3</v>
+      </c>
+      <c r="R31" s="16">
+        <f t="shared" si="13"/>
+        <v>0.89369576351372149</v>
+      </c>
+      <c r="S31" s="16">
+        <f t="shared" si="13"/>
+        <v>7.3777022972584511E-2</v>
+      </c>
+      <c r="T31" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="16">
+        <f t="shared" si="14"/>
+        <v>0.73580233599988532</v>
       </c>
     </row>
   </sheetData>

--- a/对比/架构优化_160220.xlsx
+++ b/对比/架构优化_160220.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="算法分析" sheetId="1" r:id="rId1"/>
@@ -426,6 +426,9 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,9 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,7 +949,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1002,7 +1002,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5">
@@ -1039,7 +1039,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="7">
         <f>B2/$B2</f>
         <v>1</v>
@@ -1082,7 +1082,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="7">
@@ -1119,7 +1119,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="7">
         <f>B4/$B4</f>
         <v>1</v>
@@ -1162,7 +1162,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5">
@@ -1187,7 +1187,7 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="7">
         <f>B6/$B6</f>
         <v>1</v>
@@ -1218,28 +1218,24 @@
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7">
-        <f>B4</f>
-        <v>1682.5</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" ref="C9:K9" si="6">C4</f>
-        <v>5390.2777777777783</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="6"/>
-        <v>2973.3333333333335</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="6"/>
-        <v>369.16666666666669</v>
-      </c>
-      <c r="F9" s="7">
-        <f>F4</f>
-        <v>38763.104392360998</v>
+      <c r="B9" s="5">
+        <v>1278</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3549.5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2298</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1614</v>
+      </c>
+      <c r="F9" s="5">
+        <f>51191/4</f>
+        <v>12797.75</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C9:K9" si="6">G4</f>
         <v>8000</v>
       </c>
       <c r="H9" s="7">
@@ -1325,7 +1321,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1356,7 +1352,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1385,7 +1381,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1401,7 +1397,7 @@
       <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="30">
         <v>1</v>
       </c>
       <c r="H4" s="5">
@@ -1414,7 +1410,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1443,7 +1439,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1472,7 +1468,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -1490,7 +1486,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1508,7 +1504,7 @@
       <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="30">
         <v>4</v>
       </c>
       <c r="H8" s="5"/>
@@ -1521,7 +1517,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1550,7 +1546,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="21" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -1568,7 +1564,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="5"/>
@@ -1601,7 +1597,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -1619,7 +1615,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="5"/>
@@ -1652,7 +1648,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1733,29 +1729,29 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="str">
+      <c r="A2" s="31" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
       <c r="B2" s="5">
         <f>SUMPRODUCT(架构比较!C2:C6,架构比较!$K2:$K6)*单元面积!B9</f>
-        <v>20190</v>
+        <v>15336</v>
       </c>
       <c r="C2" s="5">
         <f>SUMPRODUCT(架构比较!D2:D6,架构比较!$K2:$K6)*单元面积!C9</f>
-        <v>64683.333333333343</v>
+        <v>42594</v>
       </c>
       <c r="D2" s="5">
         <f>SUMPRODUCT(架构比较!E2:E6,架构比较!$K2:$K6)*单元面积!D9</f>
-        <v>11893.333333333334</v>
+        <v>9192</v>
       </c>
       <c r="E2" s="5">
         <f>SUMPRODUCT(架构比较!F2:F6,架构比较!$K2:$K6)*单元面积!E9</f>
-        <v>4430</v>
+        <v>19368</v>
       </c>
       <c r="F2" s="5">
         <f>SUMPRODUCT(架构比较!G2:G6,架构比较!$K2:$K6)*单元面积!F9</f>
-        <v>155052.41756944399</v>
+        <v>51191</v>
       </c>
       <c r="G2" s="5">
         <f>SUMPRODUCT(架构比较!H2:H6,架构比较!$K2:$K6)*单元面积!G9</f>
@@ -1775,34 +1771,34 @@
       </c>
       <c r="K2" s="5">
         <f>SUM(B2:I2)</f>
-        <v>288249.08423611068</v>
+        <v>169681</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="29">
         <f>B2/$K2</f>
-        <v>7.0043587661364301E-2</v>
+        <v>9.0381362674665996E-2</v>
       </c>
       <c r="C3" s="29">
         <f t="shared" ref="C3:J3" si="0">C2/$K2</f>
-        <v>0.2244008285568391</v>
+        <v>0.25102398029243111</v>
       </c>
       <c r="D3" s="29">
         <f t="shared" si="0"/>
-        <v>4.1260610991538355E-2</v>
+        <v>5.4172240851951603E-2</v>
       </c>
       <c r="E3" s="29">
         <f t="shared" si="0"/>
-        <v>1.5368652468541051E-2</v>
+        <v>0.1141435988708223</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" si="0"/>
-        <v>0.5379112234834974</v>
+        <v>0.30168964115015823</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" si="0"/>
-        <v>0.11101509683821979</v>
+        <v>0.18858917615997076</v>
       </c>
       <c r="H3" s="29">
         <f t="shared" si="0"/>
@@ -1814,34 +1810,34 @@
       </c>
       <c r="J3" s="29">
         <f t="shared" si="0"/>
-        <v>8.0584471106153271E-2</v>
+        <v>0.13689452560982079</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="str">
+      <c r="A4" s="31" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
       <c r="B4" s="5">
         <f>SUMPRODUCT(架构比较!C8:C9,架构比较!$K8:$K9)*单元面积!B9</f>
-        <v>13460</v>
+        <v>10224</v>
       </c>
       <c r="C4" s="5">
         <f>SUMPRODUCT(架构比较!D8:D9,架构比较!$K8:$K9)*单元面积!C9</f>
-        <v>43122.222222222226</v>
+        <v>28396</v>
       </c>
       <c r="D4" s="5">
         <f>SUMPRODUCT(架构比较!E8:E9,架构比较!$K8:$K9)*单元面积!D9</f>
-        <v>11893.333333333334</v>
+        <v>9192</v>
       </c>
       <c r="E4" s="5">
         <f>SUMPRODUCT(架构比较!F8:F9,架构比较!$K8:$K9)*单元面积!E9</f>
-        <v>17720</v>
+        <v>77472</v>
       </c>
       <c r="F4" s="5">
         <f>SUMPRODUCT(架构比较!G8:G9,架构比较!$K8:$K9)*单元面积!F9</f>
-        <v>620209.67027777596</v>
+        <v>204764</v>
       </c>
       <c r="G4" s="5">
         <f>SUMPRODUCT(架构比较!H8:H9,架构比较!$K8:$K9)*单元面积!G9</f>
@@ -1861,30 +1857,30 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(B4:I4)</f>
-        <v>710405.22583333147</v>
+        <v>334048</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="29">
         <f>B4/$K4</f>
-        <v>1.894693269494312E-2</v>
+        <v>3.0606379921448414E-2</v>
       </c>
       <c r="C5" s="29">
         <f t="shared" ref="C5:J5" si="1">C4/$K4</f>
-        <v>6.070087979946695E-2</v>
+        <v>8.5005747676980548E-2</v>
       </c>
       <c r="D5" s="29">
         <f t="shared" si="1"/>
-        <v>1.6741618587309822E-2</v>
+        <v>2.7517003544400804E-2</v>
       </c>
       <c r="E5" s="29">
         <f t="shared" si="1"/>
-        <v>2.4943510204635373E-2</v>
+        <v>0.23191876616534152</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" si="1"/>
-        <v>0.87303646950266622</v>
+        <v>0.61297777564900857</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
@@ -1892,7 +1888,7 @@
       </c>
       <c r="H5" s="29">
         <f t="shared" si="1"/>
-        <v>5.6305892109786392E-3</v>
+        <v>1.1974327042820193E-2</v>
       </c>
       <c r="I5" s="29">
         <f t="shared" si="1"/>
@@ -1900,34 +1896,34 @@
       </c>
       <c r="J5" s="29">
         <f t="shared" si="1"/>
-        <v>5.4495657678456759E-2</v>
+        <v>0.11589352428393525</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="str">
+      <c r="A6" s="31" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
       <c r="B6" s="5">
         <f>架构比较!C11*架构比较!$K11*单元面积!B9</f>
-        <v>6730</v>
+        <v>5112</v>
       </c>
       <c r="C6" s="5">
         <f>架构比较!D11*架构比较!$K11*单元面积!C9</f>
-        <v>21561.111111111113</v>
+        <v>14198</v>
       </c>
       <c r="D6" s="5">
         <f>架构比较!E11*架构比较!$K11*单元面积!D9</f>
-        <v>11893.333333333334</v>
+        <v>9192</v>
       </c>
       <c r="E6" s="5">
         <f>架构比较!F11*架构比较!$K11*单元面积!E9</f>
-        <v>1476.6666666666667</v>
+        <v>6456</v>
       </c>
       <c r="F6" s="5">
         <f>架构比较!G11*架构比较!$K11*单元面积!F9</f>
-        <v>1085366.9229861079</v>
+        <v>358337</v>
       </c>
       <c r="G6" s="5">
         <f>架构比较!H11*架构比较!$K11*单元面积!G9</f>
@@ -1947,30 +1943,30 @@
       </c>
       <c r="K6" s="5">
         <f>SUM(B6:I6)</f>
-        <v>1131828.0340972189</v>
+        <v>398095</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="29">
         <f>B6/$K6</f>
-        <v>5.9461329789096953E-3</v>
+        <v>1.2841156005476079E-2</v>
       </c>
       <c r="C7" s="29">
         <f t="shared" ref="C7:J7" si="2">C6/$K6</f>
-        <v>1.9049811863256175E-2</v>
+        <v>3.5664853866539392E-2</v>
       </c>
       <c r="D7" s="29">
         <f t="shared" si="2"/>
-        <v>1.0508074526374341E-2</v>
+        <v>2.3089965962898303E-2</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="2"/>
-        <v>1.3046740513407602E-3</v>
+        <v>1.6217234579685755E-2</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" si="2"/>
-        <v>0.95895037964122365</v>
+        <v>0.90012936610608019</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="2"/>
@@ -1982,38 +1978,38 @@
       </c>
       <c r="I7" s="29">
         <f t="shared" si="2"/>
-        <v>4.2409269388954734E-3</v>
+        <v>1.2057423479320263E-2</v>
       </c>
       <c r="J7" s="29">
         <f t="shared" si="2"/>
-        <v>3.4204842815083202E-2</v>
+        <v>9.7248144287167632E-2</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="str">
+      <c r="A8" s="34" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
       <c r="B8" s="5">
         <f>架构比较!C13*架构比较!$K13*单元面积!B9</f>
-        <v>6730</v>
+        <v>5112</v>
       </c>
       <c r="C8" s="5">
         <f>架构比较!D13*架构比较!$K13*单元面积!C9</f>
-        <v>21561.111111111113</v>
+        <v>14198</v>
       </c>
       <c r="D8" s="5">
         <f>架构比较!E13*架构比较!$K13*单元面积!D9</f>
-        <v>11893.333333333334</v>
+        <v>9192</v>
       </c>
       <c r="E8" s="5">
         <f>架构比较!F13*架构比较!$K13*单元面积!E9</f>
-        <v>2953.3333333333335</v>
+        <v>12912</v>
       </c>
       <c r="F8" s="5">
         <f>架构比较!G13*架构比较!$K13*单元面积!F9</f>
-        <v>310104.83513888798</v>
+        <v>102382</v>
       </c>
       <c r="G8" s="5">
         <f>架构比较!H13*架构比较!$K13*单元面积!G9</f>
@@ -2033,34 +2029,34 @@
       </c>
       <c r="K8" s="5">
         <f>SUM(B8:I8)</f>
-        <v>385242.61291666573</v>
+        <v>175796</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="29">
         <f>B8/$K8</f>
-        <v>1.7469510833828264E-2</v>
+        <v>2.9079159935379646E-2</v>
       </c>
       <c r="C9" s="29">
         <f t="shared" ref="C9:J9" si="3">C8/$K8</f>
-        <v>5.5967617257790571E-2</v>
+        <v>8.0764067441807544E-2</v>
       </c>
       <c r="D9" s="29">
         <f t="shared" si="3"/>
-        <v>3.0872320284843609E-2</v>
+        <v>5.2287879132631006E-2</v>
       </c>
       <c r="E9" s="29">
         <f t="shared" si="3"/>
-        <v>7.6661647344090349E-3</v>
+        <v>7.3448770165419008E-2</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" si="3"/>
-        <v>0.80495984800614129</v>
+        <v>0.58239095315024236</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="3"/>
-        <v>8.3064538882987288E-2</v>
+        <v>0.18202917017452047</v>
       </c>
       <c r="H9" s="29">
         <f t="shared" si="3"/>
@@ -2072,7 +2068,7 @@
       </c>
       <c r="J9" s="29">
         <f t="shared" si="3"/>
-        <v>2.0098503489474812E-2</v>
+        <v>4.4044233088352411E-2</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -2134,7 +2130,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="str">
+      <c r="A2" s="34" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
@@ -2163,7 +2159,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="5" t="str">
         <f>架构比较!B3</f>
         <v>T2</v>
@@ -2189,7 +2185,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="5" t="str">
         <f>架构比较!B4</f>
         <v>T3</v>
@@ -2215,7 +2211,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="5" t="str">
         <f>架构比较!B5</f>
         <v>T4</v>
@@ -2241,7 +2237,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="5" t="str">
         <f>架构比较!B6</f>
         <v>T5</v>
@@ -2267,7 +2263,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -2292,7 +2288,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="str">
+      <c r="A8" s="34" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
@@ -2320,7 +2316,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="5" t="str">
         <f>架构比较!B9</f>
         <v>T2</v>
@@ -2345,7 +2341,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2370,7 +2366,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="str">
+      <c r="A11" s="31" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
@@ -2397,7 +2393,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2422,7 +2418,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="30" t="str">
+      <c r="A13" s="31" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
@@ -2449,7 +2445,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -2488,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4504,8 +4500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4577,23 +4573,23 @@
       </c>
       <c r="B2" s="5">
         <f>资源数比较!B2*单元面积!B$9</f>
-        <v>20190</v>
+        <v>15336</v>
       </c>
       <c r="C2" s="5">
         <f>资源数比较!C2*单元面积!C$9</f>
-        <v>64683.333333333343</v>
+        <v>42594</v>
       </c>
       <c r="D2" s="5">
         <f>资源数比较!D2*单元面积!D$9</f>
-        <v>11893.333333333334</v>
+        <v>9192</v>
       </c>
       <c r="E2" s="5">
         <f>资源数比较!E2*单元面积!E$9</f>
-        <v>4430</v>
+        <v>19368</v>
       </c>
       <c r="F2" s="5">
         <f>资源数比较!F2*单元面积!F$9</f>
-        <v>155052.41756944399</v>
+        <v>51191</v>
       </c>
       <c r="G2" s="5">
         <f>资源数比较!G2*单元面积!G$9</f>
@@ -4613,7 +4609,7 @@
       </c>
       <c r="K2" s="23">
         <f t="shared" ref="K2:K7" si="0">SUM(B2:J2)</f>
-        <v>311477.4842361107</v>
+        <v>192909.4</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ref="L2:L7" si="1">K2/K$2</f>
@@ -4628,23 +4624,23 @@
       </c>
       <c r="B3" s="5">
         <f>资源数比较!B3*单元面积!B$9</f>
-        <v>20190</v>
+        <v>15336</v>
       </c>
       <c r="C3" s="5">
         <f>资源数比较!C3*单元面积!C$9</f>
-        <v>64683.333333333343</v>
+        <v>42594</v>
       </c>
       <c r="D3" s="5">
         <f>资源数比较!D3*单元面积!D$9</f>
-        <v>11893.333333333334</v>
+        <v>9192</v>
       </c>
       <c r="E3" s="5">
         <f>资源数比较!E3*单元面积!E$9</f>
-        <v>4430</v>
+        <v>19368</v>
       </c>
       <c r="F3" s="5">
         <f>资源数比较!F3*单元面积!F$9</f>
-        <v>155052.41756944399</v>
+        <v>51191</v>
       </c>
       <c r="G3" s="5">
         <f>资源数比较!G3*单元面积!G$9</f>
@@ -4664,7 +4660,7 @@
       </c>
       <c r="K3" s="23">
         <f t="shared" si="0"/>
-        <v>311477.4842361107</v>
+        <v>192909.4</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="1"/>
@@ -4679,23 +4675,23 @@
       </c>
       <c r="B4" s="5">
         <f>资源数比较!B4*单元面积!B$9</f>
-        <v>20190</v>
+        <v>15336</v>
       </c>
       <c r="C4" s="5">
         <f>资源数比较!C4*单元面积!C$9</f>
-        <v>64683.333333333343</v>
+        <v>42594</v>
       </c>
       <c r="D4" s="5">
         <f>资源数比较!D4*单元面积!D$9</f>
-        <v>11893.333333333334</v>
+        <v>9192</v>
       </c>
       <c r="E4" s="5">
         <f>资源数比较!E4*单元面积!E$9</f>
-        <v>4430</v>
+        <v>19368</v>
       </c>
       <c r="F4" s="5">
         <f>资源数比较!F4*单元面积!F$9</f>
-        <v>155052.41756944399</v>
+        <v>51191</v>
       </c>
       <c r="G4" s="5">
         <f>资源数比较!G4*单元面积!G$9</f>
@@ -4715,7 +4711,7 @@
       </c>
       <c r="K4" s="23">
         <f t="shared" si="0"/>
-        <v>311477.4842361107</v>
+        <v>192909.4</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="1"/>
@@ -4730,23 +4726,23 @@
       </c>
       <c r="B5" s="5">
         <f>资源数比较!B5*单元面积!B$9</f>
-        <v>40380</v>
+        <v>30672</v>
       </c>
       <c r="C5" s="5">
         <f>资源数比较!C5*单元面积!C$9</f>
-        <v>129366.66666666669</v>
+        <v>85188</v>
       </c>
       <c r="D5" s="5">
         <f>资源数比较!D5*单元面积!D$9</f>
-        <v>23786.666666666668</v>
+        <v>18384</v>
       </c>
       <c r="E5" s="5">
         <f>资源数比较!E5*单元面积!E$9</f>
-        <v>8860</v>
+        <v>38736</v>
       </c>
       <c r="F5" s="5">
         <f>资源数比较!F5*单元面积!F$9</f>
-        <v>310104.83513888798</v>
+        <v>102382</v>
       </c>
       <c r="G5" s="5">
         <f>资源数比较!G5*单元面积!G$9</f>
@@ -4766,7 +4762,7 @@
       </c>
       <c r="K5" s="23">
         <f t="shared" si="0"/>
-        <v>622954.9684722214</v>
+        <v>385818.8</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="1"/>
@@ -4781,23 +4777,23 @@
       </c>
       <c r="B6" s="5">
         <f>资源数比较!B6*单元面积!B$9</f>
-        <v>26919.999999999996</v>
+        <v>20447.999999999996</v>
       </c>
       <c r="C6" s="5">
         <f>资源数比较!C6*单元面积!C$9</f>
-        <v>86244.444444444438</v>
+        <v>56791.999999999993</v>
       </c>
       <c r="D6" s="5">
         <f>资源数比较!D6*单元面积!D$9</f>
-        <v>15857.777777777777</v>
+        <v>12256</v>
       </c>
       <c r="E6" s="5">
         <f>资源数比较!E6*单元面积!E$9</f>
-        <v>5906.6666666666661</v>
+        <v>25823.999999999996</v>
       </c>
       <c r="F6" s="5">
         <f>资源数比较!F6*单元面积!F$9</f>
-        <v>206736.55675925864</v>
+        <v>68254.666666666657</v>
       </c>
       <c r="G6" s="5">
         <f>资源数比较!G6*单元面积!G$9</f>
@@ -4817,11 +4813,11 @@
       </c>
       <c r="K6" s="23">
         <f t="shared" si="0"/>
-        <v>415303.31231481419</v>
+        <v>257212.5333333333</v>
       </c>
       <c r="L6" s="12">
         <f t="shared" si="1"/>
-        <v>1.333333333333333</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="M6" s="10"/>
     </row>
@@ -4832,23 +4828,23 @@
       </c>
       <c r="B7" s="5">
         <f>资源数比较!B7*单元面积!B$9</f>
-        <v>20190</v>
+        <v>15336</v>
       </c>
       <c r="C7" s="5">
         <f>资源数比较!C7*单元面积!C$9</f>
-        <v>64683.333333333343</v>
+        <v>42594</v>
       </c>
       <c r="D7" s="5">
         <f>资源数比较!D7*单元面积!D$9</f>
-        <v>11893.333333333334</v>
+        <v>9192</v>
       </c>
       <c r="E7" s="5">
         <f>资源数比较!E7*单元面积!E$9</f>
-        <v>4430</v>
+        <v>19368</v>
       </c>
       <c r="F7" s="5">
         <f>资源数比较!F7*单元面积!F$9</f>
-        <v>155052.41756944399</v>
+        <v>51191</v>
       </c>
       <c r="G7" s="5">
         <f>资源数比较!G7*单元面积!G$9</f>
@@ -4868,7 +4864,7 @@
       </c>
       <c r="K7" s="23">
         <f t="shared" si="0"/>
-        <v>311477.4842361107</v>
+        <v>192909.4</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="1"/>
@@ -4928,23 +4924,23 @@
       </c>
       <c r="B10" s="5">
         <f>资源数比较!B10*单元面积!B$9</f>
-        <v>13460</v>
+        <v>10224</v>
       </c>
       <c r="C10" s="5">
         <f>资源数比较!C10*单元面积!C$9</f>
-        <v>43122.222222222226</v>
+        <v>28396</v>
       </c>
       <c r="D10" s="5">
         <f>资源数比较!D10*单元面积!D$9</f>
-        <v>11893.333333333334</v>
+        <v>9192</v>
       </c>
       <c r="E10" s="5">
         <f>资源数比较!E10*单元面积!E$9</f>
-        <v>17720</v>
+        <v>77472</v>
       </c>
       <c r="F10" s="5">
         <f>资源数比较!F10*单元面积!F$9</f>
-        <v>620209.67027777596</v>
+        <v>204764</v>
       </c>
       <c r="G10" s="5">
         <f>资源数比较!G10*单元面积!G$9</f>
@@ -4964,7 +4960,7 @@
       </c>
       <c r="K10" s="23">
         <f t="shared" ref="K10:K15" si="3">SUM(B10:J10)</f>
-        <v>787833.22583333147</v>
+        <v>411476</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" ref="L10:L15" si="4">K10/K$10</f>
@@ -4973,11 +4969,11 @@
       <c r="M10" s="19"/>
       <c r="N10" s="18">
         <f t="shared" ref="N10:V15" si="5">(B10-B2)/($K10-$K2)</f>
-        <v>-1.4128096740126004E-2</v>
+        <v>-2.3388751986808596E-2</v>
       </c>
       <c r="O10" s="18">
         <f t="shared" si="5"/>
-        <v>-4.526262460659488E-2</v>
+        <v>-6.4959604989966446E-2</v>
       </c>
       <c r="P10" s="18">
         <f t="shared" si="5"/>
@@ -4985,19 +4981,19 @@
       </c>
       <c r="Q10" s="18">
         <f t="shared" si="5"/>
-        <v>2.7899317336742141E-2</v>
+        <v>0.26584116694865545</v>
       </c>
       <c r="R10" s="18">
         <f t="shared" si="5"/>
-        <v>0.97649133218938378</v>
+        <v>0.70263709093704163</v>
       </c>
       <c r="S10" s="18">
         <f t="shared" si="5"/>
-        <v>-6.7176685837151875E-2</v>
+        <v>-0.14640846314121186</v>
       </c>
       <c r="T10" s="18">
         <f t="shared" si="5"/>
-        <v>8.3970857296439844E-3</v>
+        <v>1.8301057892651483E-2</v>
       </c>
       <c r="U10" s="18">
         <f t="shared" si="5"/>
@@ -5005,11 +5001,11 @@
       </c>
       <c r="V10" s="18">
         <f t="shared" si="5"/>
-        <v>0.11377967192810302</v>
+        <v>0.24797750433963833</v>
       </c>
       <c r="W10" s="16">
         <f>(K10-K2)/K10</f>
-        <v>0.60464032992941485</v>
+        <v>0.53117703098115077</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
@@ -5019,23 +5015,23 @@
       </c>
       <c r="B11" s="5">
         <f>资源数比较!B11*单元面积!B$9</f>
-        <v>26920</v>
+        <v>20448</v>
       </c>
       <c r="C11" s="5">
         <f>资源数比较!C11*单元面积!C$9</f>
-        <v>86244.444444444453</v>
+        <v>56792</v>
       </c>
       <c r="D11" s="5">
         <f>资源数比较!D11*单元面积!D$9</f>
-        <v>23786.666666666668</v>
+        <v>18384</v>
       </c>
       <c r="E11" s="5">
         <f>资源数比较!E11*单元面积!E$9</f>
-        <v>35440</v>
+        <v>154944</v>
       </c>
       <c r="F11" s="5">
         <f>资源数比较!F11*单元面积!F$9</f>
-        <v>1240419.3405555519</v>
+        <v>409528</v>
       </c>
       <c r="G11" s="5">
         <f>资源数比较!G11*单元面积!G$9</f>
@@ -5055,7 +5051,7 @@
       </c>
       <c r="K11" s="23">
         <f t="shared" si="3"/>
-        <v>1575666.4516666629</v>
+        <v>822952</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="4"/>
@@ -5064,31 +5060,31 @@
       <c r="M11" s="19"/>
       <c r="N11" s="18">
         <f t="shared" si="5"/>
-        <v>5.3235712171089723E-3</v>
+        <v>8.1137370711123341E-3</v>
       </c>
       <c r="O11" s="18">
         <f t="shared" si="5"/>
-        <v>1.7055291310549711E-2</v>
+        <v>2.2534984142342122E-2</v>
       </c>
       <c r="P11" s="18">
         <f t="shared" si="5"/>
-        <v>9.4078762271643454E-3</v>
+        <v>1.4589489663079925E-2</v>
       </c>
       <c r="Q11" s="18">
         <f t="shared" si="5"/>
-        <v>2.4529560689829009E-2</v>
+        <v>0.21518544936485248</v>
       </c>
       <c r="R11" s="18">
         <f t="shared" si="5"/>
-        <v>0.85854801058112551</v>
+        <v>0.56875043052644381</v>
       </c>
       <c r="S11" s="18">
         <f t="shared" si="5"/>
-        <v>-2.5312671463222455E-2</v>
+        <v>-5.0790216407588948E-2</v>
       </c>
       <c r="T11" s="18">
         <f t="shared" si="5"/>
-        <v>6.3281678658056138E-3</v>
+        <v>1.2697554101897237E-2</v>
       </c>
       <c r="U11" s="18">
         <f t="shared" si="5"/>
@@ -5096,11 +5092,11 @@
       </c>
       <c r="V11" s="18">
         <f t="shared" si="5"/>
-        <v>0.10412019357163937</v>
+        <v>0.20891857153786111</v>
       </c>
       <c r="W11" s="16">
         <f t="shared" ref="W11:W15" si="6">(K11-K3)/K11</f>
-        <v>0.80232016496470748</v>
+        <v>0.76558851549057538</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.15">
@@ -5110,23 +5106,23 @@
       </c>
       <c r="B12" s="5">
         <f>资源数比较!B12*单元面积!B$9</f>
-        <v>26920</v>
+        <v>20448</v>
       </c>
       <c r="C12" s="5">
         <f>资源数比较!C12*单元面积!C$9</f>
-        <v>86244.444444444453</v>
+        <v>56792</v>
       </c>
       <c r="D12" s="5">
         <f>资源数比较!D12*单元面积!D$9</f>
-        <v>23786.666666666668</v>
+        <v>18384</v>
       </c>
       <c r="E12" s="5">
         <f>资源数比较!E12*单元面积!E$9</f>
-        <v>35440</v>
+        <v>154944</v>
       </c>
       <c r="F12" s="5">
         <f>资源数比较!F12*单元面积!F$9</f>
-        <v>1240419.3405555519</v>
+        <v>409528</v>
       </c>
       <c r="G12" s="5">
         <f>资源数比较!G12*单元面积!G$9</f>
@@ -5146,7 +5142,7 @@
       </c>
       <c r="K12" s="23">
         <f t="shared" si="3"/>
-        <v>1575666.4516666629</v>
+        <v>822952</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="4"/>
@@ -5155,31 +5151,31 @@
       <c r="M12" s="19"/>
       <c r="N12" s="18">
         <f t="shared" si="5"/>
-        <v>5.3235712171089723E-3</v>
+        <v>8.1137370711123341E-3</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="5"/>
-        <v>1.7055291310549711E-2</v>
+        <v>2.2534984142342122E-2</v>
       </c>
       <c r="P12" s="18">
         <f t="shared" si="5"/>
-        <v>9.4078762271643454E-3</v>
+        <v>1.4589489663079925E-2</v>
       </c>
       <c r="Q12" s="18">
         <f t="shared" si="5"/>
-        <v>2.4529560689829009E-2</v>
+        <v>0.21518544936485248</v>
       </c>
       <c r="R12" s="18">
         <f t="shared" si="5"/>
-        <v>0.85854801058112551</v>
+        <v>0.56875043052644381</v>
       </c>
       <c r="S12" s="18">
         <f t="shared" si="5"/>
-        <v>-2.5312671463222455E-2</v>
+        <v>-5.0790216407588948E-2</v>
       </c>
       <c r="T12" s="18">
         <f t="shared" si="5"/>
-        <v>6.3281678658056138E-3</v>
+        <v>1.2697554101897237E-2</v>
       </c>
       <c r="U12" s="18">
         <f t="shared" si="5"/>
@@ -5187,11 +5183,11 @@
       </c>
       <c r="V12" s="18">
         <f t="shared" si="5"/>
-        <v>0.10412019357163937</v>
+        <v>0.20891857153786111</v>
       </c>
       <c r="W12" s="16">
         <f t="shared" si="6"/>
-        <v>0.80232016496470748</v>
+        <v>0.76558851549057538</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
@@ -5201,23 +5197,23 @@
       </c>
       <c r="B13" s="5">
         <f>资源数比较!B13*单元面积!B$9</f>
-        <v>40380</v>
+        <v>30672</v>
       </c>
       <c r="C13" s="5">
         <f>资源数比较!C13*单元面积!C$9</f>
-        <v>129366.66666666669</v>
+        <v>85188</v>
       </c>
       <c r="D13" s="5">
         <f>资源数比较!D13*单元面积!D$9</f>
-        <v>35680</v>
+        <v>27576</v>
       </c>
       <c r="E13" s="5">
         <f>资源数比较!E13*单元面积!E$9</f>
-        <v>53160</v>
+        <v>232416</v>
       </c>
       <c r="F13" s="5">
         <f>资源数比较!F13*单元面积!F$9</f>
-        <v>1860629.0108333279</v>
+        <v>614292</v>
       </c>
       <c r="G13" s="5">
         <f>资源数比较!G13*单元面积!G$9</f>
@@ -5237,11 +5233,11 @@
       </c>
       <c r="K13" s="23">
         <f t="shared" si="3"/>
-        <v>2363499.6774999946</v>
+        <v>1234428</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="4"/>
-        <v>3.0000000000000004</v>
+        <v>3</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="18">
@@ -5254,23 +5250,23 @@
       </c>
       <c r="P13" s="18">
         <f t="shared" si="5"/>
-        <v>6.8331099291190659E-3</v>
+        <v>1.0831841087746869E-2</v>
       </c>
       <c r="Q13" s="18">
         <f t="shared" si="5"/>
-        <v>2.5451802398540467E-2</v>
+        <v>0.22823226521701628</v>
       </c>
       <c r="R13" s="18">
         <f t="shared" si="5"/>
-        <v>0.89082697367798491</v>
+        <v>0.60323409173504128</v>
       </c>
       <c r="S13" s="18">
         <f t="shared" si="5"/>
-        <v>-3.6770098273286457E-2</v>
+        <v>-7.5417518452545657E-2</v>
       </c>
       <c r="T13" s="18">
         <f t="shared" si="5"/>
-        <v>6.8943934262412103E-3</v>
+        <v>1.4140784709852309E-2</v>
       </c>
       <c r="U13" s="18">
         <f t="shared" si="5"/>
@@ -5278,11 +5274,11 @@
       </c>
       <c r="V13" s="18">
         <f t="shared" si="5"/>
-        <v>0.10676381884140089</v>
+        <v>0.21897853570288894</v>
       </c>
       <c r="W13" s="16">
         <f t="shared" si="6"/>
-        <v>0.73642688661960998</v>
+        <v>0.68745135398743384</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
@@ -5292,23 +5288,23 @@
       </c>
       <c r="B14" s="5">
         <f>资源数比较!B14*单元面积!B$9</f>
-        <v>26920</v>
+        <v>20448</v>
       </c>
       <c r="C14" s="5">
         <f>资源数比较!C14*单元面积!C$9</f>
-        <v>86244.444444444453</v>
+        <v>56792</v>
       </c>
       <c r="D14" s="5">
         <f>资源数比较!D14*单元面积!D$9</f>
-        <v>23786.666666666668</v>
+        <v>18384</v>
       </c>
       <c r="E14" s="5">
         <f>资源数比较!E14*单元面积!E$9</f>
-        <v>35440</v>
+        <v>154944</v>
       </c>
       <c r="F14" s="5">
         <f>资源数比较!F14*单元面积!F$9</f>
-        <v>1240419.3405555519</v>
+        <v>409528</v>
       </c>
       <c r="G14" s="5">
         <f>资源数比较!G14*单元面积!G$9</f>
@@ -5328,7 +5324,7 @@
       </c>
       <c r="K14" s="23">
         <f t="shared" si="3"/>
-        <v>1575666.4516666629</v>
+        <v>822952</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="4"/>
@@ -5337,31 +5333,31 @@
       <c r="M14" s="19"/>
       <c r="N14" s="18">
         <f t="shared" si="5"/>
-        <v>3.1352071465522433E-18</v>
+        <v>6.4304843862611546E-18</v>
       </c>
       <c r="O14" s="18">
         <f t="shared" si="5"/>
-        <v>1.2540828586208973E-17</v>
+        <v>1.2860968772522309E-17</v>
       </c>
       <c r="P14" s="18">
         <f t="shared" si="5"/>
-        <v>6.8331099291190677E-3</v>
+        <v>1.0831841087746869E-2</v>
       </c>
       <c r="Q14" s="18">
         <f t="shared" si="5"/>
-        <v>2.5451802398540471E-2</v>
+        <v>0.22823226521701626</v>
       </c>
       <c r="R14" s="18">
         <f t="shared" si="5"/>
-        <v>0.89082697367798491</v>
+        <v>0.60323409173504139</v>
       </c>
       <c r="S14" s="18">
         <f t="shared" si="5"/>
-        <v>-3.6770098273286457E-2</v>
+        <v>-7.5417518452545643E-2</v>
       </c>
       <c r="T14" s="18">
         <f t="shared" si="5"/>
-        <v>6.8943934262412111E-3</v>
+        <v>1.4140784709852309E-2</v>
       </c>
       <c r="U14" s="18">
         <f t="shared" si="5"/>
@@ -5369,11 +5365,11 @@
       </c>
       <c r="V14" s="18">
         <f t="shared" si="5"/>
-        <v>0.10676381884140089</v>
+        <v>0.21897853570288892</v>
       </c>
       <c r="W14" s="16">
         <f t="shared" si="6"/>
-        <v>0.73642688661960998</v>
+        <v>0.68745135398743384</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.15">
@@ -5383,23 +5379,23 @@
       </c>
       <c r="B15" s="5">
         <f>资源数比较!B15*单元面积!B$9</f>
-        <v>26920</v>
+        <v>20448</v>
       </c>
       <c r="C15" s="5">
         <f>资源数比较!C15*单元面积!C$9</f>
-        <v>86244.444444444453</v>
+        <v>56792</v>
       </c>
       <c r="D15" s="5">
         <f>资源数比较!D15*单元面积!D$9</f>
-        <v>23786.666666666668</v>
+        <v>18384</v>
       </c>
       <c r="E15" s="5">
         <f>资源数比较!E15*单元面积!E$9</f>
-        <v>35440</v>
+        <v>154944</v>
       </c>
       <c r="F15" s="5">
         <f>资源数比较!F15*单元面积!F$9</f>
-        <v>1240419.3405555519</v>
+        <v>409528</v>
       </c>
       <c r="G15" s="5">
         <f>资源数比较!G15*单元面积!G$9</f>
@@ -5419,7 +5415,7 @@
       </c>
       <c r="K15" s="23">
         <f t="shared" si="3"/>
-        <v>1575666.4516666629</v>
+        <v>822952</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="4"/>
@@ -5428,31 +5424,31 @@
       <c r="M15" s="19"/>
       <c r="N15" s="18">
         <f t="shared" si="5"/>
-        <v>5.3235712171089723E-3</v>
+        <v>8.1137370711123341E-3</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="5"/>
-        <v>1.7055291310549711E-2</v>
+        <v>2.2534984142342122E-2</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" si="5"/>
-        <v>9.4078762271643454E-3</v>
+        <v>1.4589489663079925E-2</v>
       </c>
       <c r="Q15" s="18">
         <f t="shared" si="5"/>
-        <v>2.4529560689829009E-2</v>
+        <v>0.21518544936485248</v>
       </c>
       <c r="R15" s="18">
         <f t="shared" si="5"/>
-        <v>0.85854801058112551</v>
+        <v>0.56875043052644381</v>
       </c>
       <c r="S15" s="18">
         <f t="shared" si="5"/>
-        <v>-2.5312671463222455E-2</v>
+        <v>-5.0790216407588948E-2</v>
       </c>
       <c r="T15" s="18">
         <f t="shared" si="5"/>
-        <v>6.3281678658056138E-3</v>
+        <v>1.2697554101897237E-2</v>
       </c>
       <c r="U15" s="18">
         <f t="shared" si="5"/>
@@ -5460,11 +5456,11 @@
       </c>
       <c r="V15" s="18">
         <f t="shared" si="5"/>
-        <v>0.10412019357163937</v>
+        <v>0.20891857153786111</v>
       </c>
       <c r="W15" s="16">
         <f t="shared" si="6"/>
-        <v>0.80232016496470748</v>
+        <v>0.76558851549057538</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.15">
@@ -5483,23 +5479,23 @@
       </c>
       <c r="B18" s="5">
         <f>资源数比较!B18*单元面积!B$9</f>
-        <v>13460</v>
+        <v>10224</v>
       </c>
       <c r="C18" s="5">
         <f>资源数比较!C18*单元面积!C$9</f>
-        <v>43122.222222222226</v>
+        <v>28396</v>
       </c>
       <c r="D18" s="5">
         <f>资源数比较!D18*单元面积!D$9</f>
-        <v>23786.666666666668</v>
+        <v>18384</v>
       </c>
       <c r="E18" s="5">
         <f>资源数比较!E18*单元面积!E$9</f>
-        <v>2953.3333333333335</v>
+        <v>12912</v>
       </c>
       <c r="F18" s="5">
         <f>资源数比较!F18*单元面积!F$9</f>
-        <v>2170733.8459722158</v>
+        <v>716674</v>
       </c>
       <c r="G18" s="5">
         <f>资源数比较!G18*单元面积!G$9</f>
@@ -5519,7 +5515,7 @@
       </c>
       <c r="K18" s="23">
         <f t="shared" ref="K18:K23" si="7">SUM(B18:J18)</f>
-        <v>2341084.0681944378</v>
+        <v>873618</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" ref="L18:L23" si="8">K18/K$18</f>
@@ -5528,27 +5524,27 @@
       <c r="M18" s="10"/>
       <c r="N18" s="16">
         <f t="shared" ref="N18:V23" si="9">(B18-B2)/($K18-$K2)</f>
-        <v>-3.315913563344148E-3</v>
+        <v>-7.5098213831880489E-3</v>
       </c>
       <c r="O18" s="18">
         <f t="shared" si="9"/>
-        <v>-1.0623295805958924E-2</v>
+        <v>-2.0857676838517979E-2</v>
       </c>
       <c r="P18" s="18">
         <f t="shared" si="9"/>
-        <v>5.8599205517642005E-3</v>
+        <v>1.3503575538784144E-2</v>
       </c>
       <c r="Q18" s="18">
         <f t="shared" si="9"/>
-        <v>-7.2756300572632856E-4</v>
+        <v>-9.4842345167961747E-3</v>
       </c>
       <c r="R18" s="18">
         <f t="shared" si="9"/>
-        <v>0.99313898778925069</v>
+        <v>0.97763271978641086</v>
       </c>
       <c r="S18" s="18">
         <f t="shared" si="9"/>
-        <v>-1.5766602381428341E-2</v>
+        <v>-4.7009836514479181E-2</v>
       </c>
       <c r="T18" s="18">
         <f t="shared" si="9"/>
@@ -5556,15 +5552,15 @@
       </c>
       <c r="U18" s="18">
         <f t="shared" si="9"/>
-        <v>4.7299807144285024E-3</v>
+        <v>1.4102950954343753E-2</v>
       </c>
       <c r="V18" s="18">
         <f t="shared" si="9"/>
-        <v>2.6704485701014483E-2</v>
+        <v>7.9622322973442669E-2</v>
       </c>
       <c r="W18" s="16">
         <f>(K18-K2)/K18</f>
-        <v>0.86695160226504042</v>
+        <v>0.77918335015990969</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.15">
@@ -5574,23 +5570,23 @@
       </c>
       <c r="B19" s="5">
         <f>资源数比较!B19*单元面积!B$9</f>
-        <v>20190</v>
+        <v>15336</v>
       </c>
       <c r="C19" s="5">
         <f>资源数比较!C19*单元面积!C$9</f>
-        <v>64683.333333333343</v>
+        <v>42594</v>
       </c>
       <c r="D19" s="5">
         <f>资源数比较!D19*单元面积!D$9</f>
-        <v>35680</v>
+        <v>27576</v>
       </c>
       <c r="E19" s="5">
         <f>资源数比较!E19*单元面积!E$9</f>
-        <v>4430</v>
+        <v>19368</v>
       </c>
       <c r="F19" s="5">
         <f>资源数比较!F19*单元面积!F$9</f>
-        <v>3256100.7689583236</v>
+        <v>1075011</v>
       </c>
       <c r="G19" s="5">
         <f>资源数比较!G19*单元面积!G$9</f>
@@ -5610,11 +5606,11 @@
       </c>
       <c r="K19" s="23">
         <f t="shared" si="7"/>
-        <v>3511626.1022916571</v>
+        <v>1310427</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="8"/>
-        <v>1.5000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="M19" s="10"/>
       <c r="N19" s="16">
@@ -5627,7 +5623,7 @@
       </c>
       <c r="P19" s="18">
         <f t="shared" si="9"/>
-        <v>7.4329881220078341E-3</v>
+        <v>1.6450747621334999E-2</v>
       </c>
       <c r="Q19" s="18">
         <f t="shared" si="9"/>
@@ -5635,11 +5631,11 @@
       </c>
       <c r="R19" s="18">
         <f t="shared" si="9"/>
-        <v>0.96903260488980614</v>
+        <v>0.91615559343315922</v>
       </c>
       <c r="S19" s="18">
         <f t="shared" si="9"/>
-        <v>-9.9995355901450703E-3</v>
+        <v>-2.8634895772558747E-2</v>
       </c>
       <c r="T19" s="18">
         <f t="shared" si="9"/>
@@ -5647,15 +5643,15 @@
       </c>
       <c r="U19" s="18">
         <f t="shared" si="9"/>
-        <v>4.4997910155652812E-3</v>
+        <v>1.2885703097651436E-2</v>
       </c>
       <c r="V19" s="18">
         <f t="shared" si="9"/>
-        <v>2.9034151562765721E-2</v>
+        <v>8.3142851620412961E-2</v>
       </c>
       <c r="W19" s="16">
         <f t="shared" ref="W19:W23" si="10">(K19-K3)/K19</f>
-        <v>0.91130106817669376</v>
+        <v>0.85278890010660657</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.15">
@@ -5665,23 +5661,23 @@
       </c>
       <c r="B20" s="5">
         <f>资源数比较!B20*单元面积!B$9</f>
-        <v>26920</v>
+        <v>20448</v>
       </c>
       <c r="C20" s="5">
         <f>资源数比较!C20*单元面积!C$9</f>
-        <v>86244.444444444453</v>
+        <v>56792</v>
       </c>
       <c r="D20" s="5">
         <f>资源数比较!D20*单元面积!D$9</f>
-        <v>47573.333333333336</v>
+        <v>36768</v>
       </c>
       <c r="E20" s="5">
         <f>资源数比较!E20*单元面积!E$9</f>
-        <v>5906.666666666667</v>
+        <v>25824</v>
       </c>
       <c r="F20" s="5">
         <f>资源数比较!F20*单元面积!F$9</f>
-        <v>4341467.6919444315</v>
+        <v>1433348</v>
       </c>
       <c r="G20" s="5">
         <f>资源数比较!G20*单元面积!G$9</f>
@@ -5701,7 +5697,7 @@
       </c>
       <c r="K20" s="23">
         <f t="shared" si="7"/>
-        <v>4682168.1363888755</v>
+        <v>1747236</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" si="8"/>
@@ -5710,27 +5706,27 @@
       <c r="M20" s="10"/>
       <c r="N20" s="16">
         <f t="shared" si="9"/>
-        <v>1.5398024101031191E-3</v>
+        <v>3.2888840736560771E-3</v>
       </c>
       <c r="O20" s="18">
         <f t="shared" si="9"/>
-        <v>4.9331130539955461E-3</v>
+        <v>9.1345023626308655E-3</v>
       </c>
       <c r="P20" s="18">
         <f t="shared" si="9"/>
-        <v>8.1634695382584374E-3</v>
+        <v>1.7741445073384189E-2</v>
       </c>
       <c r="Q20" s="18">
         <f t="shared" si="9"/>
-        <v>3.3785659617418618E-4</v>
+        <v>4.1535672103919473E-3</v>
       </c>
       <c r="R20" s="18">
         <f t="shared" si="9"/>
-        <v>0.95783838472141392</v>
+        <v>0.88923203141476181</v>
       </c>
       <c r="S20" s="18">
         <f t="shared" si="9"/>
-        <v>-7.3214973437295411E-3</v>
+        <v>-2.0587693731806429E-2</v>
       </c>
       <c r="T20" s="18">
         <f t="shared" si="9"/>
@@ -5738,15 +5734,15 @@
       </c>
       <c r="U20" s="18">
         <f t="shared" si="9"/>
-        <v>4.3928984062377241E-3</v>
+        <v>1.2352616239083857E-2</v>
       </c>
       <c r="V20" s="18">
         <f t="shared" si="9"/>
-        <v>3.0115972617546703E-2</v>
+        <v>8.468464735789763E-2</v>
       </c>
       <c r="W20" s="16">
         <f t="shared" si="10"/>
-        <v>0.93347580113252016</v>
+        <v>0.88959167507995496</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
@@ -5756,23 +5752,23 @@
       </c>
       <c r="B21" s="5">
         <f>资源数比较!B21*单元面积!B$9</f>
-        <v>33650</v>
+        <v>25560</v>
       </c>
       <c r="C21" s="5">
         <f>资源数比较!C21*单元面积!C$9</f>
-        <v>107805.55555555556</v>
+        <v>70990</v>
       </c>
       <c r="D21" s="5">
         <f>资源数比较!D21*单元面积!D$9</f>
-        <v>59466.666666666672</v>
+        <v>45960</v>
       </c>
       <c r="E21" s="5">
         <f>资源数比较!E21*单元面积!E$9</f>
-        <v>7383.3333333333339</v>
+        <v>32280</v>
       </c>
       <c r="F21" s="5">
         <f>资源数比较!F21*单元面积!F$9</f>
-        <v>5426834.6149305394</v>
+        <v>1791685</v>
       </c>
       <c r="G21" s="5">
         <f>资源数比较!G21*单元面积!G$9</f>
@@ -5792,36 +5788,36 @@
       </c>
       <c r="K21" s="23">
         <f t="shared" si="7"/>
-        <v>5852710.1704860954</v>
+        <v>2184045</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="8"/>
-        <v>2.5000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="16">
         <f t="shared" si="9"/>
-        <v>-1.2868671171087341E-3</v>
+        <v>-2.8428014228688249E-3</v>
       </c>
       <c r="O21" s="18">
         <f t="shared" si="9"/>
-        <v>-4.1227763591703817E-3</v>
+        <v>-7.8955584119506216E-3</v>
       </c>
       <c r="P21" s="18">
         <f t="shared" si="9"/>
-        <v>6.8224990696047006E-3</v>
+        <v>1.5335111900827605E-2</v>
       </c>
       <c r="Q21" s="18">
         <f t="shared" si="9"/>
-        <v>-2.8235865917739921E-4</v>
+        <v>-3.5902046138578119E-3</v>
       </c>
       <c r="R21" s="18">
         <f t="shared" si="9"/>
-        <v>0.97838800902598666</v>
+        <v>0.93942742019886039</v>
       </c>
       <c r="S21" s="18">
         <f t="shared" si="9"/>
-        <v>-1.2237666492564485E-2</v>
+        <v>-3.5590628142332707E-2</v>
       </c>
       <c r="T21" s="18">
         <f t="shared" si="9"/>
@@ -5829,15 +5825,15 @@
       </c>
       <c r="U21" s="18">
         <f t="shared" si="9"/>
-        <v>4.5891249347116822E-3</v>
+        <v>1.3346485553374764E-2</v>
       </c>
       <c r="V21" s="18">
         <f t="shared" si="9"/>
-        <v>2.8130035597717776E-2</v>
+        <v>8.1810174937947192E-2</v>
       </c>
       <c r="W21" s="16">
         <f t="shared" si="10"/>
-        <v>0.89356128181203243</v>
+        <v>0.82334668012792778</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.15">
@@ -5847,23 +5843,23 @@
       </c>
       <c r="B22" s="5">
         <f>资源数比较!B22*单元面积!B$9</f>
-        <v>26920</v>
+        <v>20448</v>
       </c>
       <c r="C22" s="5">
         <f>资源数比较!C22*单元面积!C$9</f>
-        <v>86244.444444444453</v>
+        <v>56792</v>
       </c>
       <c r="D22" s="5">
         <f>资源数比较!D22*单元面积!D$9</f>
-        <v>47573.333333333336</v>
+        <v>36768</v>
       </c>
       <c r="E22" s="5">
         <f>资源数比较!E22*单元面积!E$9</f>
-        <v>5906.666666666667</v>
+        <v>25824</v>
       </c>
       <c r="F22" s="5">
         <f>资源数比较!F22*单元面积!F$9</f>
-        <v>4341467.6919444315</v>
+        <v>1433348</v>
       </c>
       <c r="G22" s="5">
         <f>资源数比较!G22*单元面积!G$9</f>
@@ -5883,7 +5879,7 @@
       </c>
       <c r="K22" s="23">
         <f t="shared" si="7"/>
-        <v>4682168.1363888755</v>
+        <v>1747236</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" si="8"/>
@@ -5892,27 +5888,27 @@
       <c r="M22" s="10"/>
       <c r="N22" s="16">
         <f t="shared" si="9"/>
-        <v>8.5261168494626E-19</v>
+        <v>2.4415580616527063E-18</v>
       </c>
       <c r="O22" s="18">
         <f t="shared" si="9"/>
-        <v>3.41044673978504E-18</v>
+        <v>4.8831161233054126E-18</v>
       </c>
       <c r="P22" s="18">
         <f t="shared" si="9"/>
-        <v>7.4329881220078367E-3</v>
+        <v>1.6450747621334999E-2</v>
       </c>
       <c r="Q22" s="18">
         <f t="shared" si="9"/>
-        <v>2.13152921236565E-19</v>
+        <v>2.4415580616527063E-18</v>
       </c>
       <c r="R22" s="18">
         <f t="shared" si="9"/>
-        <v>0.96903260488980625</v>
+        <v>0.91615559343315922</v>
       </c>
       <c r="S22" s="18">
         <f t="shared" si="9"/>
-        <v>-9.9995355901450703E-3</v>
+        <v>-2.8634895772558747E-2</v>
       </c>
       <c r="T22" s="18">
         <f t="shared" si="9"/>
@@ -5920,15 +5916,15 @@
       </c>
       <c r="U22" s="18">
         <f t="shared" si="9"/>
-        <v>4.4997910155652821E-3</v>
+        <v>1.2885703097651436E-2</v>
       </c>
       <c r="V22" s="18">
         <f t="shared" si="9"/>
-        <v>2.9034151562765721E-2</v>
+        <v>8.3142851620412947E-2</v>
       </c>
       <c r="W22" s="16">
         <f t="shared" si="10"/>
-        <v>0.91130106817669365</v>
+        <v>0.85278890010660657</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
@@ -5938,23 +5934,23 @@
       </c>
       <c r="B23" s="5">
         <f>资源数比较!B23*单元面积!B$9</f>
-        <v>20190</v>
+        <v>15336</v>
       </c>
       <c r="C23" s="5">
         <f>资源数比较!C23*单元面积!C$9</f>
-        <v>64683.333333333343</v>
+        <v>42594</v>
       </c>
       <c r="D23" s="5">
         <f>资源数比较!D23*单元面积!D$9</f>
-        <v>35680</v>
+        <v>27576</v>
       </c>
       <c r="E23" s="5">
         <f>资源数比较!E23*单元面积!E$9</f>
-        <v>4430</v>
+        <v>19368</v>
       </c>
       <c r="F23" s="5">
         <f>资源数比较!F23*单元面积!F$9</f>
-        <v>3256100.7689583236</v>
+        <v>1075011</v>
       </c>
       <c r="G23" s="5">
         <f>资源数比较!G23*单元面积!G$9</f>
@@ -5974,11 +5970,11 @@
       </c>
       <c r="K23" s="23">
         <f t="shared" si="7"/>
-        <v>3511626.1022916571</v>
+        <v>1310427</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" si="8"/>
-        <v>1.5000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="M23" s="10"/>
       <c r="N23" s="16">
@@ -5991,7 +5987,7 @@
       </c>
       <c r="P23" s="18">
         <f t="shared" si="9"/>
-        <v>7.4329881220078341E-3</v>
+        <v>1.6450747621334999E-2</v>
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="9"/>
@@ -5999,11 +5995,11 @@
       </c>
       <c r="R23" s="18">
         <f t="shared" si="9"/>
-        <v>0.96903260488980614</v>
+        <v>0.91615559343315922</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="9"/>
-        <v>-9.9995355901450703E-3</v>
+        <v>-2.8634895772558747E-2</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="9"/>
@@ -6011,15 +6007,15 @@
       </c>
       <c r="U23" s="18">
         <f t="shared" si="9"/>
-        <v>4.4997910155652812E-3</v>
+        <v>1.2885703097651436E-2</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="9"/>
-        <v>2.9034151562765721E-2</v>
+        <v>8.3142851620412961E-2</v>
       </c>
       <c r="W23" s="16">
         <f t="shared" si="10"/>
-        <v>0.91130106817669376</v>
+        <v>0.85278890010660657</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.15">
@@ -6035,23 +6031,23 @@
       </c>
       <c r="B26" s="5">
         <f>资源数比较!B26*单元面积!B$9</f>
-        <v>13460</v>
+        <v>10224</v>
       </c>
       <c r="C26" s="5">
         <f>资源数比较!C26*单元面积!C$9</f>
-        <v>43122.222222222226</v>
+        <v>28396</v>
       </c>
       <c r="D26" s="5">
         <f>资源数比较!D26*单元面积!D$9</f>
-        <v>23786.666666666668</v>
+        <v>18384</v>
       </c>
       <c r="E26" s="5">
         <f>资源数比较!E26*单元面积!E$9</f>
-        <v>5906.666666666667</v>
+        <v>25824</v>
       </c>
       <c r="F26" s="5">
         <f>资源数比较!F26*单元面积!F$9</f>
-        <v>620209.67027777596</v>
+        <v>204764</v>
       </c>
       <c r="G26" s="5">
         <f>资源数比较!G26*单元面积!G$9</f>
@@ -6071,7 +6067,7 @@
       </c>
       <c r="K26" s="23">
         <f t="shared" ref="K26:K31" si="11">SUM(B26:J26)</f>
-        <v>785970.82583333144</v>
+        <v>367077.6</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" ref="L26:L31" si="12">K26/K$26</f>
@@ -6080,27 +6076,27 @@
       <c r="M26" s="10"/>
       <c r="N26" s="16">
         <f t="shared" ref="N26:V31" si="13">(B26-B2)/($K26-$K2)</f>
-        <v>-1.4183549925791877E-2</v>
+        <v>-2.9350937771648329E-2</v>
       </c>
       <c r="O26" s="16">
         <f t="shared" si="13"/>
-        <v>-4.5440281708765302E-2</v>
+        <v>-8.1518899546530313E-2</v>
       </c>
       <c r="P26" s="16">
         <f t="shared" si="13"/>
-        <v>2.5065332409720368E-2</v>
+        <v>5.2776568857001459E-2</v>
       </c>
       <c r="Q26" s="16">
         <f t="shared" si="13"/>
-        <v>3.1120914398840033E-3</v>
+        <v>3.7067616246823476E-2</v>
       </c>
       <c r="R26" s="16">
         <f t="shared" si="13"/>
-        <v>0.9803240887270156</v>
+        <v>0.88175108888993525</v>
       </c>
       <c r="S26" s="16">
         <f t="shared" si="13"/>
-        <v>6.7440356259337308E-2</v>
+        <v>0.18373043988512255</v>
       </c>
       <c r="T26" s="16">
         <f t="shared" si="13"/>
@@ -6112,11 +6108,11 @@
       </c>
       <c r="V26" s="16">
         <f t="shared" si="13"/>
-        <v>-1.6318037201399904E-2</v>
+        <v>-4.4455876560703975E-2</v>
       </c>
       <c r="W26" s="16">
         <f>(K26-K2)/K26</f>
-        <v>0.60370350399982797</v>
+        <v>0.47447242762838154</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.15">
@@ -6126,23 +6122,23 @@
       </c>
       <c r="B27" s="5">
         <f>资源数比较!B27*单元面积!B$9</f>
-        <v>20190</v>
+        <v>15336</v>
       </c>
       <c r="C27" s="5">
         <f>资源数比较!C27*单元面积!C$9</f>
-        <v>64683.333333333343</v>
+        <v>42594</v>
       </c>
       <c r="D27" s="5">
         <f>资源数比较!D27*单元面积!D$9</f>
-        <v>35680</v>
+        <v>27576</v>
       </c>
       <c r="E27" s="5">
         <f>资源数比较!E27*单元面积!E$9</f>
-        <v>8860</v>
+        <v>38736</v>
       </c>
       <c r="F27" s="5">
         <f>资源数比较!F27*单元面积!F$9</f>
-        <v>930314.50541666395</v>
+        <v>307146</v>
       </c>
       <c r="G27" s="5">
         <f>资源数比较!G27*单元面积!G$9</f>
@@ -6162,11 +6158,11 @@
       </c>
       <c r="K27" s="23">
         <f t="shared" si="11"/>
-        <v>1178956.2387499972</v>
+        <v>550616.4</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="12"/>
-        <v>1.5</v>
+        <v>1.5000000000000002</v>
       </c>
       <c r="M27" s="10"/>
       <c r="N27" s="16">
@@ -6179,19 +6175,19 @@
       </c>
       <c r="P27" s="16">
         <f t="shared" si="13"/>
-        <v>2.7420460204810572E-2</v>
+        <v>5.1394018009152741E-2</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="13"/>
-        <v>5.106753308883584E-3</v>
+        <v>5.4144872758989902E-2</v>
       </c>
       <c r="R27" s="16">
         <f t="shared" si="13"/>
-        <v>0.89369576351372149</v>
+        <v>0.71554372712862757</v>
       </c>
       <c r="S27" s="16">
         <f t="shared" si="13"/>
-        <v>7.3777022972584511E-2</v>
+        <v>0.17891738210322974</v>
       </c>
       <c r="T27" s="16">
         <f t="shared" si="13"/>
@@ -6207,7 +6203,7 @@
       </c>
       <c r="W27" s="16">
         <f t="shared" ref="W27:W31" si="14">(K27-K3)/K27</f>
-        <v>0.73580233599988532</v>
+        <v>0.6496482850855877</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.15">
@@ -6217,23 +6213,23 @@
       </c>
       <c r="B28" s="5">
         <f>资源数比较!B28*单元面积!B$9</f>
-        <v>26920</v>
+        <v>20448</v>
       </c>
       <c r="C28" s="5">
         <f>资源数比较!C28*单元面积!C$9</f>
-        <v>86244.444444444453</v>
+        <v>56792</v>
       </c>
       <c r="D28" s="5">
         <f>资源数比较!D28*单元面积!D$9</f>
-        <v>47573.333333333336</v>
+        <v>36768</v>
       </c>
       <c r="E28" s="5">
         <f>资源数比较!E28*单元面积!E$9</f>
-        <v>11813.333333333334</v>
+        <v>51648</v>
       </c>
       <c r="F28" s="5">
         <f>资源数比较!F28*单元面积!F$9</f>
-        <v>1240419.3405555519</v>
+        <v>409528</v>
       </c>
       <c r="G28" s="5">
         <f>资源数比较!G28*单元面积!G$9</f>
@@ -6253,7 +6249,7 @@
       </c>
       <c r="K28" s="23">
         <f t="shared" si="11"/>
-        <v>1571941.6516666629</v>
+        <v>734155.2</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="12"/>
@@ -6262,27 +6258,27 @@
       <c r="M28" s="10"/>
       <c r="N28" s="16">
         <f t="shared" si="13"/>
-        <v>5.3393029122906846E-3</v>
+        <v>9.444876985650514E-3</v>
       </c>
       <c r="O28" s="16">
         <f t="shared" si="13"/>
-        <v>1.7105691433548079E-2</v>
+        <v>2.623207422579538E-2</v>
       </c>
       <c r="P28" s="16">
         <f t="shared" si="13"/>
-        <v>2.8307032378979437E-2</v>
+        <v>5.094912514794573E-2</v>
       </c>
       <c r="Q28" s="16">
         <f t="shared" si="13"/>
-        <v>5.8576304857473338E-3</v>
+        <v>5.9640185660563103E-2</v>
       </c>
       <c r="R28" s="16">
         <f t="shared" si="13"/>
-        <v>0.86108510740025335</v>
+        <v>0.66205964092469638</v>
       </c>
       <c r="S28" s="16">
         <f t="shared" si="13"/>
-        <v>7.616241895689535E-2</v>
+        <v>0.17736858189015048</v>
       </c>
       <c r="T28" s="16">
         <f t="shared" si="13"/>
@@ -6294,11 +6290,11 @@
       </c>
       <c r="V28" s="16">
         <f t="shared" si="13"/>
-        <v>6.1428164322859299E-3</v>
+        <v>1.4305515165198511E-2</v>
       </c>
       <c r="W28" s="16">
         <f t="shared" si="14"/>
-        <v>0.80185175199991399</v>
+        <v>0.73723621381419069</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.15">
@@ -6308,23 +6304,23 @@
       </c>
       <c r="B29" s="5">
         <f>资源数比较!B29*单元面积!B$9</f>
-        <v>33650</v>
+        <v>25560</v>
       </c>
       <c r="C29" s="5">
         <f>资源数比较!C29*单元面积!C$9</f>
-        <v>107805.55555555556</v>
+        <v>70990</v>
       </c>
       <c r="D29" s="5">
         <f>资源数比较!D29*单元面积!D$9</f>
-        <v>59466.666666666672</v>
+        <v>45960</v>
       </c>
       <c r="E29" s="5">
         <f>资源数比较!E29*单元面积!E$9</f>
-        <v>14766.666666666668</v>
+        <v>64560</v>
       </c>
       <c r="F29" s="5">
         <f>资源数比较!F29*单元面积!F$9</f>
-        <v>1550524.17569444</v>
+        <v>511910</v>
       </c>
       <c r="G29" s="5">
         <f>资源数比较!G29*单元面积!G$9</f>
@@ -6344,36 +6340,36 @@
       </c>
       <c r="K29" s="23">
         <f t="shared" si="11"/>
-        <v>1964927.064583329</v>
+        <v>917694</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="12"/>
-        <v>2.5000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="M29" s="10"/>
       <c r="N29" s="16">
         <f t="shared" si="13"/>
-        <v>-5.0150074055211906E-3</v>
+        <v>-9.6112772319521585E-3</v>
       </c>
       <c r="O29" s="16">
         <f t="shared" si="13"/>
-        <v>-1.6066735793980314E-2</v>
+        <v>-2.6694232030371037E-2</v>
       </c>
       <c r="P29" s="16">
         <f t="shared" si="13"/>
-        <v>2.6587736141009819E-2</v>
+        <v>5.1846749011798261E-2</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" si="13"/>
-        <v>4.4014824777531217E-3</v>
+        <v>4.8552743199908557E-2</v>
       </c>
       <c r="R29" s="16">
         <f t="shared" si="13"/>
-        <v>0.92432573236817306</v>
+        <v>0.76997009824861173</v>
       </c>
       <c r="S29" s="16">
         <f t="shared" si="13"/>
-        <v>7.1536509796438982E-2</v>
+        <v>0.18049346914464146</v>
       </c>
       <c r="T29" s="16">
         <f t="shared" si="13"/>
@@ -6385,11 +6381,11 @@
       </c>
       <c r="V29" s="16">
         <f t="shared" si="13"/>
-        <v>-5.7697175838736245E-3</v>
+        <v>-1.4557550342636776E-2</v>
       </c>
       <c r="W29" s="16">
         <f t="shared" si="14"/>
-        <v>0.68296280319986247</v>
+        <v>0.57957794210270519</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.15">
@@ -6399,23 +6395,23 @@
       </c>
       <c r="B30" s="5">
         <f>资源数比较!B30*单元面积!B$9</f>
-        <v>26920</v>
+        <v>20448</v>
       </c>
       <c r="C30" s="5">
         <f>资源数比较!C30*单元面积!C$9</f>
-        <v>86244.444444444453</v>
+        <v>56792</v>
       </c>
       <c r="D30" s="5">
         <f>资源数比较!D30*单元面积!D$9</f>
-        <v>47573.333333333336</v>
+        <v>36768</v>
       </c>
       <c r="E30" s="5">
         <f>资源数比较!E30*单元面积!E$9</f>
-        <v>11813.333333333334</v>
+        <v>51648</v>
       </c>
       <c r="F30" s="5">
         <f>资源数比较!F30*单元面积!F$9</f>
-        <v>1240419.3405555519</v>
+        <v>409528</v>
       </c>
       <c r="G30" s="5">
         <f>资源数比较!G30*单元面积!G$9</f>
@@ -6435,7 +6431,7 @@
       </c>
       <c r="K30" s="23">
         <f t="shared" si="11"/>
-        <v>1571941.6516666629</v>
+        <v>734155.2</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="12"/>
@@ -6444,27 +6440,27 @@
       <c r="M30" s="10"/>
       <c r="N30" s="16">
         <f t="shared" si="13"/>
-        <v>3.1453036643505572E-18</v>
+        <v>7.627706769279843E-18</v>
       </c>
       <c r="O30" s="16">
         <f t="shared" si="13"/>
-        <v>1.2581214657402229E-17</v>
+        <v>1.5255413538559686E-17</v>
       </c>
       <c r="P30" s="16">
         <f t="shared" si="13"/>
-        <v>2.7420460204810575E-2</v>
+        <v>5.1394018009152748E-2</v>
       </c>
       <c r="Q30" s="16">
         <f t="shared" si="13"/>
-        <v>5.1067533088835848E-3</v>
+        <v>5.4144872758989909E-2</v>
       </c>
       <c r="R30" s="16">
         <f t="shared" si="13"/>
-        <v>0.89369576351372149</v>
+        <v>0.71554372712862779</v>
       </c>
       <c r="S30" s="16">
         <f t="shared" si="13"/>
-        <v>7.3777022972584511E-2</v>
+        <v>0.17891738210322977</v>
       </c>
       <c r="T30" s="16">
         <f t="shared" si="13"/>
@@ -6480,7 +6476,7 @@
       </c>
       <c r="W30" s="16">
         <f t="shared" si="14"/>
-        <v>0.73580233599988543</v>
+        <v>0.6496482850855877</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.15">
@@ -6490,23 +6486,23 @@
       </c>
       <c r="B31" s="5">
         <f>资源数比较!B31*单元面积!B$9</f>
-        <v>20190</v>
+        <v>15336</v>
       </c>
       <c r="C31" s="5">
         <f>资源数比较!C31*单元面积!C$9</f>
-        <v>64683.333333333343</v>
+        <v>42594</v>
       </c>
       <c r="D31" s="5">
         <f>资源数比较!D31*单元面积!D$9</f>
-        <v>35680</v>
+        <v>27576</v>
       </c>
       <c r="E31" s="5">
         <f>资源数比较!E31*单元面积!E$9</f>
-        <v>8860</v>
+        <v>38736</v>
       </c>
       <c r="F31" s="5">
         <f>资源数比较!F31*单元面积!F$9</f>
-        <v>930314.50541666395</v>
+        <v>307146</v>
       </c>
       <c r="G31" s="5">
         <f>资源数比较!G31*单元面积!G$9</f>
@@ -6526,11 +6522,11 @@
       </c>
       <c r="K31" s="23">
         <f t="shared" si="11"/>
-        <v>1178956.2387499972</v>
+        <v>550616.4</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="12"/>
-        <v>1.5</v>
+        <v>1.5000000000000002</v>
       </c>
       <c r="M31" s="10"/>
       <c r="N31" s="16">
@@ -6543,19 +6539,19 @@
       </c>
       <c r="P31" s="16">
         <f t="shared" si="13"/>
-        <v>2.7420460204810572E-2</v>
+        <v>5.1394018009152741E-2</v>
       </c>
       <c r="Q31" s="16">
         <f t="shared" si="13"/>
-        <v>5.106753308883584E-3</v>
+        <v>5.4144872758989902E-2</v>
       </c>
       <c r="R31" s="16">
         <f t="shared" si="13"/>
-        <v>0.89369576351372149</v>
+        <v>0.71554372712862757</v>
       </c>
       <c r="S31" s="16">
         <f t="shared" si="13"/>
-        <v>7.3777022972584511E-2</v>
+        <v>0.17891738210322974</v>
       </c>
       <c r="T31" s="16">
         <f t="shared" si="13"/>
@@ -6571,7 +6567,7 @@
       </c>
       <c r="W31" s="16">
         <f t="shared" si="14"/>
-        <v>0.73580233599988532</v>
+        <v>0.6496482850855877</v>
       </c>
     </row>
   </sheetData>

--- a/对比/架构优化_160220.xlsx
+++ b/对比/架构优化_160220.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="算法分析" sheetId="1" r:id="rId1"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LUT256*8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -189,6 +185,10 @@
   </si>
   <si>
     <t>TH/GE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*LUT256*8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +749,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G11" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -761,7 +761,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -949,13 +949,15 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
-    <col min="2" max="9" width="9" style="2"/>
+    <col min="2" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="11.75" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9" style="2"/>
     <col min="10" max="11" width="11.625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
@@ -980,7 +982,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f>算法分析!F1</f>
-        <v>LUT256*8</v>
+        <v>4*LUT256*8</v>
       </c>
       <c r="G1" s="8" t="str">
         <f>算法分析!G1</f>
@@ -1083,7 +1085,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7">
         <v>1682.5</v>
@@ -1216,7 +1218,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5">
         <v>1278</v>
@@ -1235,7 +1237,7 @@
         <v>12797.75</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="C9:K9" si="6">G4</f>
+        <f t="shared" ref="G9:K9" si="6">G4</f>
         <v>8000</v>
       </c>
       <c r="H9" s="7">
@@ -1271,14 +1273,16 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="3" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="11.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1302,7 +1306,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f>算法分析!F1</f>
-        <v>LUT256*8</v>
+        <v>4*LUT256*8</v>
       </c>
       <c r="H1" s="8" t="str">
         <f>算法分析!G1</f>
@@ -1679,12 +1683,14 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1707,7 +1713,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f>算法分析!F1</f>
-        <v>LUT256*8</v>
+        <v>4*LUT256*8</v>
       </c>
       <c r="G1" s="8" t="str">
         <f>算法分析!G1</f>
@@ -1725,7 +1731,7 @@
         <v>26</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -2089,7 +2095,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2484,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,7 +2527,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f>算法分析!F1</f>
-        <v>LUT256*8</v>
+        <v>4*LUT256*8</v>
       </c>
       <c r="G1" s="8" t="str">
         <f>算法分析!G1</f>
@@ -2556,7 +2562,7 @@
       </c>
       <c r="O1" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>LUT256*8</v>
+        <v>4*LUT256*8</v>
       </c>
       <c r="P1" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3048,7 +3054,7 @@
       </c>
       <c r="O9" s="8" t="str">
         <f>资源数比较!F1</f>
-        <v>LUT256*8</v>
+        <v>4*LUT256*8</v>
       </c>
       <c r="P9" s="8" t="str">
         <f>资源数比较!G1</f>
@@ -4500,18 +4506,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.75" style="2" customWidth="1"/>
-    <col min="2" max="9" width="9" style="2"/>
+    <col min="2" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9" style="2"/>
     <col min="10" max="10" width="15" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.25" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.625" style="2" customWidth="1"/>
-    <col min="13" max="21" width="9" style="2"/>
+    <col min="13" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="13.625" style="2" customWidth="1"/>
+    <col min="19" max="21" width="9" style="2"/>
     <col min="22" max="22" width="12.75" style="2" customWidth="1"/>
     <col min="23" max="23" width="10.875" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9" style="2"/>
@@ -4540,7 +4550,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f>资源数比较!F1</f>
-        <v>LUT256*8</v>
+        <v>4*LUT256*8</v>
       </c>
       <c r="G1" s="8" t="str">
         <f>资源数比较!G1</f>
@@ -4895,7 +4905,7 @@
       </c>
       <c r="R9" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>LUT256*8</v>
+        <v>4*LUT256*8</v>
       </c>
       <c r="S9" s="8" t="str">
         <f t="shared" si="2"/>

--- a/对比/架构优化_160220.xlsx
+++ b/对比/架构优化_160220.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="算法分析" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="架构面积" sheetId="7" r:id="rId4"/>
     <sheet name="映射分析" sheetId="5" r:id="rId5"/>
     <sheet name="资源数比较" sheetId="6" r:id="rId6"/>
-    <sheet name="面积比较" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="面积比较" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2490,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,27 +3116,27 @@
         <v>2</v>
       </c>
       <c r="K10" s="16">
-        <f t="shared" ref="K10:S15" si="1">IF(B10&lt;&gt;0,(B2-B10)/B10,"")</f>
-        <v>0.5</v>
+        <f>IF(资源数比较!B2&lt;&gt;0,算法分析!B2/资源数比较!B10,"")</f>
+        <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>IF(资源数比较!C2&lt;&gt;0,算法分析!C2/资源数比较!C10,"")</f>
+        <v>0</v>
       </c>
       <c r="M10" s="16">
-        <f t="shared" si="1"/>
+        <f>IF(资源数比较!D2&lt;&gt;0,算法分析!D2/资源数比较!D10,"")</f>
         <v>0</v>
       </c>
       <c r="N10" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.75</v>
+        <f>IF(资源数比较!E2&lt;&gt;0,算法分析!E2/资源数比较!E10,"")</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O10" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.75</v>
+        <f>IF(资源数比较!F2&lt;&gt;0,算法分析!F2/资源数比较!F10,"")</f>
+        <v>0.25</v>
       </c>
       <c r="P10" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K10:S15" si="1">IF(G10&lt;&gt;0,(G2-G10)/G10,"")</f>
         <v/>
       </c>
       <c r="Q10" s="16">
@@ -3193,24 +3194,24 @@
         <v>4</v>
       </c>
       <c r="K11" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <f>IF(资源数比较!B3&lt;&gt;0,算法分析!B3/资源数比较!B11,"")</f>
+        <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <f>IF(资源数比较!C3&lt;&gt;0,算法分析!C3/资源数比较!C11,"")</f>
+        <v>0</v>
       </c>
       <c r="M11" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
+        <f>IF(资源数比较!D3&lt;&gt;0,算法分析!D3/资源数比较!D11,"")</f>
+        <v>0.25</v>
       </c>
       <c r="N11" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.875</v>
+        <f>IF(资源数比较!E3&lt;&gt;0,算法分析!E3/资源数比较!E11,"")</f>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="O11" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.875</v>
+        <f>IF(资源数比较!F3&lt;&gt;0,算法分析!F3/资源数比较!F11,"")</f>
+        <v>6.25E-2</v>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="1"/>
@@ -3271,24 +3272,24 @@
         <v>4</v>
       </c>
       <c r="K12" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <f>IF(资源数比较!B4&lt;&gt;0,算法分析!B4/资源数比较!B12,"")</f>
+        <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <f>IF(资源数比较!C4&lt;&gt;0,算法分析!C4/资源数比较!C12,"")</f>
+        <v>0.25</v>
       </c>
       <c r="M12" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
+        <f>IF(资源数比较!D4&lt;&gt;0,算法分析!D4/资源数比较!D12,"")</f>
+        <v>0</v>
       </c>
       <c r="N12" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.875</v>
+        <f>IF(资源数比较!E4&lt;&gt;0,算法分析!E4/资源数比较!E12,"")</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.875</v>
+        <f>IF(资源数比较!F4&lt;&gt;0,算法分析!F4/资源数比较!F12,"")</f>
+        <v>3.125E-2</v>
       </c>
       <c r="P12" s="16" t="str">
         <f t="shared" si="1"/>
@@ -3349,24 +3350,24 @@
         <v>6</v>
       </c>
       <c r="K13" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(资源数比较!B5&lt;&gt;0,算法分析!B5/资源数比较!B13,"")</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(资源数比较!C5&lt;&gt;0,算法分析!C5/资源数比较!C13,"")</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.33333333333333331</v>
+        <f>IF(资源数比较!D5&lt;&gt;0,算法分析!D5/资源数比较!D13,"")</f>
+        <v>0</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.83333333333333337</v>
+        <f>IF(资源数比较!E5&lt;&gt;0,算法分析!E5/资源数比较!E13,"")</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="O13" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.83333333333333337</v>
+        <f>IF(资源数比较!F5&lt;&gt;0,算法分析!F5/资源数比较!F13,"")</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="1"/>
@@ -3427,24 +3428,24 @@
         <v>4</v>
       </c>
       <c r="K14" s="16">
-        <f t="shared" si="1"/>
-        <v>-1.1102230246251565E-16</v>
+        <f>IF(资源数比较!B6&lt;&gt;0,算法分析!B6/资源数比较!B14,"")</f>
+        <v>0.125</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="1"/>
-        <v>-1.1102230246251565E-16</v>
+        <f>IF(资源数比较!C6&lt;&gt;0,算法分析!C6/资源数比较!C14,"")</f>
+        <v>0.125</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.33333333333333337</v>
+        <f>IF(资源数比较!D6&lt;&gt;0,算法分析!D6/资源数比较!D14,"")</f>
+        <v>0</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.83333333333333337</v>
+        <f>IF(资源数比较!E6&lt;&gt;0,算法分析!E6/资源数比较!E14,"")</f>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.83333333333333337</v>
+        <f>IF(资源数比较!F6&lt;&gt;0,算法分析!F6/资源数比较!F14,"")</f>
+        <v>0</v>
       </c>
       <c r="P14" s="16" t="str">
         <f t="shared" si="1"/>
@@ -3505,24 +3506,24 @@
         <v>4</v>
       </c>
       <c r="K15" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <f>IF(资源数比较!B7&lt;&gt;0,算法分析!B7/资源数比较!B15,"")</f>
+        <v>0.1875</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <f>IF(资源数比较!C7&lt;&gt;0,算法分析!C7/资源数比较!C15,"")</f>
+        <v>0</v>
       </c>
       <c r="M15" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
+        <f>IF(资源数比较!D7&lt;&gt;0,算法分析!D7/资源数比较!D15,"")</f>
+        <v>0</v>
       </c>
       <c r="N15" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.875</v>
+        <f>IF(资源数比较!E7&lt;&gt;0,算法分析!E7/资源数比较!E15,"")</f>
+        <v>3.125E-2</v>
       </c>
       <c r="O15" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.875</v>
+        <f>IF(资源数比较!F7&lt;&gt;0,算法分析!F7/资源数比较!F15,"")</f>
+        <v>3.125E-2</v>
       </c>
       <c r="P15" s="16" t="str">
         <f t="shared" si="1"/>
@@ -3592,27 +3593,27 @@
         <v>2</v>
       </c>
       <c r="K18" s="17">
-        <f t="shared" ref="K18:S23" si="2">IF(B18&lt;&gt;0,(B2-B18)/B18,"")</f>
+        <f>IF(资源数比较!B2&lt;&gt;0,算法分析!B2/资源数比较!B18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
+        <f>IF(资源数比较!C2&lt;&gt;0,算法分析!C2/资源数比较!C18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <f>IF(资源数比较!D2&lt;&gt;0,算法分析!D2/资源数比较!D18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="17">
+        <f>IF(资源数比较!E2&lt;&gt;0,算法分析!E2/资源数比较!E18,"")</f>
         <v>0.5</v>
       </c>
-      <c r="L18" s="17">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="M18" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.5</v>
-      </c>
-      <c r="N18" s="17">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
       <c r="O18" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.9285714285714286</v>
+        <f>IF(资源数比较!F2&lt;&gt;0,算法分析!F2/资源数比较!F18,"")</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="P18" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K18:S23" si="2">IF(G18&lt;&gt;0,(G2-G18)/G18,"")</f>
         <v/>
       </c>
       <c r="Q18" s="17" t="str">
@@ -3670,24 +3671,24 @@
         <v>3</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" si="2"/>
+        <f>IF(资源数比较!B3&lt;&gt;0,算法分析!B3/资源数比较!B19,"")</f>
         <v>0</v>
       </c>
       <c r="L19" s="17">
-        <f t="shared" si="2"/>
+        <f>IF(资源数比较!C3&lt;&gt;0,算法分析!C3/资源数比较!C19,"")</f>
         <v>0</v>
       </c>
       <c r="M19" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.66666666666666663</v>
+        <f>IF(资源数比较!D3&lt;&gt;0,算法分析!D3/资源数比较!D19,"")</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N19" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(资源数比较!E3&lt;&gt;0,算法分析!E3/资源数比较!E19,"")</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O19" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.95238095238095233</v>
+        <f>IF(资源数比较!F3&lt;&gt;0,算法分析!F3/资源数比较!F19,"")</f>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="P19" s="17" t="str">
         <f t="shared" si="2"/>
@@ -3748,24 +3749,24 @@
         <v>4</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.25</v>
+        <f>IF(资源数比较!B4&lt;&gt;0,算法分析!B4/资源数比较!B20,"")</f>
+        <v>0</v>
       </c>
       <c r="L20" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.25</v>
+        <f>IF(资源数比较!C4&lt;&gt;0,算法分析!C4/资源数比较!C20,"")</f>
+        <v>0.25</v>
       </c>
       <c r="M20" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.75</v>
+        <f>IF(资源数比较!D4&lt;&gt;0,算法分析!D4/资源数比较!D20,"")</f>
+        <v>0</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.25</v>
+        <f>IF(资源数比较!E4&lt;&gt;0,算法分析!E4/资源数比较!E20,"")</f>
+        <v>0.25</v>
       </c>
       <c r="O20" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.9642857142857143</v>
+        <f>IF(资源数比较!F4&lt;&gt;0,算法分析!F4/资源数比较!F20,"")</f>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="P20" s="17" t="str">
         <f t="shared" si="2"/>
@@ -3826,24 +3827,24 @@
         <v>5</v>
       </c>
       <c r="K21" s="17">
-        <f t="shared" si="2"/>
+        <f>IF(资源数比较!B5&lt;&gt;0,算法分析!B5/资源数比较!B21,"")</f>
         <v>0.2</v>
       </c>
       <c r="L21" s="17">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
+        <f>IF(资源数比较!C5&lt;&gt;0,算法分析!C5/资源数比较!C21,"")</f>
+        <v>0.05</v>
       </c>
       <c r="M21" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.6</v>
+        <f>IF(资源数比较!D5&lt;&gt;0,算法分析!D5/资源数比较!D21,"")</f>
+        <v>0</v>
       </c>
       <c r="N21" s="17">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
+        <f>IF(资源数比较!E5&lt;&gt;0,算法分析!E5/资源数比较!E21,"")</f>
+        <v>0.3</v>
       </c>
       <c r="O21" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.94285714285714284</v>
+        <f>IF(资源数比较!F5&lt;&gt;0,算法分析!F5/资源数比较!F21,"")</f>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="P21" s="17" t="str">
         <f t="shared" si="2"/>
@@ -3904,24 +3905,24 @@
         <v>4</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="2"/>
-        <v>-1.1102230246251565E-16</v>
+        <f>IF(资源数比较!B6&lt;&gt;0,算法分析!B6/资源数比较!B22,"")</f>
+        <v>0.125</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" si="2"/>
-        <v>-1.1102230246251565E-16</v>
+        <f>IF(资源数比较!C6&lt;&gt;0,算法分析!C6/资源数比较!C22,"")</f>
+        <v>0.125</v>
       </c>
       <c r="M22" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.66666666666666674</v>
+        <f>IF(资源数比较!D6&lt;&gt;0,算法分析!D6/资源数比较!D22,"")</f>
+        <v>0</v>
       </c>
       <c r="N22" s="17">
-        <f t="shared" si="2"/>
-        <v>-1.1102230246251565E-16</v>
+        <f>IF(资源数比较!E6&lt;&gt;0,算法分析!E6/资源数比较!E22,"")</f>
+        <v>0.125</v>
       </c>
       <c r="O22" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.95238095238095244</v>
+        <f>IF(资源数比较!F6&lt;&gt;0,算法分析!F6/资源数比较!F22,"")</f>
+        <v>0</v>
       </c>
       <c r="P22" s="17" t="str">
         <f t="shared" si="2"/>
@@ -3982,24 +3983,24 @@
         <v>3</v>
       </c>
       <c r="K23" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(资源数比较!B7&lt;&gt;0,算法分析!B7/资源数比较!B23,"")</f>
+        <v>0.25</v>
       </c>
       <c r="L23" s="17">
-        <f t="shared" si="2"/>
+        <f>IF(资源数比较!C7&lt;&gt;0,算法分析!C7/资源数比较!C23,"")</f>
         <v>0</v>
       </c>
       <c r="M23" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.66666666666666663</v>
+        <f>IF(资源数比较!D7&lt;&gt;0,算法分析!D7/资源数比较!D23,"")</f>
+        <v>0</v>
       </c>
       <c r="N23" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(资源数比较!E7&lt;&gt;0,算法分析!E7/资源数比较!E23,"")</f>
+        <v>0.25</v>
       </c>
       <c r="O23" s="17">
-        <f t="shared" si="2"/>
-        <v>-0.95238095238095233</v>
+        <f>IF(资源数比较!F7&lt;&gt;0,算法分析!F7/资源数比较!F23,"")</f>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="P23" s="17" t="str">
         <f t="shared" si="2"/>
@@ -4069,31 +4070,31 @@
         <v>2</v>
       </c>
       <c r="K26" s="17">
-        <f t="shared" ref="K26:S31" si="3">IF(B26&lt;&gt;0,(B2-B26)/B26,"")</f>
+        <f>IF(资源数比较!B2&lt;&gt;0,算法分析!B2/资源数比较!B26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <f>IF(资源数比较!C2&lt;&gt;0,算法分析!C2/资源数比较!C26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <f>IF(资源数比较!D2&lt;&gt;0,算法分析!D2/资源数比较!D26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
+        <f>IF(资源数比较!E2&lt;&gt;0,算法分析!E2/资源数比较!E26,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O26" s="17">
+        <f>IF(资源数比较!F2&lt;&gt;0,算法分析!F2/资源数比较!F26,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P26" s="17">
+        <f>IF(资源数比较!G2&lt;&gt;0,算法分析!G2/资源数比较!G26,"")</f>
         <v>0.5</v>
       </c>
-      <c r="L26" s="17">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="M26" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.5</v>
-      </c>
-      <c r="N26" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.25</v>
-      </c>
-      <c r="O26" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.75</v>
-      </c>
-      <c r="P26" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.5</v>
-      </c>
       <c r="Q26" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K26:S31" si="3">IF(H26&lt;&gt;0,(H2-H26)/H26,"")</f>
         <v/>
       </c>
       <c r="R26" s="17" t="str">
@@ -4147,28 +4148,28 @@
         <v>3</v>
       </c>
       <c r="K27" s="17">
-        <f t="shared" si="3"/>
+        <f>IF(资源数比较!B3&lt;&gt;0,算法分析!B3/资源数比较!B27,"")</f>
         <v>0</v>
       </c>
       <c r="L27" s="17">
-        <f t="shared" si="3"/>
+        <f>IF(资源数比较!C3&lt;&gt;0,算法分析!C3/资源数比较!C27,"")</f>
         <v>0</v>
       </c>
       <c r="M27" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.66666666666666663</v>
+        <f>IF(资源数比较!D3&lt;&gt;0,算法分析!D3/资源数比较!D27,"")</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N27" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.5</v>
+        <f>IF(资源数比较!E3&lt;&gt;0,算法分析!E3/资源数比较!E27,"")</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O27" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.83333333333333337</v>
+        <f>IF(资源数比较!F3&lt;&gt;0,算法分析!F3/资源数比较!F27,"")</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="P27" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.66666666666666663</v>
+        <f>IF(资源数比较!G3&lt;&gt;0,算法分析!G3/资源数比较!G27,"")</f>
+        <v>0</v>
       </c>
       <c r="Q27" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4225,28 +4226,28 @@
         <v>4</v>
       </c>
       <c r="K28" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.25</v>
+        <f>IF(资源数比较!B4&lt;&gt;0,算法分析!B4/资源数比较!B28,"")</f>
+        <v>0</v>
       </c>
       <c r="L28" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.25</v>
+        <f>IF(资源数比较!C4&lt;&gt;0,算法分析!C4/资源数比较!C28,"")</f>
+        <v>0.25</v>
       </c>
       <c r="M28" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.75</v>
+        <f>IF(资源数比较!D4&lt;&gt;0,算法分析!D4/资源数比较!D28,"")</f>
+        <v>0</v>
       </c>
       <c r="N28" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.625</v>
+        <f>IF(资源数比较!E4&lt;&gt;0,算法分析!E4/资源数比较!E28,"")</f>
+        <v>0.125</v>
       </c>
       <c r="O28" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.875</v>
+        <f>IF(资源数比较!F4&lt;&gt;0,算法分析!F4/资源数比较!F28,"")</f>
+        <v>3.125E-2</v>
       </c>
       <c r="P28" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.75</v>
+        <f>IF(资源数比较!G4&lt;&gt;0,算法分析!G4/资源数比较!G28,"")</f>
+        <v>0</v>
       </c>
       <c r="Q28" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4303,28 +4304,28 @@
         <v>5</v>
       </c>
       <c r="K29" s="17">
-        <f t="shared" si="3"/>
+        <f>IF(资源数比较!B5&lt;&gt;0,算法分析!B5/资源数比较!B29,"")</f>
         <v>0.2</v>
       </c>
       <c r="L29" s="17">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f>IF(资源数比较!C5&lt;&gt;0,算法分析!C5/资源数比较!C29,"")</f>
+        <v>0.05</v>
       </c>
       <c r="M29" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
+        <f>IF(资源数比较!D5&lt;&gt;0,算法分析!D5/资源数比较!D29,"")</f>
+        <v>0</v>
       </c>
       <c r="N29" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.4</v>
+        <f>IF(资源数比较!E5&lt;&gt;0,算法分析!E5/资源数比较!E29,"")</f>
+        <v>0.15</v>
       </c>
       <c r="O29" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.8</v>
+        <f>IF(资源数比较!F5&lt;&gt;0,算法分析!F5/资源数比较!F29,"")</f>
+        <v>0.05</v>
       </c>
       <c r="P29" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
+        <f>IF(资源数比较!G5&lt;&gt;0,算法分析!G5/资源数比较!G29,"")</f>
+        <v>0.1</v>
       </c>
       <c r="Q29" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4381,28 +4382,28 @@
         <v>4</v>
       </c>
       <c r="K30" s="17">
-        <f t="shared" si="3"/>
-        <v>-1.1102230246251565E-16</v>
+        <f>IF(资源数比较!B6&lt;&gt;0,算法分析!B6/资源数比较!B30,"")</f>
+        <v>0.125</v>
       </c>
       <c r="L30" s="17">
-        <f t="shared" si="3"/>
-        <v>-1.1102230246251565E-16</v>
+        <f>IF(资源数比较!C6&lt;&gt;0,算法分析!C6/资源数比较!C30,"")</f>
+        <v>0.125</v>
       </c>
       <c r="M30" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.66666666666666674</v>
+        <f>IF(资源数比较!D6&lt;&gt;0,算法分析!D6/资源数比较!D30,"")</f>
+        <v>0</v>
       </c>
       <c r="N30" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.5</v>
+        <f>IF(资源数比较!E6&lt;&gt;0,算法分析!E6/资源数比较!E30,"")</f>
+        <v>6.25E-2</v>
       </c>
       <c r="O30" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.83333333333333337</v>
+        <f>IF(资源数比较!F6&lt;&gt;0,算法分析!F6/资源数比较!F30,"")</f>
+        <v>0</v>
       </c>
       <c r="P30" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.66666666666666674</v>
+        <f>IF(资源数比较!G6&lt;&gt;0,算法分析!G6/资源数比较!G30,"")</f>
+        <v>0</v>
       </c>
       <c r="Q30" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4459,28 +4460,28 @@
         <v>3</v>
       </c>
       <c r="K31" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(资源数比较!B7&lt;&gt;0,算法分析!B7/资源数比较!B31,"")</f>
+        <v>0.25</v>
       </c>
       <c r="L31" s="17">
-        <f t="shared" si="3"/>
+        <f>IF(资源数比较!C7&lt;&gt;0,算法分析!C7/资源数比较!C31,"")</f>
         <v>0</v>
       </c>
       <c r="M31" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.66666666666666663</v>
+        <f>IF(资源数比较!D7&lt;&gt;0,算法分析!D7/资源数比较!D31,"")</f>
+        <v>0</v>
       </c>
       <c r="N31" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.5</v>
+        <f>IF(资源数比较!E7&lt;&gt;0,算法分析!E7/资源数比较!E31,"")</f>
+        <v>0.125</v>
       </c>
       <c r="O31" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.83333333333333337</v>
+        <f>IF(资源数比较!F7&lt;&gt;0,算法分析!F7/资源数比较!F31,"")</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="P31" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.66666666666666663</v>
+        <f>IF(资源数比较!G7&lt;&gt;0,算法分析!G7/资源数比较!G31,"")</f>
+        <v>0</v>
       </c>
       <c r="Q31" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4504,9 +4505,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
+    <sheetView topLeftCell="J22" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>

--- a/对比/架构优化_160220.xlsx
+++ b/对比/架构优化_160220.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="算法分析" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -442,6 +442,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -750,7 +751,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G10:G11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -813,6 +814,10 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
+      <c r="J2" s="2">
+        <f>SUM(B2:G2)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -838,6 +843,10 @@
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J7" si="0">SUM(B3:G3)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -863,6 +872,10 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -888,6 +901,10 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -913,6 +930,10 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
@@ -938,6 +959,10 @@
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -950,7 +975,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2489,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,10 +2527,11 @@
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="18" width="9" style="1"/>
     <col min="19" max="19" width="12.125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="20" max="20" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="str">
         <f>映射分析!A2</f>
         <v>本文</v>
@@ -2579,7 +2605,7 @@
       </c>
       <c r="S1" s="28"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>算法分析!A$2</f>
         <v>AES</v>
@@ -2653,8 +2679,16 @@
         <v/>
       </c>
       <c r="S2" s="27"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="1">
+        <f>SUM(B2:G2)</f>
+        <v>48</v>
+      </c>
+      <c r="U2" s="35">
+        <f>算法分析!J2/资源数比较!T2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f>算法分析!A$3</f>
         <v>DES</v>
@@ -2728,8 +2762,16 @@
         <v/>
       </c>
       <c r="S3" s="27"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T31" si="1">SUM(B3:G3)</f>
+        <v>48</v>
+      </c>
+      <c r="U3" s="35">
+        <f>算法分析!J3/资源数比较!T3</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f>算法分析!A$4</f>
         <v>SM4</v>
@@ -2803,8 +2845,16 @@
         <v/>
       </c>
       <c r="S4" s="27"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="U4" s="35">
+        <f>算法分析!J4/资源数比较!T4</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>算法分析!A$5</f>
         <v>TWOFISH</v>
@@ -2878,8 +2928,16 @@
         <v/>
       </c>
       <c r="S5" s="27"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="U5" s="35">
+        <f>算法分析!J5/资源数比较!T5</f>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>算法分析!A$6</f>
         <v>RC5</v>
@@ -2953,8 +3011,16 @@
         <v/>
       </c>
       <c r="S6" s="27"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="U6" s="35">
+        <f>算法分析!J6/资源数比较!T6</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>算法分析!A$7</f>
         <v>BLOWFISH</v>
@@ -3028,11 +3094,23 @@
         <v/>
       </c>
       <c r="S7" s="27"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="U7" s="35">
+        <f>算法分析!J7/资源数比较!T7</f>
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>映射分析!A8</f>
         <v>TH</v>
@@ -3073,8 +3151,12 @@
         <f>资源数比较!J1</f>
         <v>CR</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f>算法分析!A$2</f>
         <v>AES</v>
@@ -3136,23 +3218,31 @@
         <v>0.25</v>
       </c>
       <c r="P10" s="16" t="str">
-        <f t="shared" ref="K10:S15" si="1">IF(G10&lt;&gt;0,(G2-G10)/G10,"")</f>
+        <f t="shared" ref="P10:S15" si="2">IF(G10&lt;&gt;0,(G2-G10)/G10,"")</f>
         <v/>
       </c>
       <c r="Q10" s="16">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R10" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S10" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="1">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="R10" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S10" s="16">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="U10" s="35">
+        <f>算法分析!J2/资源数比较!T10</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>算法分析!A$3</f>
         <v>DES</v>
@@ -3214,23 +3304,31 @@
         <v>6.25E-2</v>
       </c>
       <c r="P11" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q11" s="16">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R11" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S11" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.25</v>
+      </c>
+      <c r="T11" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q11" s="16">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="R11" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S11" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="U11" s="35">
+        <f>算法分析!J3/资源数比较!T11</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f>算法分析!A$4</f>
         <v>SM4</v>
@@ -3292,23 +3390,31 @@
         <v>3.125E-2</v>
       </c>
       <c r="P12" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q12" s="16">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R12" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.25</v>
+      </c>
+      <c r="T12" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q12" s="16">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="R12" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S12" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="U12" s="35">
+        <f>算法分析!J4/资源数比较!T12</f>
+        <v>5.3571428571428568E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f>算法分析!A$5</f>
         <v>TWOFISH</v>
@@ -3370,23 +3476,31 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="P13" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q13" s="16">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R13" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S13" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q13" s="16">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="R13" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S13" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="U13" s="35">
+        <f>算法分析!J5/资源数比较!T13</f>
+        <v>5.9523809523809521E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f>算法分析!A$6</f>
         <v>RC5</v>
@@ -3448,23 +3562,31 @@
         <v>0</v>
       </c>
       <c r="P14" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R14" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S14" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q14" s="16">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="R14" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S14" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="U14" s="35">
+        <f>算法分析!J6/资源数比较!T14</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>算法分析!A$7</f>
         <v>BLOWFISH</v>
@@ -3526,32 +3648,48 @@
         <v>3.125E-2</v>
       </c>
       <c r="P15" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q15" s="16">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R15" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S15" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.25</v>
+      </c>
+      <c r="T15" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q15" s="16">
+        <v>168</v>
+      </c>
+      <c r="U15" s="35">
+        <f>算法分析!J7/资源数比较!T15</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="T16" s="1">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="R15" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S15" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>映射分析!A11</f>
         <v>Cyptoraptor</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f>算法分析!A$2</f>
         <v>AES</v>
@@ -3613,23 +3751,31 @@
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="P18" s="17" t="str">
-        <f t="shared" ref="K18:S23" si="2">IF(G18&lt;&gt;0,(G2-G18)/G18,"")</f>
+        <f t="shared" ref="P18:S23" si="3">IF(G18&lt;&gt;0,(G2-G18)/G18,"")</f>
         <v/>
       </c>
       <c r="Q18" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R18" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="S18" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="U18" s="35">
+        <f>算法分析!J2/资源数比较!T18</f>
+        <v>0.13636363636363635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f>算法分析!A$3</f>
         <v>DES</v>
@@ -3691,23 +3837,31 @@
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="P19" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q19" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="S19" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="U19" s="35">
+        <f>算法分析!J3/资源数比较!T19</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>算法分析!A$4</f>
         <v>SM4</v>
@@ -3769,23 +3923,31 @@
         <v>8.9285714285714281E-3</v>
       </c>
       <c r="P20" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q20" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R20" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="S20" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="1">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="U20" s="35">
+        <f>算法分析!J4/资源数比较!T20</f>
+        <v>5.113636363636364E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>算法分析!A$5</f>
         <v>TWOFISH</v>
@@ -3847,23 +4009,31 @@
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="P21" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q21" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R21" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="S21" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="1">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="U21" s="35">
+        <f>算法分析!J5/资源数比较!T21</f>
+        <v>6.8181818181818177E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>算法分析!A$6</f>
         <v>RC5</v>
@@ -3925,23 +4095,31 @@
         <v>0</v>
       </c>
       <c r="P22" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q22" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R22" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="S22" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="U22" s="35">
+        <f>算法分析!J6/资源数比较!T22</f>
+        <v>3.4090909090909088E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>算法分析!A$7</f>
         <v>BLOWFISH</v>
@@ -4003,32 +4181,48 @@
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="P23" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q23" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R23" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="S23" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="U23" s="35">
+        <f>算法分析!J7/资源数比较!T23</f>
+        <v>5.3030303030303032E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f>映射分析!A13</f>
         <v>RCPA</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>算法分析!A$2</f>
         <v>AES</v>
@@ -4094,19 +4288,27 @@
         <v>0.5</v>
       </c>
       <c r="Q26" s="17" t="str">
-        <f t="shared" ref="K26:S31" si="3">IF(H26&lt;&gt;0,(H2-H26)/H26,"")</f>
+        <f t="shared" ref="Q26:S31" si="4">IF(H26&lt;&gt;0,(H2-H26)/H26,"")</f>
         <v/>
       </c>
       <c r="R26" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="U26" s="35">
+        <f>算法分析!J2/资源数比较!T26</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f>算法分析!A$3</f>
         <v>DES</v>
@@ -4172,19 +4374,27 @@
         <v>0</v>
       </c>
       <c r="Q27" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R27" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S27" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="U27" s="35">
+        <f>算法分析!J3/资源数比较!T27</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f>算法分析!A$4</f>
         <v>SM4</v>
@@ -4250,19 +4460,27 @@
         <v>0</v>
       </c>
       <c r="Q28" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R28" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S28" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="1">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="U28" s="35">
+        <f>算法分析!J4/资源数比较!T28</f>
+        <v>7.03125E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>算法分析!A$5</f>
         <v>TWOFISH</v>
@@ -4328,19 +4546,27 @@
         <v>0.1</v>
       </c>
       <c r="Q29" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R29" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S29" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="1">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="U29" s="35">
+        <f>算法分析!J5/资源数比较!T29</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f>算法分析!A$6</f>
         <v>RC5</v>
@@ -4406,19 +4632,27 @@
         <v>0</v>
       </c>
       <c r="Q30" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R30" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S30" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="U30" s="35">
+        <f>算法分析!J6/资源数比较!T30</f>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f>算法分析!A$7</f>
         <v>BLOWFISH</v>
@@ -4484,16 +4718,102 @@
         <v>0</v>
       </c>
       <c r="Q31" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R31" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S31" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="U31" s="35">
+        <f>算法分析!J7/资源数比较!T31</f>
+        <v>7.2916666666666671E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S32" s="1">
+        <v>11</v>
+      </c>
+      <c r="T32" s="1">
+        <f>S32*8</f>
+        <v>88</v>
+      </c>
+      <c r="U32" s="35">
+        <f>算法分析!J2/资源数比较!T32</f>
+        <v>0.13636363636363635</v>
+      </c>
+    </row>
+    <row r="33" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S33" s="1">
+        <v>22</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" ref="T33:T37" si="5">S33*8</f>
+        <v>176</v>
+      </c>
+      <c r="U33" s="35">
+        <f>算法分析!J3/资源数比较!T33</f>
+        <v>3.4090909090909088E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="35" t="e">
+        <f>算法分析!J4/资源数比较!T34</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="35" t="e">
+        <f>算法分析!J5/资源数比较!T35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S36" s="1">
+        <v>11</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="U36" s="35">
+        <f>算法分析!J6/资源数比较!T36</f>
+        <v>6.8181818181818177E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="19:21" x14ac:dyDescent="0.25">
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="35" t="e">
+        <f>算法分析!J7/资源数比较!T37</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -4522,7 +4842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="J22" workbookViewId="0">
+    <sheetView topLeftCell="J16" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>

--- a/对比/架构优化_160220.xlsx
+++ b/对比/架构优化_160220.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="算法分析" sheetId="1" r:id="rId1"/>
@@ -430,6 +430,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,7 +443,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5">
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="7">
         <f>B2/$B2</f>
         <v>1</v>
@@ -1110,7 +1110,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="7">
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="7">
         <f>B4/$B4</f>
         <v>1</v>
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5">
@@ -1215,7 +1215,7 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="7">
         <f>B6/$B6</f>
         <v>1</v>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1382,7 +1382,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1547,7 +1547,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1576,7 +1576,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="21" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -1594,7 +1594,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="5"/>
@@ -1627,7 +1627,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -1645,7 +1645,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="5"/>
@@ -1678,7 +1678,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1761,7 +1761,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="str">
+      <c r="A2" s="32" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="29">
         <f>B2/$K2</f>
         <v>9.0381362674665996E-2</v>
@@ -1847,7 +1847,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="31" t="str">
+      <c r="A4" s="32" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="29">
         <f>B4/$K4</f>
         <v>3.0606379921448414E-2</v>
@@ -1933,7 +1933,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="str">
+      <c r="A6" s="32" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
@@ -1979,7 +1979,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="29">
         <f>B6/$K6</f>
         <v>1.2841156005476079E-2</v>
@@ -2019,7 +2019,7 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="str">
+      <c r="A8" s="35" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="29">
         <f>B8/$K8</f>
         <v>2.9079159935379646E-2</v>
@@ -2162,7 +2162,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="str">
+      <c r="A2" s="35" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="5" t="str">
         <f>架构比较!B3</f>
         <v>T2</v>
@@ -2217,7 +2217,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="5" t="str">
         <f>架构比较!B4</f>
         <v>T3</v>
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="5" t="str">
         <f>架构比较!B5</f>
         <v>T4</v>
@@ -2269,7 +2269,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="5" t="str">
         <f>架构比较!B6</f>
         <v>T5</v>
@@ -2295,7 +2295,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -2320,7 +2320,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="str">
+      <c r="A8" s="35" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
@@ -2348,7 +2348,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="5" t="str">
         <f>架构比较!B9</f>
         <v>T2</v>
@@ -2373,7 +2373,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2398,7 +2398,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="str">
+      <c r="A11" s="32" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
@@ -2425,7 +2425,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2450,7 +2450,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="31" t="str">
+      <c r="A13" s="32" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
@@ -2477,7 +2477,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -2516,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,7 +2683,7 @@
         <f>SUM(B2:G2)</f>
         <v>48</v>
       </c>
-      <c r="U2" s="35">
+      <c r="U2" s="31">
         <f>算法分析!J2/资源数比较!T2</f>
         <v>0.25</v>
       </c>
@@ -2766,7 +2766,7 @@
         <f t="shared" ref="T3:T31" si="1">SUM(B3:G3)</f>
         <v>48</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="31">
         <f>算法分析!J3/资源数比较!T3</f>
         <v>0.125</v>
       </c>
@@ -2849,7 +2849,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="31">
         <f>算法分析!J4/资源数比较!T4</f>
         <v>0.1875</v>
       </c>
@@ -2932,7 +2932,7 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="31">
         <f>算法分析!J5/资源数比较!T5</f>
         <v>0.15625</v>
       </c>
@@ -3015,7 +3015,7 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="31">
         <f>算法分析!J6/资源数比较!T6</f>
         <v>9.375E-2</v>
       </c>
@@ -3098,7 +3098,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="31">
         <f>算法分析!J7/资源数比较!T7</f>
         <v>0.14583333333333334</v>
       </c>
@@ -3237,7 +3237,7 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U10" s="31">
         <f>算法分析!J2/资源数比较!T10</f>
         <v>0.14285714285714285</v>
       </c>
@@ -3323,7 +3323,7 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11" s="31">
         <f>算法分析!J3/资源数比较!T11</f>
         <v>3.5714285714285712E-2</v>
       </c>
@@ -3409,7 +3409,7 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="U12" s="35">
+      <c r="U12" s="31">
         <f>算法分析!J4/资源数比较!T12</f>
         <v>5.3571428571428568E-2</v>
       </c>
@@ -3495,7 +3495,7 @@
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="31">
         <f>算法分析!J5/资源数比较!T13</f>
         <v>5.9523809523809521E-2</v>
       </c>
@@ -3581,7 +3581,7 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="U14" s="35">
+      <c r="U14" s="31">
         <f>算法分析!J6/资源数比较!T14</f>
         <v>3.5714285714285712E-2</v>
       </c>
@@ -3667,7 +3667,7 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15" s="31">
         <f>算法分析!J7/资源数比较!T15</f>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3770,7 +3770,7 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="U18" s="35">
+      <c r="U18" s="31">
         <f>算法分析!J2/资源数比较!T18</f>
         <v>0.13636363636363635</v>
       </c>
@@ -3856,7 +3856,7 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19" s="31">
         <f>算法分析!J3/资源数比较!T19</f>
         <v>4.5454545454545456E-2</v>
       </c>
@@ -3942,7 +3942,7 @@
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="U20" s="35">
+      <c r="U20" s="31">
         <f>算法分析!J4/资源数比较!T20</f>
         <v>5.113636363636364E-2</v>
       </c>
@@ -4028,7 +4028,7 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21" s="31">
         <f>算法分析!J5/资源数比较!T21</f>
         <v>6.8181818181818177E-2</v>
       </c>
@@ -4114,7 +4114,7 @@
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="U22" s="35">
+      <c r="U22" s="31">
         <f>算法分析!J6/资源数比较!T22</f>
         <v>3.4090909090909088E-2</v>
       </c>
@@ -4200,7 +4200,7 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="U23" s="35">
+      <c r="U23" s="31">
         <f>算法分析!J7/资源数比较!T23</f>
         <v>5.3030303030303032E-2</v>
       </c>
@@ -4303,7 +4303,7 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="U26" s="35">
+      <c r="U26" s="31">
         <f>算法分析!J2/资源数比较!T26</f>
         <v>0.1875</v>
       </c>
@@ -4389,7 +4389,7 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="U27" s="35">
+      <c r="U27" s="31">
         <f>算法分析!J3/资源数比较!T27</f>
         <v>6.25E-2</v>
       </c>
@@ -4475,7 +4475,7 @@
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="U28" s="35">
+      <c r="U28" s="31">
         <f>算法分析!J4/资源数比较!T28</f>
         <v>7.03125E-2</v>
       </c>
@@ -4561,7 +4561,7 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="U29" s="35">
+      <c r="U29" s="31">
         <f>算法分析!J5/资源数比较!T29</f>
         <v>9.375E-2</v>
       </c>
@@ -4647,7 +4647,7 @@
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="U30" s="35">
+      <c r="U30" s="31">
         <f>算法分析!J6/资源数比较!T30</f>
         <v>4.6875E-2</v>
       </c>
@@ -4733,7 +4733,7 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="U31" s="35">
+      <c r="U31" s="31">
         <f>算法分析!J7/资源数比较!T31</f>
         <v>7.2916666666666671E-2</v>
       </c>
@@ -4746,7 +4746,7 @@
         <f>S32*8</f>
         <v>88</v>
       </c>
-      <c r="U32" s="35">
+      <c r="U32" s="31">
         <f>算法分析!J2/资源数比较!T32</f>
         <v>0.13636363636363635</v>
       </c>
@@ -4759,7 +4759,7 @@
         <f t="shared" ref="T33:T37" si="5">S33*8</f>
         <v>176</v>
       </c>
-      <c r="U33" s="35">
+      <c r="U33" s="31">
         <f>算法分析!J3/资源数比较!T33</f>
         <v>3.4090909090909088E-2</v>
       </c>
@@ -4772,7 +4772,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U34" s="35" t="e">
+      <c r="U34" s="31" t="e">
         <f>算法分析!J4/资源数比较!T34</f>
         <v>#DIV/0!</v>
       </c>
@@ -4785,7 +4785,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U35" s="35" t="e">
+      <c r="U35" s="31" t="e">
         <f>算法分析!J5/资源数比较!T35</f>
         <v>#DIV/0!</v>
       </c>
@@ -4798,7 +4798,7 @@
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="U36" s="35">
+      <c r="U36" s="31">
         <f>算法分析!J6/资源数比较!T36</f>
         <v>6.8181818181818177E-2</v>
       </c>
@@ -4811,7 +4811,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U37" s="35" t="e">
+      <c r="U37" s="31" t="e">
         <f>算法分析!J7/资源数比较!T37</f>
         <v>#DIV/0!</v>
       </c>

--- a/对比/架构优化_160220.xlsx
+++ b/对比/架构优化_160220.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="算法分析" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,15 @@
     <sheet name="架构面积" sheetId="7" r:id="rId4"/>
     <sheet name="映射分析" sheetId="5" r:id="rId5"/>
     <sheet name="资源数比较" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
-    <sheet name="面积比较" sheetId="4" r:id="rId8"/>
+    <sheet name="面积比较" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>AES</t>
   </si>
@@ -190,6 +190,10 @@
   </si>
   <si>
     <t>4*LUT256*8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COBRA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +755,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -975,7 +979,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1296,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1539,7 +1543,7 @@
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5">
@@ -1568,7 +1572,7 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5">
@@ -1692,12 +1696,95 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3</v>
+      </c>
+      <c r="G15" s="30">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="5">
+        <f>单元面积!J11</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1706,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1877,7 +1964,7 @@
       </c>
       <c r="H4" s="5">
         <f>SUMPRODUCT(架构比较!I8:I9,架构比较!$K8:$K9)*单元面积!H9</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
         <f>SUMPRODUCT(架构比较!J8:J9,架构比较!$K8:$K9)*单元面积!I9</f>
@@ -1889,30 +1976,30 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(B4:I4)</f>
-        <v>334048</v>
+        <v>330048</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
       <c r="B5" s="29">
         <f>B4/$K4</f>
-        <v>3.0606379921448414E-2</v>
+        <v>3.0977312390924956E-2</v>
       </c>
       <c r="C5" s="29">
         <f t="shared" ref="C5:J5" si="1">C4/$K4</f>
-        <v>8.5005747676980548E-2</v>
+        <v>8.6035970525499328E-2</v>
       </c>
       <c r="D5" s="29">
         <f t="shared" si="1"/>
-        <v>2.7517003544400804E-2</v>
+        <v>2.7850494473531124E-2</v>
       </c>
       <c r="E5" s="29">
         <f t="shared" si="1"/>
-        <v>0.23191876616534152</v>
+        <v>0.23472949389179756</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" si="1"/>
-        <v>0.61297777564900857</v>
+        <v>0.62040672871824709</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
@@ -1920,7 +2007,7 @@
       </c>
       <c r="H5" s="29">
         <f t="shared" si="1"/>
-        <v>1.1974327042820193E-2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="29">
         <f t="shared" si="1"/>
@@ -1928,7 +2015,7 @@
       </c>
       <c r="J5" s="29">
         <f t="shared" si="1"/>
-        <v>0.11589352428393525</v>
+        <v>0.11729808997479155</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -2104,12 +2191,99 @@
       </c>
       <c r="K9" s="5"/>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="35" t="str">
+        <f>架构比较!A15</f>
+        <v>COBRA</v>
+      </c>
+      <c r="B10" s="5">
+        <f>架构比较!C15*架构比较!$K15*单元面积!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <f>架构比较!D15*架构比较!$K15*单元面积!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f>架构比较!E15*架构比较!$K15*单元面积!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f>架构比较!F15*架构比较!$K15*单元面积!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f>架构比较!G15*架构比较!$K15*单元面积!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f>架构比较!H15*架构比较!$K15*单元面积!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <f>架构比较!I15*架构比较!$K15*单元面积!H11</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f>架构比较!J15*架构比较!$K15*单元面积!I11</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <f>架构比较!K16*单元面积!J11</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <f>SUM(B10:I10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="35"/>
+      <c r="B11" s="29" t="e">
+        <f>B10/$K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="29" t="e">
+        <f t="shared" ref="C11:J11" si="4">C10/$K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2121,7 +2295,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2516,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3187,7 +3361,7 @@
       </c>
       <c r="H10" s="6">
         <f>SUMPRODUCT(架构比较!I$8:I$9,映射分析!$C$8:$C$9)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6">
         <f>SUMPRODUCT(架构比较!J$8:J$9,映射分析!$C$8:$C$9)</f>
@@ -3221,9 +3395,9 @@
         <f t="shared" ref="P10:S15" si="2">IF(G10&lt;&gt;0,(G2-G10)/G10,"")</f>
         <v/>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v/>
       </c>
       <c r="R10" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3273,7 +3447,7 @@
       </c>
       <c r="H11" s="6">
         <f>SUMPRODUCT(架构比较!I$8:I$9,映射分析!$D$8:$D$9)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I11" s="6">
         <f>SUMPRODUCT(架构比较!J$8:J$9,映射分析!$D$8:$D$9)</f>
@@ -3307,9 +3481,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v/>
       </c>
       <c r="R11" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3359,7 +3533,7 @@
       </c>
       <c r="H12" s="6">
         <f>SUMPRODUCT(架构比较!I$8:I$9,映射分析!$E$8:$E$9)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I12" s="6">
         <f>SUMPRODUCT(架构比较!J$8:J$9,映射分析!$E$8:$E$9)</f>
@@ -3393,9 +3567,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v/>
       </c>
       <c r="R12" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3445,7 +3619,7 @@
       </c>
       <c r="H13" s="6">
         <f>SUMPRODUCT(架构比较!I$8:I$9,映射分析!$F$8:$F$9)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I13" s="6">
         <f>SUMPRODUCT(架构比较!J$8:J$9,映射分析!$F$8:$F$9)</f>
@@ -3479,9 +3653,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v/>
       </c>
       <c r="R13" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3531,7 +3705,7 @@
       </c>
       <c r="H14" s="6">
         <f>SUMPRODUCT(架构比较!I$8:I$9,映射分析!$G$8:$G$9)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I14" s="6">
         <f>SUMPRODUCT(架构比较!J$8:J$9,映射分析!$G$8:$G$9)</f>
@@ -3565,9 +3739,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v/>
       </c>
       <c r="R14" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3617,7 +3791,7 @@
       </c>
       <c r="H15" s="6">
         <f>SUMPRODUCT(架构比较!I$8:I$9,映射分析!$H$8:$H$9)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I15" s="6">
         <f>SUMPRODUCT(架构比较!J$8:J$9,映射分析!$H$8:$H$9)</f>
@@ -3651,9 +3825,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v/>
       </c>
       <c r="R15" s="16" t="str">
         <f t="shared" si="2"/>
@@ -4756,7 +4930,7 @@
         <v>22</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" ref="T33:T37" si="5">S33*8</f>
+        <f>S33*8</f>
         <v>176</v>
       </c>
       <c r="U33" s="31">
@@ -4769,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T33:T37" si="5">S34*8</f>
         <v>0</v>
       </c>
       <c r="U34" s="31" t="e">
@@ -4795,7 +4969,7 @@
         <v>11</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" si="5"/>
+        <f>S36*8</f>
         <v>88</v>
       </c>
       <c r="U36" s="31">
@@ -4825,25 +4999,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="J16" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5294,7 +5453,7 @@
       </c>
       <c r="H10" s="5">
         <f>资源数比较!H10*单元面积!H$9</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
         <f>资源数比较!I10*单元面积!I$9</f>
@@ -5306,7 +5465,7 @@
       </c>
       <c r="K10" s="23">
         <f t="shared" ref="K10:K15" si="3">SUM(B10:J10)</f>
-        <v>411476</v>
+        <v>407476</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" ref="L10:L15" si="4">K10/K$10</f>
@@ -5315,11 +5474,11 @@
       <c r="M10" s="19"/>
       <c r="N10" s="18">
         <f t="shared" ref="N10:V15" si="5">(B10-B2)/($K10-$K2)</f>
-        <v>-2.3388751986808596E-2</v>
+        <v>-2.3824770490840606E-2</v>
       </c>
       <c r="O10" s="18">
         <f t="shared" si="5"/>
-        <v>-6.4959604989966446E-2</v>
+        <v>-6.6170596914897281E-2</v>
       </c>
       <c r="P10" s="18">
         <f t="shared" si="5"/>
@@ -5327,19 +5486,19 @@
       </c>
       <c r="Q10" s="18">
         <f t="shared" si="5"/>
-        <v>0.26584116694865545</v>
+        <v>0.27079703924096293</v>
       </c>
       <c r="R10" s="18">
         <f t="shared" si="5"/>
-        <v>0.70263709093704163</v>
+        <v>0.71573581349566984</v>
       </c>
       <c r="S10" s="18">
         <f t="shared" si="5"/>
-        <v>-0.14640846314121186</v>
+        <v>-0.14913784344814152</v>
       </c>
       <c r="T10" s="18">
         <f t="shared" si="5"/>
-        <v>1.8301057892651483E-2</v>
+        <v>0</v>
       </c>
       <c r="U10" s="18">
         <f t="shared" si="5"/>
@@ -5347,11 +5506,11 @@
       </c>
       <c r="V10" s="18">
         <f t="shared" si="5"/>
-        <v>0.24797750433963833</v>
+        <v>0.25260035811724657</v>
       </c>
       <c r="W10" s="16">
         <f>(K10-K2)/K10</f>
-        <v>0.53117703098115077</v>
+        <v>0.52657481667631956</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
@@ -5385,7 +5544,7 @@
       </c>
       <c r="H11" s="5">
         <f>资源数比较!H11*单元面积!H$9</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5">
         <f>资源数比较!I11*单元面积!I$9</f>
@@ -5397,7 +5556,7 @@
       </c>
       <c r="K11" s="23">
         <f t="shared" si="3"/>
-        <v>822952</v>
+        <v>814952</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="4"/>
@@ -5406,31 +5565,31 @@
       <c r="M11" s="19"/>
       <c r="N11" s="18">
         <f t="shared" si="5"/>
-        <v>8.1137370711123341E-3</v>
+        <v>8.2180866712344147E-3</v>
       </c>
       <c r="O11" s="18">
         <f t="shared" si="5"/>
-        <v>2.2534984142342122E-2</v>
+        <v>2.282480331732907E-2</v>
       </c>
       <c r="P11" s="18">
         <f t="shared" si="5"/>
-        <v>1.4589489663079925E-2</v>
+        <v>1.4777122981609299E-2</v>
       </c>
       <c r="Q11" s="18">
         <f t="shared" si="5"/>
-        <v>0.21518544936485248</v>
+        <v>0.21795291833710426</v>
       </c>
       <c r="R11" s="18">
         <f t="shared" si="5"/>
-        <v>0.56875043052644381</v>
+        <v>0.57606504763500122</v>
       </c>
       <c r="S11" s="18">
         <f t="shared" si="5"/>
-        <v>-5.0790216407588948E-2</v>
+        <v>-5.1443422042155955E-2</v>
       </c>
       <c r="T11" s="18">
         <f t="shared" si="5"/>
-        <v>1.2697554101897237E-2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="18">
         <f t="shared" si="5"/>
@@ -5438,11 +5597,11 @@
       </c>
       <c r="V11" s="18">
         <f t="shared" si="5"/>
-        <v>0.20891857153786111</v>
+        <v>0.21160544309987775</v>
       </c>
       <c r="W11" s="16">
         <f t="shared" ref="W11:W15" si="6">(K11-K3)/K11</f>
-        <v>0.76558851549057538</v>
+        <v>0.76328740833815978</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.15">
@@ -5476,7 +5635,7 @@
       </c>
       <c r="H12" s="5">
         <f>资源数比较!H12*单元面积!H$9</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
         <f>资源数比较!I12*单元面积!I$9</f>
@@ -5488,7 +5647,7 @@
       </c>
       <c r="K12" s="23">
         <f t="shared" si="3"/>
-        <v>822952</v>
+        <v>814952</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="4"/>
@@ -5497,31 +5656,31 @@
       <c r="M12" s="19"/>
       <c r="N12" s="18">
         <f t="shared" si="5"/>
-        <v>8.1137370711123341E-3</v>
+        <v>8.2180866712344147E-3</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="5"/>
-        <v>2.2534984142342122E-2</v>
+        <v>2.282480331732907E-2</v>
       </c>
       <c r="P12" s="18">
         <f t="shared" si="5"/>
-        <v>1.4589489663079925E-2</v>
+        <v>1.4777122981609299E-2</v>
       </c>
       <c r="Q12" s="18">
         <f t="shared" si="5"/>
-        <v>0.21518544936485248</v>
+        <v>0.21795291833710426</v>
       </c>
       <c r="R12" s="18">
         <f t="shared" si="5"/>
-        <v>0.56875043052644381</v>
+        <v>0.57606504763500122</v>
       </c>
       <c r="S12" s="18">
         <f t="shared" si="5"/>
-        <v>-5.0790216407588948E-2</v>
+        <v>-5.1443422042155955E-2</v>
       </c>
       <c r="T12" s="18">
         <f t="shared" si="5"/>
-        <v>1.2697554101897237E-2</v>
+        <v>0</v>
       </c>
       <c r="U12" s="18">
         <f t="shared" si="5"/>
@@ -5529,11 +5688,11 @@
       </c>
       <c r="V12" s="18">
         <f t="shared" si="5"/>
-        <v>0.20891857153786111</v>
+        <v>0.21160544309987775</v>
       </c>
       <c r="W12" s="16">
         <f t="shared" si="6"/>
-        <v>0.76558851549057538</v>
+        <v>0.76328740833815978</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
@@ -5567,7 +5726,7 @@
       </c>
       <c r="H13" s="5">
         <f>资源数比较!H13*单元面积!H$9</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
         <f>资源数比较!I13*单元面积!I$9</f>
@@ -5579,7 +5738,7 @@
       </c>
       <c r="K13" s="23">
         <f t="shared" si="3"/>
-        <v>1234428</v>
+        <v>1222428</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="4"/>
@@ -5596,23 +5755,23 @@
       </c>
       <c r="P13" s="18">
         <f t="shared" si="5"/>
-        <v>1.0831841087746869E-2</v>
+        <v>1.0987208842551577E-2</v>
       </c>
       <c r="Q13" s="18">
         <f t="shared" si="5"/>
-        <v>0.22823226521701628</v>
+        <v>0.23150594088613896</v>
       </c>
       <c r="R13" s="18">
         <f t="shared" si="5"/>
-        <v>0.60323409173504128</v>
+        <v>0.61188664910689483</v>
       </c>
       <c r="S13" s="18">
         <f t="shared" si="5"/>
-        <v>-7.5417518452545657E-2</v>
+        <v>-7.649927827712151E-2</v>
       </c>
       <c r="T13" s="18">
         <f t="shared" si="5"/>
-        <v>1.4140784709852309E-2</v>
+        <v>0</v>
       </c>
       <c r="U13" s="18">
         <f t="shared" si="5"/>
@@ -5620,11 +5779,11 @@
       </c>
       <c r="V13" s="18">
         <f t="shared" si="5"/>
-        <v>0.21897853570288894</v>
+        <v>0.22211947944153618</v>
       </c>
       <c r="W13" s="16">
         <f t="shared" si="6"/>
-        <v>0.68745135398743384</v>
+        <v>0.68438321111754641</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
@@ -5658,7 +5817,7 @@
       </c>
       <c r="H14" s="5">
         <f>资源数比较!H14*单元面积!H$9</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
         <f>资源数比较!I14*单元面积!I$9</f>
@@ -5670,7 +5829,7 @@
       </c>
       <c r="K14" s="23">
         <f t="shared" si="3"/>
-        <v>822952</v>
+        <v>814952</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="4"/>
@@ -5679,31 +5838,31 @@
       <c r="M14" s="19"/>
       <c r="N14" s="18">
         <f t="shared" si="5"/>
-        <v>6.4304843862611546E-18</v>
+        <v>6.5227207764838943E-18</v>
       </c>
       <c r="O14" s="18">
         <f t="shared" si="5"/>
-        <v>1.2860968772522309E-17</v>
+        <v>1.3045441552967789E-17</v>
       </c>
       <c r="P14" s="18">
         <f t="shared" si="5"/>
-        <v>1.0831841087746869E-2</v>
+        <v>1.0987208842551575E-2</v>
       </c>
       <c r="Q14" s="18">
         <f t="shared" si="5"/>
-        <v>0.22823226521701626</v>
+        <v>0.23150594088613896</v>
       </c>
       <c r="R14" s="18">
         <f t="shared" si="5"/>
-        <v>0.60323409173504139</v>
+        <v>0.61188664910689494</v>
       </c>
       <c r="S14" s="18">
         <f t="shared" si="5"/>
-        <v>-7.5417518452545643E-2</v>
+        <v>-7.6499278277121496E-2</v>
       </c>
       <c r="T14" s="18">
         <f t="shared" si="5"/>
-        <v>1.4140784709852309E-2</v>
+        <v>0</v>
       </c>
       <c r="U14" s="18">
         <f t="shared" si="5"/>
@@ -5711,11 +5870,11 @@
       </c>
       <c r="V14" s="18">
         <f t="shared" si="5"/>
-        <v>0.21897853570288892</v>
+        <v>0.22211947944153615</v>
       </c>
       <c r="W14" s="16">
         <f t="shared" si="6"/>
-        <v>0.68745135398743384</v>
+        <v>0.68438321111754641</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.15">
@@ -5749,7 +5908,7 @@
       </c>
       <c r="H15" s="5">
         <f>资源数比较!H15*单元面积!H$9</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5">
         <f>资源数比较!I15*单元面积!I$9</f>
@@ -5761,7 +5920,7 @@
       </c>
       <c r="K15" s="23">
         <f t="shared" si="3"/>
-        <v>822952</v>
+        <v>814952</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="4"/>
@@ -5770,31 +5929,31 @@
       <c r="M15" s="19"/>
       <c r="N15" s="18">
         <f t="shared" si="5"/>
-        <v>8.1137370711123341E-3</v>
+        <v>8.2180866712344147E-3</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="5"/>
-        <v>2.2534984142342122E-2</v>
+        <v>2.282480331732907E-2</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" si="5"/>
-        <v>1.4589489663079925E-2</v>
+        <v>1.4777122981609299E-2</v>
       </c>
       <c r="Q15" s="18">
         <f t="shared" si="5"/>
-        <v>0.21518544936485248</v>
+        <v>0.21795291833710426</v>
       </c>
       <c r="R15" s="18">
         <f t="shared" si="5"/>
-        <v>0.56875043052644381</v>
+        <v>0.57606504763500122</v>
       </c>
       <c r="S15" s="18">
         <f t="shared" si="5"/>
-        <v>-5.0790216407588948E-2</v>
+        <v>-5.1443422042155955E-2</v>
       </c>
       <c r="T15" s="18">
         <f t="shared" si="5"/>
-        <v>1.2697554101897237E-2</v>
+        <v>0</v>
       </c>
       <c r="U15" s="18">
         <f t="shared" si="5"/>
@@ -5802,11 +5961,11 @@
       </c>
       <c r="V15" s="18">
         <f t="shared" si="5"/>
-        <v>0.20891857153786111</v>
+        <v>0.21160544309987775</v>
       </c>
       <c r="W15" s="16">
         <f t="shared" si="6"/>
-        <v>0.76558851549057538</v>
+        <v>0.76328740833815978</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.15">
@@ -6920,4 +7079,19 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/对比/架构优化_160220.xlsx
+++ b/对比/架构优化_160220.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="算法分析" sheetId="1" r:id="rId1"/>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" ref="T33:T37" si="5">S34*8</f>
+        <f t="shared" ref="T34:T37" si="5">S34*8</f>
         <v>0</v>
       </c>
       <c r="U34" s="31" t="e">
@@ -5001,7 +5001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
